--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>1305</v>
+        <v>746</v>
       </c>
       <c r="E2" t="n">
-        <v>56527</v>
+        <v>57260</v>
       </c>
       <c r="F2" t="n">
-        <v>579553</v>
+        <v>585727</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>1259</v>
+        <v>869</v>
       </c>
       <c r="E3" t="n">
-        <v>56383</v>
+        <v>57183</v>
       </c>
       <c r="F3" t="n">
-        <v>578248</v>
+        <v>584981</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>2780</v>
+        <v>1203</v>
       </c>
       <c r="E4" t="n">
-        <v>56155</v>
+        <v>57114</v>
       </c>
       <c r="F4" t="n">
-        <v>576989</v>
+        <v>584112</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>322</v>
+        <v>194</v>
       </c>
       <c r="D5" t="n">
-        <v>3625</v>
+        <v>1487</v>
       </c>
       <c r="E5" t="n">
-        <v>55921</v>
+        <v>56948</v>
       </c>
       <c r="F5" t="n">
-        <v>574209</v>
+        <v>582909</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D6" t="n">
-        <v>3760</v>
+        <v>1869</v>
       </c>
       <c r="E6" t="n">
-        <v>55599</v>
+        <v>56754</v>
       </c>
       <c r="F6" t="n">
-        <v>570584</v>
+        <v>581422</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
-        <v>3961</v>
+        <v>1305</v>
       </c>
       <c r="E7" t="n">
-        <v>55384</v>
+        <v>56527</v>
       </c>
       <c r="F7" t="n">
-        <v>566824</v>
+        <v>579553</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D8" t="n">
-        <v>4024</v>
+        <v>1259</v>
       </c>
       <c r="E8" t="n">
-        <v>55131</v>
+        <v>56383</v>
       </c>
       <c r="F8" t="n">
-        <v>562863</v>
+        <v>578248</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D9" t="n">
-        <v>4390</v>
+        <v>2780</v>
       </c>
       <c r="E9" t="n">
-        <v>54886</v>
+        <v>56155</v>
       </c>
       <c r="F9" t="n">
-        <v>558839</v>
+        <v>576989</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D10" t="n">
-        <v>4722</v>
+        <v>3625</v>
       </c>
       <c r="E10" t="n">
-        <v>54625</v>
+        <v>55921</v>
       </c>
       <c r="F10" t="n">
-        <v>554449</v>
+        <v>574209</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
-        <v>5395</v>
+        <v>3760</v>
       </c>
       <c r="E11" t="n">
-        <v>54365</v>
+        <v>55599</v>
       </c>
       <c r="F11" t="n">
-        <v>549727</v>
+        <v>570584</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>727</v>
+        <v>253</v>
       </c>
       <c r="D12" t="n">
-        <v>6606</v>
+        <v>3961</v>
       </c>
       <c r="E12" t="n">
-        <v>54091</v>
+        <v>55384</v>
       </c>
       <c r="F12" t="n">
-        <v>544332</v>
+        <v>566824</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>788</v>
+        <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>7084</v>
+        <v>4024</v>
       </c>
       <c r="E13" t="n">
-        <v>53364</v>
+        <v>55131</v>
       </c>
       <c r="F13" t="n">
-        <v>537726</v>
+        <v>562863</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1249</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
-        <v>8932</v>
+        <v>4390</v>
       </c>
       <c r="E14" t="n">
-        <v>52576</v>
+        <v>54886</v>
       </c>
       <c r="F14" t="n">
-        <v>530642</v>
+        <v>558839</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5487</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
-        <v>9545</v>
+        <v>4722</v>
       </c>
       <c r="E15" t="n">
-        <v>51327</v>
+        <v>54625</v>
       </c>
       <c r="F15" t="n">
-        <v>521710</v>
+        <v>554449</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1292</v>
+        <v>274</v>
       </c>
       <c r="D16" t="n">
-        <v>9330</v>
+        <v>5395</v>
       </c>
       <c r="E16" t="n">
-        <v>45840</v>
+        <v>54365</v>
       </c>
       <c r="F16" t="n">
-        <v>512165</v>
+        <v>549727</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1606</v>
+        <v>727</v>
       </c>
       <c r="D17" t="n">
-        <v>11956</v>
+        <v>6606</v>
       </c>
       <c r="E17" t="n">
-        <v>44548</v>
+        <v>54091</v>
       </c>
       <c r="F17" t="n">
-        <v>502835</v>
+        <v>544332</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1661</v>
+        <v>788</v>
       </c>
       <c r="D18" t="n">
-        <v>15319</v>
+        <v>7084</v>
       </c>
       <c r="E18" t="n">
-        <v>42942</v>
+        <v>53364</v>
       </c>
       <c r="F18" t="n">
-        <v>490879</v>
+        <v>537726</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2472</v>
+        <v>1249</v>
       </c>
       <c r="D19" t="n">
-        <v>16983</v>
+        <v>8932</v>
       </c>
       <c r="E19" t="n">
-        <v>41281</v>
+        <v>52576</v>
       </c>
       <c r="F19" t="n">
-        <v>475560</v>
+        <v>530642</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1401</v>
+        <v>5487</v>
       </c>
       <c r="D20" t="n">
-        <v>19657</v>
+        <v>9545</v>
       </c>
       <c r="E20" t="n">
-        <v>38809</v>
+        <v>51327</v>
       </c>
       <c r="F20" t="n">
-        <v>458577</v>
+        <v>521710</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2736</v>
+        <v>1292</v>
       </c>
       <c r="D21" t="n">
-        <v>20634</v>
+        <v>9330</v>
       </c>
       <c r="E21" t="n">
-        <v>37408</v>
+        <v>45840</v>
       </c>
       <c r="F21" t="n">
-        <v>438920</v>
+        <v>512165</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1931</v>
+        <v>1606</v>
       </c>
       <c r="D22" t="n">
-        <v>15698</v>
+        <v>11956</v>
       </c>
       <c r="E22" t="n">
-        <v>34672</v>
+        <v>44548</v>
       </c>
       <c r="F22" t="n">
-        <v>418286</v>
+        <v>502835</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2634</v>
+        <v>1661</v>
       </c>
       <c r="D23" t="n">
-        <v>15861</v>
+        <v>15319</v>
       </c>
       <c r="E23" t="n">
-        <v>32741</v>
+        <v>42942</v>
       </c>
       <c r="F23" t="n">
-        <v>402588</v>
+        <v>490879</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2494</v>
+        <v>2472</v>
       </c>
       <c r="D24" t="n">
-        <v>16407</v>
+        <v>16983</v>
       </c>
       <c r="E24" t="n">
-        <v>30107</v>
+        <v>41281</v>
       </c>
       <c r="F24" t="n">
-        <v>386727</v>
+        <v>475560</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3084</v>
+        <v>1401</v>
       </c>
       <c r="D25" t="n">
-        <v>17332</v>
+        <v>19657</v>
       </c>
       <c r="E25" t="n">
-        <v>27613</v>
+        <v>38809</v>
       </c>
       <c r="F25" t="n">
-        <v>370320</v>
+        <v>458577</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2417</v>
+        <v>2736</v>
       </c>
       <c r="D26" t="n">
-        <v>19831</v>
+        <v>20634</v>
       </c>
       <c r="E26" t="n">
-        <v>24529</v>
+        <v>37408</v>
       </c>
       <c r="F26" t="n">
-        <v>352988</v>
+        <v>438920</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3238</v>
+        <v>1931</v>
       </c>
       <c r="D27" t="n">
-        <v>21582</v>
+        <v>15698</v>
       </c>
       <c r="E27" t="n">
-        <v>22112</v>
+        <v>34672</v>
       </c>
       <c r="F27" t="n">
-        <v>333157</v>
+        <v>418286</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3590</v>
+        <v>2634</v>
       </c>
       <c r="D28" t="n">
-        <v>19923</v>
+        <v>15861</v>
       </c>
       <c r="E28" t="n">
-        <v>18874</v>
+        <v>32741</v>
       </c>
       <c r="F28" t="n">
-        <v>311575</v>
+        <v>402588</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3200</v>
+        <v>2494</v>
       </c>
       <c r="D29" t="n">
-        <v>19872</v>
+        <v>16407</v>
       </c>
       <c r="E29" t="n">
-        <v>15284</v>
+        <v>30107</v>
       </c>
       <c r="F29" t="n">
-        <v>291652</v>
+        <v>386727</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2573</v>
+        <v>3084</v>
       </c>
       <c r="D30" t="n">
-        <v>25146</v>
+        <v>17332</v>
       </c>
       <c r="E30" t="n">
-        <v>12084</v>
+        <v>27613</v>
       </c>
       <c r="F30" t="n">
-        <v>271780</v>
+        <v>370320</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1189</v>
+        <v>2417</v>
       </c>
       <c r="D31" t="n">
-        <v>25141</v>
+        <v>19831</v>
       </c>
       <c r="E31" t="n">
-        <v>9511</v>
+        <v>24529</v>
       </c>
       <c r="F31" t="n">
-        <v>246634</v>
+        <v>352988</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>994</v>
+        <v>3238</v>
       </c>
       <c r="D32" t="n">
-        <v>22348</v>
+        <v>21582</v>
       </c>
       <c r="E32" t="n">
-        <v>8322</v>
+        <v>22112</v>
       </c>
       <c r="F32" t="n">
-        <v>221493</v>
+        <v>333157</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>914</v>
+        <v>3590</v>
       </c>
       <c r="D33" t="n">
-        <v>25173</v>
+        <v>19923</v>
       </c>
       <c r="E33" t="n">
-        <v>7328</v>
+        <v>18874</v>
       </c>
       <c r="F33" t="n">
-        <v>199145</v>
+        <v>311575</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1006</v>
+        <v>3200</v>
       </c>
       <c r="D34" t="n">
-        <v>23937</v>
+        <v>19872</v>
       </c>
       <c r="E34" t="n">
-        <v>6414</v>
+        <v>15284</v>
       </c>
       <c r="F34" t="n">
-        <v>173972</v>
+        <v>291652</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1015</v>
+        <v>2573</v>
       </c>
       <c r="D35" t="n">
-        <v>22609</v>
+        <v>25146</v>
       </c>
       <c r="E35" t="n">
-        <v>5408</v>
+        <v>12084</v>
       </c>
       <c r="F35" t="n">
-        <v>150035</v>
+        <v>271780</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>824</v>
+        <v>1189</v>
       </c>
       <c r="D36" t="n">
-        <v>20398</v>
+        <v>25141</v>
       </c>
       <c r="E36" t="n">
-        <v>4393</v>
+        <v>9511</v>
       </c>
       <c r="F36" t="n">
-        <v>127426</v>
+        <v>246634</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>322</v>
+        <v>994</v>
       </c>
       <c r="D37" t="n">
-        <v>19660</v>
+        <v>22348</v>
       </c>
       <c r="E37" t="n">
-        <v>3569</v>
+        <v>8322</v>
       </c>
       <c r="F37" t="n">
-        <v>107028</v>
+        <v>221493</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>311</v>
+        <v>914</v>
       </c>
       <c r="D38" t="n">
-        <v>16766</v>
+        <v>25173</v>
       </c>
       <c r="E38" t="n">
-        <v>3247</v>
+        <v>7328</v>
       </c>
       <c r="F38" t="n">
-        <v>87368</v>
+        <v>199145</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>268</v>
+        <v>1006</v>
       </c>
       <c r="D39" t="n">
-        <v>13086</v>
+        <v>23937</v>
       </c>
       <c r="E39" t="n">
-        <v>2936</v>
+        <v>6414</v>
       </c>
       <c r="F39" t="n">
-        <v>70602</v>
+        <v>173972</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>425</v>
+        <v>1015</v>
       </c>
       <c r="D40" t="n">
-        <v>8581</v>
+        <v>22609</v>
       </c>
       <c r="E40" t="n">
-        <v>2668</v>
+        <v>5408</v>
       </c>
       <c r="F40" t="n">
-        <v>57516</v>
+        <v>150035</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>438</v>
+        <v>824</v>
       </c>
       <c r="D41" t="n">
-        <v>7788</v>
+        <v>20398</v>
       </c>
       <c r="E41" t="n">
-        <v>2243</v>
+        <v>4393</v>
       </c>
       <c r="F41" t="n">
-        <v>48935</v>
+        <v>127426</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D42" t="n">
-        <v>6051</v>
+        <v>19660</v>
       </c>
       <c r="E42" t="n">
-        <v>1805</v>
+        <v>3569</v>
       </c>
       <c r="F42" t="n">
-        <v>41147</v>
+        <v>107028</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D43" t="n">
-        <v>4144</v>
+        <v>16766</v>
       </c>
       <c r="E43" t="n">
-        <v>1545</v>
+        <v>3247</v>
       </c>
       <c r="F43" t="n">
-        <v>35096</v>
+        <v>87368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="D44" t="n">
-        <v>5298</v>
+        <v>13086</v>
       </c>
       <c r="E44" t="n">
-        <v>1187</v>
+        <v>2936</v>
       </c>
       <c r="F44" t="n">
-        <v>30952</v>
+        <v>70602</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="D45" t="n">
-        <v>5656</v>
+        <v>8581</v>
       </c>
       <c r="E45" t="n">
-        <v>832</v>
+        <v>2668</v>
       </c>
       <c r="F45" t="n">
-        <v>25654</v>
+        <v>57516</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="D46" t="n">
-        <v>4381</v>
+        <v>7788</v>
       </c>
       <c r="E46" t="n">
-        <v>506</v>
+        <v>2243</v>
       </c>
       <c r="F46" t="n">
-        <v>19998</v>
+        <v>48935</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
-        <v>3450</v>
+        <v>6051</v>
       </c>
       <c r="E47" t="n">
-        <v>410</v>
+        <v>1805</v>
       </c>
       <c r="F47" t="n">
-        <v>15617</v>
+        <v>41147</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D48" t="n">
-        <v>2631</v>
+        <v>4144</v>
       </c>
       <c r="E48" t="n">
-        <v>360</v>
+        <v>1545</v>
       </c>
       <c r="F48" t="n">
-        <v>12167</v>
+        <v>35096</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="D49" t="n">
-        <v>2231</v>
+        <v>5298</v>
       </c>
       <c r="E49" t="n">
-        <v>315</v>
+        <v>1187</v>
       </c>
       <c r="F49" t="n">
-        <v>9536</v>
+        <v>30952</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="D50" t="n">
-        <v>1580</v>
+        <v>5656</v>
       </c>
       <c r="E50" t="n">
-        <v>277</v>
+        <v>832</v>
       </c>
       <c r="F50" t="n">
-        <v>7305</v>
+        <v>25654</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D51" t="n">
-        <v>979</v>
+        <v>4381</v>
       </c>
       <c r="E51" t="n">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="F51" t="n">
-        <v>5725</v>
+        <v>19998</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D52" t="n">
-        <v>977</v>
+        <v>3450</v>
       </c>
       <c r="E52" t="n">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="F52" t="n">
-        <v>4746</v>
+        <v>15617</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
-        <v>865</v>
+        <v>2631</v>
       </c>
       <c r="E53" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>3769</v>
+        <v>12167</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>734</v>
+        <v>2231</v>
       </c>
       <c r="E54" t="n">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="F54" t="n">
-        <v>2904</v>
+        <v>9536</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>492</v>
+        <v>1580</v>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="F55" t="n">
-        <v>2170</v>
+        <v>7305</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>366</v>
+        <v>979</v>
       </c>
       <c r="E56" t="n">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="F56" t="n">
-        <v>1678</v>
+        <v>5725</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>203</v>
+        <v>977</v>
       </c>
       <c r="E57" t="n">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="F57" t="n">
-        <v>1312</v>
+        <v>4746</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>150</v>
+        <v>865</v>
       </c>
       <c r="E58" t="n">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="F58" t="n">
-        <v>1109</v>
+        <v>3769</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>197</v>
+        <v>734</v>
       </c>
       <c r="E59" t="n">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="F59" t="n">
-        <v>959</v>
+        <v>2904</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>130</v>
+        <v>492</v>
       </c>
       <c r="E60" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F60" t="n">
-        <v>762</v>
+        <v>2170</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="E61" t="n">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="F61" t="n">
-        <v>632</v>
+        <v>1678</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D62" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F62" t="n">
-        <v>504</v>
+        <v>1312</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="E63" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F63" t="n">
-        <v>440</v>
+        <v>1109</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E64" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F64" t="n">
-        <v>362</v>
+        <v>959</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F65" t="n">
-        <v>298</v>
+        <v>762</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D66" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F66" t="n">
-        <v>222</v>
+        <v>632</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F67" t="n">
-        <v>160</v>
+        <v>504</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F68" t="n">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F69" t="n">
-        <v>64</v>
+        <v>362</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F70" t="n">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,22 +2246,147 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>2022-03-06</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>45</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>109</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>64</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>36</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C78" t="n">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D78" t="n">
         <v>1</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F78" t="n">
         <v>1</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G78" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>746</v>
+        <v>290</v>
       </c>
       <c r="E2" t="n">
-        <v>57260</v>
+        <v>57867</v>
       </c>
       <c r="F2" t="n">
-        <v>585727</v>
+        <v>590805</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>869</v>
+        <v>343</v>
       </c>
       <c r="E3" t="n">
-        <v>57183</v>
+        <v>57819</v>
       </c>
       <c r="F3" t="n">
-        <v>584981</v>
+        <v>590515</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>1203</v>
+        <v>422</v>
       </c>
       <c r="E4" t="n">
-        <v>57114</v>
+        <v>57775</v>
       </c>
       <c r="F4" t="n">
-        <v>584112</v>
+        <v>590172</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>1487</v>
+        <v>503</v>
       </c>
       <c r="E5" t="n">
-        <v>56948</v>
+        <v>57717</v>
       </c>
       <c r="F5" t="n">
-        <v>582909</v>
+        <v>589750</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>1869</v>
+        <v>570</v>
       </c>
       <c r="E6" t="n">
-        <v>56754</v>
+        <v>57662</v>
       </c>
       <c r="F6" t="n">
-        <v>581422</v>
+        <v>589247</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>1305</v>
+        <v>784</v>
       </c>
       <c r="E7" t="n">
-        <v>56527</v>
+        <v>57610</v>
       </c>
       <c r="F7" t="n">
-        <v>579553</v>
+        <v>588677</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>1259</v>
+        <v>770</v>
       </c>
       <c r="E8" t="n">
-        <v>56383</v>
+        <v>57526</v>
       </c>
       <c r="F8" t="n">
-        <v>578248</v>
+        <v>587893</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>2780</v>
+        <v>637</v>
       </c>
       <c r="E9" t="n">
-        <v>56155</v>
+        <v>57438</v>
       </c>
       <c r="F9" t="n">
-        <v>576989</v>
+        <v>587123</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>3625</v>
+        <v>759</v>
       </c>
       <c r="E10" t="n">
-        <v>55921</v>
+        <v>57356</v>
       </c>
       <c r="F10" t="n">
-        <v>574209</v>
+        <v>586486</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>3760</v>
+        <v>746</v>
       </c>
       <c r="E11" t="n">
-        <v>55599</v>
+        <v>57260</v>
       </c>
       <c r="F11" t="n">
-        <v>570584</v>
+        <v>585727</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="D12" t="n">
-        <v>3961</v>
+        <v>869</v>
       </c>
       <c r="E12" t="n">
-        <v>55384</v>
+        <v>57183</v>
       </c>
       <c r="F12" t="n">
-        <v>566824</v>
+        <v>584981</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="D13" t="n">
-        <v>4024</v>
+        <v>1203</v>
       </c>
       <c r="E13" t="n">
-        <v>55131</v>
+        <v>57114</v>
       </c>
       <c r="F13" t="n">
-        <v>562863</v>
+        <v>584112</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="D14" t="n">
-        <v>4390</v>
+        <v>1487</v>
       </c>
       <c r="E14" t="n">
-        <v>54886</v>
+        <v>56948</v>
       </c>
       <c r="F14" t="n">
-        <v>558839</v>
+        <v>582909</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D15" t="n">
-        <v>4722</v>
+        <v>1869</v>
       </c>
       <c r="E15" t="n">
-        <v>54625</v>
+        <v>56754</v>
       </c>
       <c r="F15" t="n">
-        <v>554449</v>
+        <v>581422</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="D16" t="n">
-        <v>5395</v>
+        <v>1305</v>
       </c>
       <c r="E16" t="n">
-        <v>54365</v>
+        <v>56527</v>
       </c>
       <c r="F16" t="n">
-        <v>549727</v>
+        <v>579553</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>727</v>
+        <v>228</v>
       </c>
       <c r="D17" t="n">
-        <v>6606</v>
+        <v>1259</v>
       </c>
       <c r="E17" t="n">
-        <v>54091</v>
+        <v>56383</v>
       </c>
       <c r="F17" t="n">
-        <v>544332</v>
+        <v>578248</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>788</v>
+        <v>234</v>
       </c>
       <c r="D18" t="n">
-        <v>7084</v>
+        <v>2780</v>
       </c>
       <c r="E18" t="n">
-        <v>53364</v>
+        <v>56155</v>
       </c>
       <c r="F18" t="n">
-        <v>537726</v>
+        <v>576989</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1249</v>
+        <v>322</v>
       </c>
       <c r="D19" t="n">
-        <v>8932</v>
+        <v>3625</v>
       </c>
       <c r="E19" t="n">
-        <v>52576</v>
+        <v>55921</v>
       </c>
       <c r="F19" t="n">
-        <v>530642</v>
+        <v>574209</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5487</v>
+        <v>215</v>
       </c>
       <c r="D20" t="n">
-        <v>9545</v>
+        <v>3760</v>
       </c>
       <c r="E20" t="n">
-        <v>51327</v>
+        <v>55599</v>
       </c>
       <c r="F20" t="n">
-        <v>521710</v>
+        <v>570584</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1292</v>
+        <v>253</v>
       </c>
       <c r="D21" t="n">
-        <v>9330</v>
+        <v>3961</v>
       </c>
       <c r="E21" t="n">
-        <v>45840</v>
+        <v>55384</v>
       </c>
       <c r="F21" t="n">
-        <v>512165</v>
+        <v>566824</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1606</v>
+        <v>245</v>
       </c>
       <c r="D22" t="n">
-        <v>11956</v>
+        <v>4024</v>
       </c>
       <c r="E22" t="n">
-        <v>44548</v>
+        <v>55131</v>
       </c>
       <c r="F22" t="n">
-        <v>502835</v>
+        <v>562863</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1661</v>
+        <v>261</v>
       </c>
       <c r="D23" t="n">
-        <v>15319</v>
+        <v>4390</v>
       </c>
       <c r="E23" t="n">
-        <v>42942</v>
+        <v>54886</v>
       </c>
       <c r="F23" t="n">
-        <v>490879</v>
+        <v>558839</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2472</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>16983</v>
+        <v>4722</v>
       </c>
       <c r="E24" t="n">
-        <v>41281</v>
+        <v>54625</v>
       </c>
       <c r="F24" t="n">
-        <v>475560</v>
+        <v>554449</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1401</v>
+        <v>274</v>
       </c>
       <c r="D25" t="n">
-        <v>19657</v>
+        <v>5395</v>
       </c>
       <c r="E25" t="n">
-        <v>38809</v>
+        <v>54365</v>
       </c>
       <c r="F25" t="n">
-        <v>458577</v>
+        <v>549727</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2736</v>
+        <v>727</v>
       </c>
       <c r="D26" t="n">
-        <v>20634</v>
+        <v>6606</v>
       </c>
       <c r="E26" t="n">
-        <v>37408</v>
+        <v>54091</v>
       </c>
       <c r="F26" t="n">
-        <v>438920</v>
+        <v>544332</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1931</v>
+        <v>788</v>
       </c>
       <c r="D27" t="n">
-        <v>15698</v>
+        <v>7084</v>
       </c>
       <c r="E27" t="n">
-        <v>34672</v>
+        <v>53364</v>
       </c>
       <c r="F27" t="n">
-        <v>418286</v>
+        <v>537726</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2634</v>
+        <v>1249</v>
       </c>
       <c r="D28" t="n">
-        <v>15861</v>
+        <v>8932</v>
       </c>
       <c r="E28" t="n">
-        <v>32741</v>
+        <v>52576</v>
       </c>
       <c r="F28" t="n">
-        <v>402588</v>
+        <v>530642</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2494</v>
+        <v>5487</v>
       </c>
       <c r="D29" t="n">
-        <v>16407</v>
+        <v>9545</v>
       </c>
       <c r="E29" t="n">
-        <v>30107</v>
+        <v>51327</v>
       </c>
       <c r="F29" t="n">
-        <v>386727</v>
+        <v>521710</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3084</v>
+        <v>1292</v>
       </c>
       <c r="D30" t="n">
-        <v>17332</v>
+        <v>9330</v>
       </c>
       <c r="E30" t="n">
-        <v>27613</v>
+        <v>45840</v>
       </c>
       <c r="F30" t="n">
-        <v>370320</v>
+        <v>512165</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2417</v>
+        <v>1606</v>
       </c>
       <c r="D31" t="n">
-        <v>19831</v>
+        <v>11956</v>
       </c>
       <c r="E31" t="n">
-        <v>24529</v>
+        <v>44548</v>
       </c>
       <c r="F31" t="n">
-        <v>352988</v>
+        <v>502835</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3238</v>
+        <v>1661</v>
       </c>
       <c r="D32" t="n">
-        <v>21582</v>
+        <v>15319</v>
       </c>
       <c r="E32" t="n">
-        <v>22112</v>
+        <v>42942</v>
       </c>
       <c r="F32" t="n">
-        <v>333157</v>
+        <v>490879</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3590</v>
+        <v>2472</v>
       </c>
       <c r="D33" t="n">
-        <v>19923</v>
+        <v>16983</v>
       </c>
       <c r="E33" t="n">
-        <v>18874</v>
+        <v>41281</v>
       </c>
       <c r="F33" t="n">
-        <v>311575</v>
+        <v>475560</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3200</v>
+        <v>1401</v>
       </c>
       <c r="D34" t="n">
-        <v>19872</v>
+        <v>19657</v>
       </c>
       <c r="E34" t="n">
-        <v>15284</v>
+        <v>38809</v>
       </c>
       <c r="F34" t="n">
-        <v>291652</v>
+        <v>458577</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2573</v>
+        <v>2736</v>
       </c>
       <c r="D35" t="n">
-        <v>25146</v>
+        <v>20634</v>
       </c>
       <c r="E35" t="n">
-        <v>12084</v>
+        <v>37408</v>
       </c>
       <c r="F35" t="n">
-        <v>271780</v>
+        <v>438920</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1189</v>
+        <v>1931</v>
       </c>
       <c r="D36" t="n">
-        <v>25141</v>
+        <v>15698</v>
       </c>
       <c r="E36" t="n">
-        <v>9511</v>
+        <v>34672</v>
       </c>
       <c r="F36" t="n">
-        <v>246634</v>
+        <v>418286</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>994</v>
+        <v>2634</v>
       </c>
       <c r="D37" t="n">
-        <v>22348</v>
+        <v>15861</v>
       </c>
       <c r="E37" t="n">
-        <v>8322</v>
+        <v>32741</v>
       </c>
       <c r="F37" t="n">
-        <v>221493</v>
+        <v>402588</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>914</v>
+        <v>2494</v>
       </c>
       <c r="D38" t="n">
-        <v>25173</v>
+        <v>16407</v>
       </c>
       <c r="E38" t="n">
-        <v>7328</v>
+        <v>30107</v>
       </c>
       <c r="F38" t="n">
-        <v>199145</v>
+        <v>386727</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1006</v>
+        <v>3084</v>
       </c>
       <c r="D39" t="n">
-        <v>23937</v>
+        <v>17332</v>
       </c>
       <c r="E39" t="n">
-        <v>6414</v>
+        <v>27613</v>
       </c>
       <c r="F39" t="n">
-        <v>173972</v>
+        <v>370320</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1015</v>
+        <v>2417</v>
       </c>
       <c r="D40" t="n">
-        <v>22609</v>
+        <v>19831</v>
       </c>
       <c r="E40" t="n">
-        <v>5408</v>
+        <v>24529</v>
       </c>
       <c r="F40" t="n">
-        <v>150035</v>
+        <v>352988</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>824</v>
+        <v>3238</v>
       </c>
       <c r="D41" t="n">
-        <v>20398</v>
+        <v>21582</v>
       </c>
       <c r="E41" t="n">
-        <v>4393</v>
+        <v>22112</v>
       </c>
       <c r="F41" t="n">
-        <v>127426</v>
+        <v>333157</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>322</v>
+        <v>3590</v>
       </c>
       <c r="D42" t="n">
-        <v>19660</v>
+        <v>19923</v>
       </c>
       <c r="E42" t="n">
-        <v>3569</v>
+        <v>18874</v>
       </c>
       <c r="F42" t="n">
-        <v>107028</v>
+        <v>311575</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>311</v>
+        <v>3200</v>
       </c>
       <c r="D43" t="n">
-        <v>16766</v>
+        <v>19872</v>
       </c>
       <c r="E43" t="n">
-        <v>3247</v>
+        <v>15284</v>
       </c>
       <c r="F43" t="n">
-        <v>87368</v>
+        <v>291652</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>268</v>
+        <v>2573</v>
       </c>
       <c r="D44" t="n">
-        <v>13086</v>
+        <v>25146</v>
       </c>
       <c r="E44" t="n">
-        <v>2936</v>
+        <v>12084</v>
       </c>
       <c r="F44" t="n">
-        <v>70602</v>
+        <v>271780</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>425</v>
+        <v>1189</v>
       </c>
       <c r="D45" t="n">
-        <v>8581</v>
+        <v>25141</v>
       </c>
       <c r="E45" t="n">
-        <v>2668</v>
+        <v>9511</v>
       </c>
       <c r="F45" t="n">
-        <v>57516</v>
+        <v>246634</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>438</v>
+        <v>994</v>
       </c>
       <c r="D46" t="n">
-        <v>7788</v>
+        <v>22348</v>
       </c>
       <c r="E46" t="n">
-        <v>2243</v>
+        <v>8322</v>
       </c>
       <c r="F46" t="n">
-        <v>48935</v>
+        <v>221493</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>260</v>
+        <v>914</v>
       </c>
       <c r="D47" t="n">
-        <v>6051</v>
+        <v>25173</v>
       </c>
       <c r="E47" t="n">
-        <v>1805</v>
+        <v>7328</v>
       </c>
       <c r="F47" t="n">
-        <v>41147</v>
+        <v>199145</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>358</v>
+        <v>1006</v>
       </c>
       <c r="D48" t="n">
-        <v>4144</v>
+        <v>23937</v>
       </c>
       <c r="E48" t="n">
-        <v>1545</v>
+        <v>6414</v>
       </c>
       <c r="F48" t="n">
-        <v>35096</v>
+        <v>173972</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>355</v>
+        <v>1015</v>
       </c>
       <c r="D49" t="n">
-        <v>5298</v>
+        <v>22609</v>
       </c>
       <c r="E49" t="n">
-        <v>1187</v>
+        <v>5408</v>
       </c>
       <c r="F49" t="n">
-        <v>30952</v>
+        <v>150035</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>326</v>
+        <v>824</v>
       </c>
       <c r="D50" t="n">
-        <v>5656</v>
+        <v>20398</v>
       </c>
       <c r="E50" t="n">
-        <v>832</v>
+        <v>4393</v>
       </c>
       <c r="F50" t="n">
-        <v>25654</v>
+        <v>127426</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="D51" t="n">
-        <v>4381</v>
+        <v>19660</v>
       </c>
       <c r="E51" t="n">
-        <v>506</v>
+        <v>3569</v>
       </c>
       <c r="F51" t="n">
-        <v>19998</v>
+        <v>107028</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="D52" t="n">
-        <v>3450</v>
+        <v>16766</v>
       </c>
       <c r="E52" t="n">
-        <v>410</v>
+        <v>3247</v>
       </c>
       <c r="F52" t="n">
-        <v>15617</v>
+        <v>87368</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D53" t="n">
-        <v>2631</v>
+        <v>13086</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>2936</v>
       </c>
       <c r="F53" t="n">
-        <v>12167</v>
+        <v>70602</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="D54" t="n">
-        <v>2231</v>
+        <v>8581</v>
       </c>
       <c r="E54" t="n">
-        <v>315</v>
+        <v>2668</v>
       </c>
       <c r="F54" t="n">
-        <v>9536</v>
+        <v>57516</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>438</v>
       </c>
       <c r="D55" t="n">
-        <v>1580</v>
+        <v>7788</v>
       </c>
       <c r="E55" t="n">
-        <v>277</v>
+        <v>2243</v>
       </c>
       <c r="F55" t="n">
-        <v>7305</v>
+        <v>48935</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="D56" t="n">
-        <v>979</v>
+        <v>6051</v>
       </c>
       <c r="E56" t="n">
-        <v>248</v>
+        <v>1805</v>
       </c>
       <c r="F56" t="n">
-        <v>5725</v>
+        <v>41147</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="D57" t="n">
-        <v>977</v>
+        <v>4144</v>
       </c>
       <c r="E57" t="n">
-        <v>244</v>
+        <v>1545</v>
       </c>
       <c r="F57" t="n">
-        <v>4746</v>
+        <v>35096</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="D58" t="n">
-        <v>865</v>
+        <v>5298</v>
       </c>
       <c r="E58" t="n">
-        <v>240</v>
+        <v>1187</v>
       </c>
       <c r="F58" t="n">
-        <v>3769</v>
+        <v>30952</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="D59" t="n">
-        <v>734</v>
+        <v>5656</v>
       </c>
       <c r="E59" t="n">
-        <v>209</v>
+        <v>832</v>
       </c>
       <c r="F59" t="n">
-        <v>2904</v>
+        <v>25654</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D60" t="n">
-        <v>492</v>
+        <v>4381</v>
       </c>
       <c r="E60" t="n">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="F60" t="n">
-        <v>2170</v>
+        <v>19998</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>366</v>
+        <v>3450</v>
       </c>
       <c r="E61" t="n">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="F61" t="n">
-        <v>1678</v>
+        <v>15617</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>203</v>
+        <v>2631</v>
       </c>
       <c r="E62" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>1312</v>
+        <v>12167</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>150</v>
+        <v>2231</v>
       </c>
       <c r="E63" t="n">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="F63" t="n">
-        <v>1109</v>
+        <v>9536</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>197</v>
+        <v>1580</v>
       </c>
       <c r="E64" t="n">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="F64" t="n">
-        <v>959</v>
+        <v>7305</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>130</v>
+        <v>979</v>
       </c>
       <c r="E65" t="n">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="F65" t="n">
-        <v>762</v>
+        <v>5725</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>128</v>
+        <v>977</v>
       </c>
       <c r="E66" t="n">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="F66" t="n">
-        <v>632</v>
+        <v>4746</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>865</v>
       </c>
       <c r="E67" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F67" t="n">
-        <v>504</v>
+        <v>3769</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D68" t="n">
-        <v>78</v>
+        <v>734</v>
       </c>
       <c r="E68" t="n">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="F68" t="n">
-        <v>440</v>
+        <v>2904</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>64</v>
+        <v>492</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="F69" t="n">
-        <v>362</v>
+        <v>2170</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="E70" t="n">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="F70" t="n">
-        <v>298</v>
+        <v>1678</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D71" t="n">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="E71" t="n">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="F71" t="n">
-        <v>222</v>
+        <v>1312</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F72" t="n">
-        <v>160</v>
+        <v>1109</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F73" t="n">
-        <v>109</v>
+        <v>959</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F74" t="n">
-        <v>64</v>
+        <v>762</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>632</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>440</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,22 +2371,247 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>11</v>
+      </c>
+      <c r="D78" t="n">
+        <v>64</v>
+      </c>
+      <c r="E78" t="n">
+        <v>34</v>
+      </c>
+      <c r="F78" t="n">
+        <v>362</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>76</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23</v>
+      </c>
+      <c r="F79" t="n">
+        <v>298</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>62</v>
+      </c>
+      <c r="E80" t="n">
+        <v>19</v>
+      </c>
+      <c r="F80" t="n">
+        <v>222</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>51</v>
+      </c>
+      <c r="E81" t="n">
+        <v>16</v>
+      </c>
+      <c r="F81" t="n">
+        <v>160</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2022-03-06</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>45</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12</v>
+      </c>
+      <c r="F82" t="n">
+        <v>109</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>28</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>64</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>14</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C87" t="n">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D87" t="n">
         <v>1</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F87" t="n">
         <v>1</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G87" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
-        <v>57867</v>
+        <v>57980</v>
       </c>
       <c r="F2" t="n">
-        <v>590805</v>
+        <v>591248</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="E3" t="n">
-        <v>57819</v>
+        <v>57951</v>
       </c>
       <c r="F3" t="n">
-        <v>590515</v>
+        <v>591155</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="E4" t="n">
-        <v>57775</v>
+        <v>57912</v>
       </c>
       <c r="F4" t="n">
-        <v>590172</v>
+        <v>591024</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="E5" t="n">
-        <v>57717</v>
+        <v>57867</v>
       </c>
       <c r="F5" t="n">
-        <v>589750</v>
+        <v>590805</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>570</v>
+        <v>343</v>
       </c>
       <c r="E6" t="n">
-        <v>57662</v>
+        <v>57819</v>
       </c>
       <c r="F6" t="n">
-        <v>589247</v>
+        <v>590515</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>784</v>
+        <v>422</v>
       </c>
       <c r="E7" t="n">
-        <v>57610</v>
+        <v>57775</v>
       </c>
       <c r="F7" t="n">
-        <v>588677</v>
+        <v>590172</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>770</v>
+        <v>503</v>
       </c>
       <c r="E8" t="n">
-        <v>57526</v>
+        <v>57717</v>
       </c>
       <c r="F8" t="n">
-        <v>587893</v>
+        <v>589750</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="E9" t="n">
-        <v>57438</v>
+        <v>57662</v>
       </c>
       <c r="F9" t="n">
-        <v>587123</v>
+        <v>589247</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="E10" t="n">
-        <v>57356</v>
+        <v>57610</v>
       </c>
       <c r="F10" t="n">
-        <v>586486</v>
+        <v>588677</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E11" t="n">
-        <v>57260</v>
+        <v>57526</v>
       </c>
       <c r="F11" t="n">
-        <v>585727</v>
+        <v>587893</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>869</v>
+        <v>637</v>
       </c>
       <c r="E12" t="n">
-        <v>57183</v>
+        <v>57438</v>
       </c>
       <c r="F12" t="n">
-        <v>584981</v>
+        <v>587123</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>1203</v>
+        <v>759</v>
       </c>
       <c r="E13" t="n">
-        <v>57114</v>
+        <v>57356</v>
       </c>
       <c r="F13" t="n">
-        <v>584112</v>
+        <v>586486</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D14" t="n">
-        <v>1487</v>
+        <v>746</v>
       </c>
       <c r="E14" t="n">
-        <v>56948</v>
+        <v>57260</v>
       </c>
       <c r="F14" t="n">
-        <v>582909</v>
+        <v>585727</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D15" t="n">
-        <v>1869</v>
+        <v>869</v>
       </c>
       <c r="E15" t="n">
-        <v>56754</v>
+        <v>57183</v>
       </c>
       <c r="F15" t="n">
-        <v>581422</v>
+        <v>584981</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D16" t="n">
-        <v>1305</v>
+        <v>1203</v>
       </c>
       <c r="E16" t="n">
-        <v>56527</v>
+        <v>57114</v>
       </c>
       <c r="F16" t="n">
-        <v>579553</v>
+        <v>584112</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D17" t="n">
-        <v>1259</v>
+        <v>1487</v>
       </c>
       <c r="E17" t="n">
-        <v>56383</v>
+        <v>56948</v>
       </c>
       <c r="F17" t="n">
-        <v>578248</v>
+        <v>582909</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D18" t="n">
-        <v>2780</v>
+        <v>1869</v>
       </c>
       <c r="E18" t="n">
-        <v>56155</v>
+        <v>56754</v>
       </c>
       <c r="F18" t="n">
-        <v>576989</v>
+        <v>581422</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="D19" t="n">
-        <v>3625</v>
+        <v>1305</v>
       </c>
       <c r="E19" t="n">
-        <v>55921</v>
+        <v>56527</v>
       </c>
       <c r="F19" t="n">
-        <v>574209</v>
+        <v>579553</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D20" t="n">
-        <v>3760</v>
+        <v>1259</v>
       </c>
       <c r="E20" t="n">
-        <v>55599</v>
+        <v>56383</v>
       </c>
       <c r="F20" t="n">
-        <v>570584</v>
+        <v>578248</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D21" t="n">
-        <v>3961</v>
+        <v>2780</v>
       </c>
       <c r="E21" t="n">
-        <v>55384</v>
+        <v>56155</v>
       </c>
       <c r="F21" t="n">
-        <v>566824</v>
+        <v>576989</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="D22" t="n">
-        <v>4024</v>
+        <v>3625</v>
       </c>
       <c r="E22" t="n">
-        <v>55131</v>
+        <v>55921</v>
       </c>
       <c r="F22" t="n">
-        <v>562863</v>
+        <v>574209</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D23" t="n">
-        <v>4390</v>
+        <v>3760</v>
       </c>
       <c r="E23" t="n">
-        <v>54886</v>
+        <v>55599</v>
       </c>
       <c r="F23" t="n">
-        <v>558839</v>
+        <v>570584</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D24" t="n">
-        <v>4722</v>
+        <v>3961</v>
       </c>
       <c r="E24" t="n">
-        <v>54625</v>
+        <v>55384</v>
       </c>
       <c r="F24" t="n">
-        <v>554449</v>
+        <v>566824</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D25" t="n">
-        <v>5395</v>
+        <v>4024</v>
       </c>
       <c r="E25" t="n">
-        <v>54365</v>
+        <v>55131</v>
       </c>
       <c r="F25" t="n">
-        <v>549727</v>
+        <v>562863</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>727</v>
+        <v>261</v>
       </c>
       <c r="D26" t="n">
-        <v>6606</v>
+        <v>4390</v>
       </c>
       <c r="E26" t="n">
-        <v>54091</v>
+        <v>54886</v>
       </c>
       <c r="F26" t="n">
-        <v>544332</v>
+        <v>558839</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>788</v>
+        <v>260</v>
       </c>
       <c r="D27" t="n">
-        <v>7084</v>
+        <v>4722</v>
       </c>
       <c r="E27" t="n">
-        <v>53364</v>
+        <v>54625</v>
       </c>
       <c r="F27" t="n">
-        <v>537726</v>
+        <v>554449</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1249</v>
+        <v>274</v>
       </c>
       <c r="D28" t="n">
-        <v>8932</v>
+        <v>5395</v>
       </c>
       <c r="E28" t="n">
-        <v>52576</v>
+        <v>54365</v>
       </c>
       <c r="F28" t="n">
-        <v>530642</v>
+        <v>549727</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5487</v>
+        <v>727</v>
       </c>
       <c r="D29" t="n">
-        <v>9545</v>
+        <v>6606</v>
       </c>
       <c r="E29" t="n">
-        <v>51327</v>
+        <v>54091</v>
       </c>
       <c r="F29" t="n">
-        <v>521710</v>
+        <v>544332</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1292</v>
+        <v>788</v>
       </c>
       <c r="D30" t="n">
-        <v>9330</v>
+        <v>7084</v>
       </c>
       <c r="E30" t="n">
-        <v>45840</v>
+        <v>53364</v>
       </c>
       <c r="F30" t="n">
-        <v>512165</v>
+        <v>537726</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1606</v>
+        <v>1249</v>
       </c>
       <c r="D31" t="n">
-        <v>11956</v>
+        <v>8932</v>
       </c>
       <c r="E31" t="n">
-        <v>44548</v>
+        <v>52576</v>
       </c>
       <c r="F31" t="n">
-        <v>502835</v>
+        <v>530642</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1661</v>
+        <v>5487</v>
       </c>
       <c r="D32" t="n">
-        <v>15319</v>
+        <v>9545</v>
       </c>
       <c r="E32" t="n">
-        <v>42942</v>
+        <v>51327</v>
       </c>
       <c r="F32" t="n">
-        <v>490879</v>
+        <v>521710</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2472</v>
+        <v>1292</v>
       </c>
       <c r="D33" t="n">
-        <v>16983</v>
+        <v>9330</v>
       </c>
       <c r="E33" t="n">
-        <v>41281</v>
+        <v>45840</v>
       </c>
       <c r="F33" t="n">
-        <v>475560</v>
+        <v>512165</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="D34" t="n">
-        <v>19657</v>
+        <v>11956</v>
       </c>
       <c r="E34" t="n">
-        <v>38809</v>
+        <v>44548</v>
       </c>
       <c r="F34" t="n">
-        <v>458577</v>
+        <v>502835</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2736</v>
+        <v>1661</v>
       </c>
       <c r="D35" t="n">
-        <v>20634</v>
+        <v>15319</v>
       </c>
       <c r="E35" t="n">
-        <v>37408</v>
+        <v>42942</v>
       </c>
       <c r="F35" t="n">
-        <v>438920</v>
+        <v>490879</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1931</v>
+        <v>2472</v>
       </c>
       <c r="D36" t="n">
-        <v>15698</v>
+        <v>16983</v>
       </c>
       <c r="E36" t="n">
-        <v>34672</v>
+        <v>41281</v>
       </c>
       <c r="F36" t="n">
-        <v>418286</v>
+        <v>475560</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2634</v>
+        <v>1401</v>
       </c>
       <c r="D37" t="n">
-        <v>15861</v>
+        <v>19657</v>
       </c>
       <c r="E37" t="n">
-        <v>32741</v>
+        <v>38809</v>
       </c>
       <c r="F37" t="n">
-        <v>402588</v>
+        <v>458577</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2494</v>
+        <v>2736</v>
       </c>
       <c r="D38" t="n">
-        <v>16407</v>
+        <v>20634</v>
       </c>
       <c r="E38" t="n">
-        <v>30107</v>
+        <v>37408</v>
       </c>
       <c r="F38" t="n">
-        <v>386727</v>
+        <v>438920</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
       <c r="D39" t="n">
-        <v>17332</v>
+        <v>15698</v>
       </c>
       <c r="E39" t="n">
-        <v>27613</v>
+        <v>34672</v>
       </c>
       <c r="F39" t="n">
-        <v>370320</v>
+        <v>418286</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2417</v>
+        <v>2634</v>
       </c>
       <c r="D40" t="n">
-        <v>19831</v>
+        <v>15861</v>
       </c>
       <c r="E40" t="n">
-        <v>24529</v>
+        <v>32741</v>
       </c>
       <c r="F40" t="n">
-        <v>352988</v>
+        <v>402588</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3238</v>
+        <v>2494</v>
       </c>
       <c r="D41" t="n">
-        <v>21582</v>
+        <v>16407</v>
       </c>
       <c r="E41" t="n">
-        <v>22112</v>
+        <v>30107</v>
       </c>
       <c r="F41" t="n">
-        <v>333157</v>
+        <v>386727</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3590</v>
+        <v>3084</v>
       </c>
       <c r="D42" t="n">
-        <v>19923</v>
+        <v>17332</v>
       </c>
       <c r="E42" t="n">
-        <v>18874</v>
+        <v>27613</v>
       </c>
       <c r="F42" t="n">
-        <v>311575</v>
+        <v>370320</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3200</v>
+        <v>2417</v>
       </c>
       <c r="D43" t="n">
-        <v>19872</v>
+        <v>19831</v>
       </c>
       <c r="E43" t="n">
-        <v>15284</v>
+        <v>24529</v>
       </c>
       <c r="F43" t="n">
-        <v>291652</v>
+        <v>352988</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2573</v>
+        <v>3238</v>
       </c>
       <c r="D44" t="n">
-        <v>25146</v>
+        <v>21582</v>
       </c>
       <c r="E44" t="n">
-        <v>12084</v>
+        <v>22112</v>
       </c>
       <c r="F44" t="n">
-        <v>271780</v>
+        <v>333157</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1189</v>
+        <v>3590</v>
       </c>
       <c r="D45" t="n">
-        <v>25141</v>
+        <v>19923</v>
       </c>
       <c r="E45" t="n">
-        <v>9511</v>
+        <v>18874</v>
       </c>
       <c r="F45" t="n">
-        <v>246634</v>
+        <v>311575</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>994</v>
+        <v>3200</v>
       </c>
       <c r="D46" t="n">
-        <v>22348</v>
+        <v>19872</v>
       </c>
       <c r="E46" t="n">
-        <v>8322</v>
+        <v>15284</v>
       </c>
       <c r="F46" t="n">
-        <v>221493</v>
+        <v>291652</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>914</v>
+        <v>2573</v>
       </c>
       <c r="D47" t="n">
-        <v>25173</v>
+        <v>25146</v>
       </c>
       <c r="E47" t="n">
-        <v>7328</v>
+        <v>12084</v>
       </c>
       <c r="F47" t="n">
-        <v>199145</v>
+        <v>271780</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1006</v>
+        <v>1189</v>
       </c>
       <c r="D48" t="n">
-        <v>23937</v>
+        <v>25141</v>
       </c>
       <c r="E48" t="n">
-        <v>6414</v>
+        <v>9511</v>
       </c>
       <c r="F48" t="n">
-        <v>173972</v>
+        <v>246634</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="D49" t="n">
-        <v>22609</v>
+        <v>22348</v>
       </c>
       <c r="E49" t="n">
-        <v>5408</v>
+        <v>8322</v>
       </c>
       <c r="F49" t="n">
-        <v>150035</v>
+        <v>221493</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>824</v>
+        <v>914</v>
       </c>
       <c r="D50" t="n">
-        <v>20398</v>
+        <v>25173</v>
       </c>
       <c r="E50" t="n">
-        <v>4393</v>
+        <v>7328</v>
       </c>
       <c r="F50" t="n">
-        <v>127426</v>
+        <v>199145</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>322</v>
+        <v>1006</v>
       </c>
       <c r="D51" t="n">
-        <v>19660</v>
+        <v>23937</v>
       </c>
       <c r="E51" t="n">
-        <v>3569</v>
+        <v>6414</v>
       </c>
       <c r="F51" t="n">
-        <v>107028</v>
+        <v>173972</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>311</v>
+        <v>1015</v>
       </c>
       <c r="D52" t="n">
-        <v>16766</v>
+        <v>22609</v>
       </c>
       <c r="E52" t="n">
-        <v>3247</v>
+        <v>5408</v>
       </c>
       <c r="F52" t="n">
-        <v>87368</v>
+        <v>150035</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>268</v>
+        <v>824</v>
       </c>
       <c r="D53" t="n">
-        <v>13086</v>
+        <v>20398</v>
       </c>
       <c r="E53" t="n">
-        <v>2936</v>
+        <v>4393</v>
       </c>
       <c r="F53" t="n">
-        <v>70602</v>
+        <v>127426</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="D54" t="n">
-        <v>8581</v>
+        <v>19660</v>
       </c>
       <c r="E54" t="n">
-        <v>2668</v>
+        <v>3569</v>
       </c>
       <c r="F54" t="n">
-        <v>57516</v>
+        <v>107028</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="D55" t="n">
-        <v>7788</v>
+        <v>16766</v>
       </c>
       <c r="E55" t="n">
-        <v>2243</v>
+        <v>3247</v>
       </c>
       <c r="F55" t="n">
-        <v>48935</v>
+        <v>87368</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D56" t="n">
-        <v>6051</v>
+        <v>13086</v>
       </c>
       <c r="E56" t="n">
-        <v>1805</v>
+        <v>2936</v>
       </c>
       <c r="F56" t="n">
-        <v>41147</v>
+        <v>70602</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="D57" t="n">
-        <v>4144</v>
+        <v>8581</v>
       </c>
       <c r="E57" t="n">
-        <v>1545</v>
+        <v>2668</v>
       </c>
       <c r="F57" t="n">
-        <v>35096</v>
+        <v>57516</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="D58" t="n">
-        <v>5298</v>
+        <v>7788</v>
       </c>
       <c r="E58" t="n">
-        <v>1187</v>
+        <v>2243</v>
       </c>
       <c r="F58" t="n">
-        <v>30952</v>
+        <v>48935</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>5656</v>
+        <v>6051</v>
       </c>
       <c r="E59" t="n">
-        <v>832</v>
+        <v>1805</v>
       </c>
       <c r="F59" t="n">
-        <v>25654</v>
+        <v>41147</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="D60" t="n">
-        <v>4381</v>
+        <v>4144</v>
       </c>
       <c r="E60" t="n">
-        <v>506</v>
+        <v>1545</v>
       </c>
       <c r="F60" t="n">
-        <v>19998</v>
+        <v>35096</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="D61" t="n">
-        <v>3450</v>
+        <v>5298</v>
       </c>
       <c r="E61" t="n">
-        <v>410</v>
+        <v>1187</v>
       </c>
       <c r="F61" t="n">
-        <v>15617</v>
+        <v>30952</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D62" t="n">
-        <v>2631</v>
+        <v>5656</v>
       </c>
       <c r="E62" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="F62" t="n">
-        <v>12167</v>
+        <v>25654</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D63" t="n">
-        <v>2231</v>
+        <v>4381</v>
       </c>
       <c r="E63" t="n">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="F63" t="n">
-        <v>9536</v>
+        <v>19998</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>1580</v>
+        <v>3450</v>
       </c>
       <c r="E64" t="n">
-        <v>277</v>
+        <v>410</v>
       </c>
       <c r="F64" t="n">
-        <v>7305</v>
+        <v>15617</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>979</v>
+        <v>2631</v>
       </c>
       <c r="E65" t="n">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="F65" t="n">
-        <v>5725</v>
+        <v>12167</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>977</v>
+        <v>2231</v>
       </c>
       <c r="E66" t="n">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F66" t="n">
-        <v>4746</v>
+        <v>9536</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>865</v>
+        <v>1580</v>
       </c>
       <c r="E67" t="n">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F67" t="n">
-        <v>3769</v>
+        <v>7305</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>734</v>
+        <v>979</v>
       </c>
       <c r="E68" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F68" t="n">
-        <v>2904</v>
+        <v>5725</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>492</v>
+        <v>977</v>
       </c>
       <c r="E69" t="n">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F69" t="n">
-        <v>2170</v>
+        <v>4746</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="E70" t="n">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="F70" t="n">
-        <v>1678</v>
+        <v>3769</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
-        <v>203</v>
+        <v>734</v>
       </c>
       <c r="E71" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F71" t="n">
-        <v>1312</v>
+        <v>2904</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="E72" t="n">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F72" t="n">
-        <v>1109</v>
+        <v>2170</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E73" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="F73" t="n">
-        <v>959</v>
+        <v>1678</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D74" t="n">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E74" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F74" t="n">
-        <v>762</v>
+        <v>1312</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E75" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F75" t="n">
-        <v>632</v>
+        <v>1109</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E76" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F76" t="n">
-        <v>504</v>
+        <v>959</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E77" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F77" t="n">
-        <v>440</v>
+        <v>762</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E78" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F78" t="n">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E80" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F80" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F81" t="n">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F83" t="n">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
+        <v>51</v>
+      </c>
+      <c r="E84" t="n">
         <v>16</v>
       </c>
-      <c r="E84" t="n">
-        <v>9</v>
-      </c>
       <c r="F84" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,22 +2596,97 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>36</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>14</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C90" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D90" t="n">
         <v>1</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F90" t="n">
         <v>1</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>57980</v>
+        <v>58005</v>
       </c>
       <c r="F2" t="n">
-        <v>591248</v>
+        <v>591349</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>57951</v>
+        <v>58000</v>
       </c>
       <c r="F3" t="n">
-        <v>591155</v>
+        <v>591341</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>57912</v>
+        <v>57995</v>
       </c>
       <c r="F4" t="n">
-        <v>591024</v>
+        <v>591331</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>57867</v>
+        <v>57986</v>
       </c>
       <c r="F5" t="n">
-        <v>590805</v>
+        <v>591309</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>57819</v>
+        <v>57980</v>
       </c>
       <c r="F6" t="n">
-        <v>590515</v>
+        <v>591248</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="E7" t="n">
-        <v>57775</v>
+        <v>57951</v>
       </c>
       <c r="F7" t="n">
-        <v>590172</v>
+        <v>591155</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="E8" t="n">
-        <v>57717</v>
+        <v>57912</v>
       </c>
       <c r="F8" t="n">
-        <v>589750</v>
+        <v>591024</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="E9" t="n">
-        <v>57662</v>
+        <v>57867</v>
       </c>
       <c r="F9" t="n">
-        <v>589247</v>
+        <v>590805</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>784</v>
+        <v>343</v>
       </c>
       <c r="E10" t="n">
-        <v>57610</v>
+        <v>57819</v>
       </c>
       <c r="F10" t="n">
-        <v>588677</v>
+        <v>590515</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>770</v>
+        <v>422</v>
       </c>
       <c r="E11" t="n">
-        <v>57526</v>
+        <v>57775</v>
       </c>
       <c r="F11" t="n">
-        <v>587893</v>
+        <v>590172</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="E12" t="n">
-        <v>57438</v>
+        <v>57717</v>
       </c>
       <c r="F12" t="n">
-        <v>587123</v>
+        <v>589750</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>759</v>
+        <v>570</v>
       </c>
       <c r="E13" t="n">
-        <v>57356</v>
+        <v>57662</v>
       </c>
       <c r="F13" t="n">
-        <v>586486</v>
+        <v>589247</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D14" t="n">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="E14" t="n">
-        <v>57260</v>
+        <v>57610</v>
       </c>
       <c r="F14" t="n">
-        <v>585727</v>
+        <v>588677</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="E15" t="n">
-        <v>57183</v>
+        <v>57526</v>
       </c>
       <c r="F15" t="n">
-        <v>584981</v>
+        <v>587893</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>1203</v>
+        <v>637</v>
       </c>
       <c r="E16" t="n">
-        <v>57114</v>
+        <v>57438</v>
       </c>
       <c r="F16" t="n">
-        <v>584112</v>
+        <v>587123</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="D17" t="n">
-        <v>1487</v>
+        <v>759</v>
       </c>
       <c r="E17" t="n">
-        <v>56948</v>
+        <v>57356</v>
       </c>
       <c r="F17" t="n">
-        <v>582909</v>
+        <v>586486</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="D18" t="n">
-        <v>1869</v>
+        <v>746</v>
       </c>
       <c r="E18" t="n">
-        <v>56754</v>
+        <v>57260</v>
       </c>
       <c r="F18" t="n">
-        <v>581422</v>
+        <v>585727</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D19" t="n">
-        <v>1305</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
-        <v>56527</v>
+        <v>57183</v>
       </c>
       <c r="F19" t="n">
-        <v>579553</v>
+        <v>584981</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="D20" t="n">
-        <v>1259</v>
+        <v>1203</v>
       </c>
       <c r="E20" t="n">
-        <v>56383</v>
+        <v>57114</v>
       </c>
       <c r="F20" t="n">
-        <v>578248</v>
+        <v>584112</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D21" t="n">
-        <v>2780</v>
+        <v>1487</v>
       </c>
       <c r="E21" t="n">
-        <v>56155</v>
+        <v>56948</v>
       </c>
       <c r="F21" t="n">
-        <v>576989</v>
+        <v>582909</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="D22" t="n">
-        <v>3625</v>
+        <v>1869</v>
       </c>
       <c r="E22" t="n">
-        <v>55921</v>
+        <v>56754</v>
       </c>
       <c r="F22" t="n">
-        <v>574209</v>
+        <v>581422</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D23" t="n">
-        <v>3760</v>
+        <v>1305</v>
       </c>
       <c r="E23" t="n">
-        <v>55599</v>
+        <v>56527</v>
       </c>
       <c r="F23" t="n">
-        <v>570584</v>
+        <v>579553</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D24" t="n">
-        <v>3961</v>
+        <v>1259</v>
       </c>
       <c r="E24" t="n">
-        <v>55384</v>
+        <v>56383</v>
       </c>
       <c r="F24" t="n">
-        <v>566824</v>
+        <v>578248</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D25" t="n">
-        <v>4024</v>
+        <v>2780</v>
       </c>
       <c r="E25" t="n">
-        <v>55131</v>
+        <v>56155</v>
       </c>
       <c r="F25" t="n">
-        <v>562863</v>
+        <v>576989</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="D26" t="n">
-        <v>4390</v>
+        <v>3625</v>
       </c>
       <c r="E26" t="n">
-        <v>54886</v>
+        <v>55921</v>
       </c>
       <c r="F26" t="n">
-        <v>558839</v>
+        <v>574209</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D27" t="n">
-        <v>4722</v>
+        <v>3760</v>
       </c>
       <c r="E27" t="n">
-        <v>54625</v>
+        <v>55599</v>
       </c>
       <c r="F27" t="n">
-        <v>554449</v>
+        <v>570584</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D28" t="n">
-        <v>5395</v>
+        <v>3961</v>
       </c>
       <c r="E28" t="n">
-        <v>54365</v>
+        <v>55384</v>
       </c>
       <c r="F28" t="n">
-        <v>549727</v>
+        <v>566824</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>727</v>
+        <v>245</v>
       </c>
       <c r="D29" t="n">
-        <v>6606</v>
+        <v>4024</v>
       </c>
       <c r="E29" t="n">
-        <v>54091</v>
+        <v>55131</v>
       </c>
       <c r="F29" t="n">
-        <v>544332</v>
+        <v>562863</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>788</v>
+        <v>261</v>
       </c>
       <c r="D30" t="n">
-        <v>7084</v>
+        <v>4390</v>
       </c>
       <c r="E30" t="n">
-        <v>53364</v>
+        <v>54886</v>
       </c>
       <c r="F30" t="n">
-        <v>537726</v>
+        <v>558839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1249</v>
+        <v>260</v>
       </c>
       <c r="D31" t="n">
-        <v>8932</v>
+        <v>4722</v>
       </c>
       <c r="E31" t="n">
-        <v>52576</v>
+        <v>54625</v>
       </c>
       <c r="F31" t="n">
-        <v>530642</v>
+        <v>554449</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5487</v>
+        <v>274</v>
       </c>
       <c r="D32" t="n">
-        <v>9545</v>
+        <v>5395</v>
       </c>
       <c r="E32" t="n">
-        <v>51327</v>
+        <v>54365</v>
       </c>
       <c r="F32" t="n">
-        <v>521710</v>
+        <v>549727</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1292</v>
+        <v>727</v>
       </c>
       <c r="D33" t="n">
-        <v>9330</v>
+        <v>6606</v>
       </c>
       <c r="E33" t="n">
-        <v>45840</v>
+        <v>54091</v>
       </c>
       <c r="F33" t="n">
-        <v>512165</v>
+        <v>544332</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1606</v>
+        <v>788</v>
       </c>
       <c r="D34" t="n">
-        <v>11956</v>
+        <v>7084</v>
       </c>
       <c r="E34" t="n">
-        <v>44548</v>
+        <v>53364</v>
       </c>
       <c r="F34" t="n">
-        <v>502835</v>
+        <v>537726</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1661</v>
+        <v>1249</v>
       </c>
       <c r="D35" t="n">
-        <v>15319</v>
+        <v>8932</v>
       </c>
       <c r="E35" t="n">
-        <v>42942</v>
+        <v>52576</v>
       </c>
       <c r="F35" t="n">
-        <v>490879</v>
+        <v>530642</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2472</v>
+        <v>5487</v>
       </c>
       <c r="D36" t="n">
-        <v>16983</v>
+        <v>9545</v>
       </c>
       <c r="E36" t="n">
-        <v>41281</v>
+        <v>51327</v>
       </c>
       <c r="F36" t="n">
-        <v>475560</v>
+        <v>521710</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1401</v>
+        <v>1292</v>
       </c>
       <c r="D37" t="n">
-        <v>19657</v>
+        <v>9330</v>
       </c>
       <c r="E37" t="n">
-        <v>38809</v>
+        <v>45840</v>
       </c>
       <c r="F37" t="n">
-        <v>458577</v>
+        <v>512165</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2736</v>
+        <v>1606</v>
       </c>
       <c r="D38" t="n">
-        <v>20634</v>
+        <v>11956</v>
       </c>
       <c r="E38" t="n">
-        <v>37408</v>
+        <v>44548</v>
       </c>
       <c r="F38" t="n">
-        <v>438920</v>
+        <v>502835</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1931</v>
+        <v>1661</v>
       </c>
       <c r="D39" t="n">
-        <v>15698</v>
+        <v>15319</v>
       </c>
       <c r="E39" t="n">
-        <v>34672</v>
+        <v>42942</v>
       </c>
       <c r="F39" t="n">
-        <v>418286</v>
+        <v>490879</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2634</v>
+        <v>2472</v>
       </c>
       <c r="D40" t="n">
-        <v>15861</v>
+        <v>16983</v>
       </c>
       <c r="E40" t="n">
-        <v>32741</v>
+        <v>41281</v>
       </c>
       <c r="F40" t="n">
-        <v>402588</v>
+        <v>475560</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2494</v>
+        <v>1401</v>
       </c>
       <c r="D41" t="n">
-        <v>16407</v>
+        <v>19657</v>
       </c>
       <c r="E41" t="n">
-        <v>30107</v>
+        <v>38809</v>
       </c>
       <c r="F41" t="n">
-        <v>386727</v>
+        <v>458577</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3084</v>
+        <v>2736</v>
       </c>
       <c r="D42" t="n">
-        <v>17332</v>
+        <v>20634</v>
       </c>
       <c r="E42" t="n">
-        <v>27613</v>
+        <v>37408</v>
       </c>
       <c r="F42" t="n">
-        <v>370320</v>
+        <v>438920</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2417</v>
+        <v>1931</v>
       </c>
       <c r="D43" t="n">
-        <v>19831</v>
+        <v>15698</v>
       </c>
       <c r="E43" t="n">
-        <v>24529</v>
+        <v>34672</v>
       </c>
       <c r="F43" t="n">
-        <v>352988</v>
+        <v>418286</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3238</v>
+        <v>2634</v>
       </c>
       <c r="D44" t="n">
-        <v>21582</v>
+        <v>15861</v>
       </c>
       <c r="E44" t="n">
-        <v>22112</v>
+        <v>32741</v>
       </c>
       <c r="F44" t="n">
-        <v>333157</v>
+        <v>402588</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3590</v>
+        <v>2494</v>
       </c>
       <c r="D45" t="n">
-        <v>19923</v>
+        <v>16407</v>
       </c>
       <c r="E45" t="n">
-        <v>18874</v>
+        <v>30107</v>
       </c>
       <c r="F45" t="n">
-        <v>311575</v>
+        <v>386727</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3200</v>
+        <v>3084</v>
       </c>
       <c r="D46" t="n">
-        <v>19872</v>
+        <v>17332</v>
       </c>
       <c r="E46" t="n">
-        <v>15284</v>
+        <v>27613</v>
       </c>
       <c r="F46" t="n">
-        <v>291652</v>
+        <v>370320</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2573</v>
+        <v>2417</v>
       </c>
       <c r="D47" t="n">
-        <v>25146</v>
+        <v>19831</v>
       </c>
       <c r="E47" t="n">
-        <v>12084</v>
+        <v>24529</v>
       </c>
       <c r="F47" t="n">
-        <v>271780</v>
+        <v>352988</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1189</v>
+        <v>3238</v>
       </c>
       <c r="D48" t="n">
-        <v>25141</v>
+        <v>21582</v>
       </c>
       <c r="E48" t="n">
-        <v>9511</v>
+        <v>22112</v>
       </c>
       <c r="F48" t="n">
-        <v>246634</v>
+        <v>333157</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>994</v>
+        <v>3590</v>
       </c>
       <c r="D49" t="n">
-        <v>22348</v>
+        <v>19923</v>
       </c>
       <c r="E49" t="n">
-        <v>8322</v>
+        <v>18874</v>
       </c>
       <c r="F49" t="n">
-        <v>221493</v>
+        <v>311575</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>914</v>
+        <v>3200</v>
       </c>
       <c r="D50" t="n">
-        <v>25173</v>
+        <v>19872</v>
       </c>
       <c r="E50" t="n">
-        <v>7328</v>
+        <v>15284</v>
       </c>
       <c r="F50" t="n">
-        <v>199145</v>
+        <v>291652</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1006</v>
+        <v>2573</v>
       </c>
       <c r="D51" t="n">
-        <v>23937</v>
+        <v>25146</v>
       </c>
       <c r="E51" t="n">
-        <v>6414</v>
+        <v>12084</v>
       </c>
       <c r="F51" t="n">
-        <v>173972</v>
+        <v>271780</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1015</v>
+        <v>1189</v>
       </c>
       <c r="D52" t="n">
-        <v>22609</v>
+        <v>25141</v>
       </c>
       <c r="E52" t="n">
-        <v>5408</v>
+        <v>9511</v>
       </c>
       <c r="F52" t="n">
-        <v>150035</v>
+        <v>246634</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>824</v>
+        <v>994</v>
       </c>
       <c r="D53" t="n">
-        <v>20398</v>
+        <v>22348</v>
       </c>
       <c r="E53" t="n">
-        <v>4393</v>
+        <v>8322</v>
       </c>
       <c r="F53" t="n">
-        <v>127426</v>
+        <v>221493</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>322</v>
+        <v>914</v>
       </c>
       <c r="D54" t="n">
-        <v>19660</v>
+        <v>25173</v>
       </c>
       <c r="E54" t="n">
-        <v>3569</v>
+        <v>7328</v>
       </c>
       <c r="F54" t="n">
-        <v>107028</v>
+        <v>199145</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>311</v>
+        <v>1006</v>
       </c>
       <c r="D55" t="n">
-        <v>16766</v>
+        <v>23937</v>
       </c>
       <c r="E55" t="n">
-        <v>3247</v>
+        <v>6414</v>
       </c>
       <c r="F55" t="n">
-        <v>87368</v>
+        <v>173972</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>268</v>
+        <v>1015</v>
       </c>
       <c r="D56" t="n">
-        <v>13086</v>
+        <v>22609</v>
       </c>
       <c r="E56" t="n">
-        <v>2936</v>
+        <v>5408</v>
       </c>
       <c r="F56" t="n">
-        <v>70602</v>
+        <v>150035</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>425</v>
+        <v>824</v>
       </c>
       <c r="D57" t="n">
-        <v>8581</v>
+        <v>20398</v>
       </c>
       <c r="E57" t="n">
-        <v>2668</v>
+        <v>4393</v>
       </c>
       <c r="F57" t="n">
-        <v>57516</v>
+        <v>127426</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>438</v>
+        <v>322</v>
       </c>
       <c r="D58" t="n">
-        <v>7788</v>
+        <v>19660</v>
       </c>
       <c r="E58" t="n">
-        <v>2243</v>
+        <v>3569</v>
       </c>
       <c r="F58" t="n">
-        <v>48935</v>
+        <v>107028</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D59" t="n">
-        <v>6051</v>
+        <v>16766</v>
       </c>
       <c r="E59" t="n">
-        <v>1805</v>
+        <v>3247</v>
       </c>
       <c r="F59" t="n">
-        <v>41147</v>
+        <v>87368</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="D60" t="n">
-        <v>4144</v>
+        <v>13086</v>
       </c>
       <c r="E60" t="n">
-        <v>1545</v>
+        <v>2936</v>
       </c>
       <c r="F60" t="n">
-        <v>35096</v>
+        <v>70602</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D61" t="n">
-        <v>5298</v>
+        <v>8581</v>
       </c>
       <c r="E61" t="n">
-        <v>1187</v>
+        <v>2668</v>
       </c>
       <c r="F61" t="n">
-        <v>30952</v>
+        <v>57516</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="D62" t="n">
-        <v>5656</v>
+        <v>7788</v>
       </c>
       <c r="E62" t="n">
-        <v>832</v>
+        <v>2243</v>
       </c>
       <c r="F62" t="n">
-        <v>25654</v>
+        <v>48935</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D63" t="n">
-        <v>4381</v>
+        <v>6051</v>
       </c>
       <c r="E63" t="n">
-        <v>506</v>
+        <v>1805</v>
       </c>
       <c r="F63" t="n">
-        <v>19998</v>
+        <v>41147</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="D64" t="n">
-        <v>3450</v>
+        <v>4144</v>
       </c>
       <c r="E64" t="n">
-        <v>410</v>
+        <v>1545</v>
       </c>
       <c r="F64" t="n">
-        <v>15617</v>
+        <v>35096</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="D65" t="n">
-        <v>2631</v>
+        <v>5298</v>
       </c>
       <c r="E65" t="n">
-        <v>360</v>
+        <v>1187</v>
       </c>
       <c r="F65" t="n">
-        <v>12167</v>
+        <v>30952</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="D66" t="n">
-        <v>2231</v>
+        <v>5656</v>
       </c>
       <c r="E66" t="n">
-        <v>315</v>
+        <v>832</v>
       </c>
       <c r="F66" t="n">
-        <v>9536</v>
+        <v>25654</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D67" t="n">
-        <v>1580</v>
+        <v>4381</v>
       </c>
       <c r="E67" t="n">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="F67" t="n">
-        <v>7305</v>
+        <v>19998</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>979</v>
+        <v>3450</v>
       </c>
       <c r="E68" t="n">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="F68" t="n">
-        <v>5725</v>
+        <v>15617</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>977</v>
+        <v>2631</v>
       </c>
       <c r="E69" t="n">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>4746</v>
+        <v>12167</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D70" t="n">
-        <v>865</v>
+        <v>2231</v>
       </c>
       <c r="E70" t="n">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="F70" t="n">
-        <v>3769</v>
+        <v>9536</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
-        <v>734</v>
+        <v>1580</v>
       </c>
       <c r="E71" t="n">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="F71" t="n">
-        <v>2904</v>
+        <v>7305</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>492</v>
+        <v>979</v>
       </c>
       <c r="E72" t="n">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F72" t="n">
-        <v>2170</v>
+        <v>5725</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>366</v>
+        <v>977</v>
       </c>
       <c r="E73" t="n">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F73" t="n">
-        <v>1678</v>
+        <v>4746</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>203</v>
+        <v>865</v>
       </c>
       <c r="E74" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F74" t="n">
-        <v>1312</v>
+        <v>3769</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="E75" t="n">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="F75" t="n">
-        <v>1109</v>
+        <v>2904</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="E76" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
-        <v>959</v>
+        <v>2170</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="E77" t="n">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F77" t="n">
-        <v>762</v>
+        <v>1678</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E78" t="n">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F78" t="n">
-        <v>632</v>
+        <v>1312</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E79" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F79" t="n">
-        <v>504</v>
+        <v>1109</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="E80" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F80" t="n">
-        <v>440</v>
+        <v>959</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E81" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F81" t="n">
-        <v>362</v>
+        <v>762</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D82" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E82" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F82" t="n">
-        <v>298</v>
+        <v>632</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E83" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F83" t="n">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E84" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F84" t="n">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F85" t="n">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F87" t="n">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,22 +2671,122 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>28</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>64</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>36</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>14</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C94" t="n">
         <v>1</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D94" t="n">
         <v>1</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F94" t="n">
         <v>1</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G94" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>58005</v>
+        <v>58013</v>
       </c>
       <c r="F2" t="n">
-        <v>591349</v>
+        <v>591357</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>58000</v>
+        <v>58005</v>
       </c>
       <c r="F3" t="n">
-        <v>591341</v>
+        <v>591349</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>57995</v>
+        <v>58000</v>
       </c>
       <c r="F4" t="n">
-        <v>591331</v>
+        <v>591341</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>57986</v>
+        <v>57995</v>
       </c>
       <c r="F5" t="n">
-        <v>591309</v>
+        <v>591331</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>57980</v>
+        <v>57986</v>
       </c>
       <c r="F6" t="n">
-        <v>591248</v>
+        <v>591309</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
-        <v>57951</v>
+        <v>57980</v>
       </c>
       <c r="F7" t="n">
-        <v>591155</v>
+        <v>591248</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
-        <v>57912</v>
+        <v>57951</v>
       </c>
       <c r="F8" t="n">
-        <v>591024</v>
+        <v>591155</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E9" t="n">
-        <v>57867</v>
+        <v>57912</v>
       </c>
       <c r="F9" t="n">
-        <v>590805</v>
+        <v>591024</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="E10" t="n">
-        <v>57819</v>
+        <v>57867</v>
       </c>
       <c r="F10" t="n">
-        <v>590515</v>
+        <v>590805</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="E11" t="n">
-        <v>57775</v>
+        <v>57819</v>
       </c>
       <c r="F11" t="n">
-        <v>590172</v>
+        <v>590515</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="E12" t="n">
-        <v>57717</v>
+        <v>57775</v>
       </c>
       <c r="F12" t="n">
-        <v>589750</v>
+        <v>590172</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E13" t="n">
-        <v>57662</v>
+        <v>57717</v>
       </c>
       <c r="F13" t="n">
-        <v>589247</v>
+        <v>589750</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="E14" t="n">
-        <v>57610</v>
+        <v>57662</v>
       </c>
       <c r="F14" t="n">
-        <v>588677</v>
+        <v>589247</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E15" t="n">
-        <v>57526</v>
+        <v>57610</v>
       </c>
       <c r="F15" t="n">
-        <v>587893</v>
+        <v>588677</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" t="n">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="E16" t="n">
-        <v>57438</v>
+        <v>57526</v>
       </c>
       <c r="F16" t="n">
-        <v>587123</v>
+        <v>587893</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D17" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="E17" t="n">
-        <v>57356</v>
+        <v>57438</v>
       </c>
       <c r="F17" t="n">
-        <v>586486</v>
+        <v>587123</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D18" t="n">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E18" t="n">
-        <v>57260</v>
+        <v>57356</v>
       </c>
       <c r="F18" t="n">
-        <v>585727</v>
+        <v>586486</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E19" t="n">
-        <v>57183</v>
+        <v>57260</v>
       </c>
       <c r="F19" t="n">
-        <v>584981</v>
+        <v>585727</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D20" t="n">
-        <v>1203</v>
+        <v>869</v>
       </c>
       <c r="E20" t="n">
-        <v>57114</v>
+        <v>57183</v>
       </c>
       <c r="F20" t="n">
-        <v>584112</v>
+        <v>584981</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D21" t="n">
-        <v>1487</v>
+        <v>1203</v>
       </c>
       <c r="E21" t="n">
-        <v>56948</v>
+        <v>57114</v>
       </c>
       <c r="F21" t="n">
-        <v>582909</v>
+        <v>584112</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D22" t="n">
-        <v>1869</v>
+        <v>1487</v>
       </c>
       <c r="E22" t="n">
-        <v>56754</v>
+        <v>56948</v>
       </c>
       <c r="F22" t="n">
-        <v>581422</v>
+        <v>582909</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D23" t="n">
-        <v>1305</v>
+        <v>1869</v>
       </c>
       <c r="E23" t="n">
-        <v>56527</v>
+        <v>56754</v>
       </c>
       <c r="F23" t="n">
-        <v>579553</v>
+        <v>581422</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D24" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="E24" t="n">
-        <v>56383</v>
+        <v>56527</v>
       </c>
       <c r="F24" t="n">
-        <v>578248</v>
+        <v>579553</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D25" t="n">
-        <v>2780</v>
+        <v>1259</v>
       </c>
       <c r="E25" t="n">
-        <v>56155</v>
+        <v>56383</v>
       </c>
       <c r="F25" t="n">
-        <v>576989</v>
+        <v>578248</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D26" t="n">
-        <v>3625</v>
+        <v>2780</v>
       </c>
       <c r="E26" t="n">
-        <v>55921</v>
+        <v>56155</v>
       </c>
       <c r="F26" t="n">
-        <v>574209</v>
+        <v>576989</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="D27" t="n">
-        <v>3760</v>
+        <v>3625</v>
       </c>
       <c r="E27" t="n">
-        <v>55599</v>
+        <v>55921</v>
       </c>
       <c r="F27" t="n">
-        <v>570584</v>
+        <v>574209</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D28" t="n">
-        <v>3961</v>
+        <v>3760</v>
       </c>
       <c r="E28" t="n">
-        <v>55384</v>
+        <v>55599</v>
       </c>
       <c r="F28" t="n">
-        <v>566824</v>
+        <v>570584</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D29" t="n">
-        <v>4024</v>
+        <v>3961</v>
       </c>
       <c r="E29" t="n">
-        <v>55131</v>
+        <v>55384</v>
       </c>
       <c r="F29" t="n">
-        <v>562863</v>
+        <v>566824</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D30" t="n">
-        <v>4390</v>
+        <v>4024</v>
       </c>
       <c r="E30" t="n">
-        <v>54886</v>
+        <v>55131</v>
       </c>
       <c r="F30" t="n">
-        <v>558839</v>
+        <v>562863</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D31" t="n">
-        <v>4722</v>
+        <v>4390</v>
       </c>
       <c r="E31" t="n">
-        <v>54625</v>
+        <v>54886</v>
       </c>
       <c r="F31" t="n">
-        <v>554449</v>
+        <v>558839</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D32" t="n">
-        <v>5395</v>
+        <v>4722</v>
       </c>
       <c r="E32" t="n">
-        <v>54365</v>
+        <v>54625</v>
       </c>
       <c r="F32" t="n">
-        <v>549727</v>
+        <v>554449</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>727</v>
+        <v>274</v>
       </c>
       <c r="D33" t="n">
-        <v>6606</v>
+        <v>5395</v>
       </c>
       <c r="E33" t="n">
-        <v>54091</v>
+        <v>54365</v>
       </c>
       <c r="F33" t="n">
-        <v>544332</v>
+        <v>549727</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="D34" t="n">
-        <v>7084</v>
+        <v>6606</v>
       </c>
       <c r="E34" t="n">
-        <v>53364</v>
+        <v>54091</v>
       </c>
       <c r="F34" t="n">
-        <v>537726</v>
+        <v>544332</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1249</v>
+        <v>788</v>
       </c>
       <c r="D35" t="n">
-        <v>8932</v>
+        <v>7084</v>
       </c>
       <c r="E35" t="n">
-        <v>52576</v>
+        <v>53364</v>
       </c>
       <c r="F35" t="n">
-        <v>530642</v>
+        <v>537726</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5487</v>
+        <v>1249</v>
       </c>
       <c r="D36" t="n">
-        <v>9545</v>
+        <v>8932</v>
       </c>
       <c r="E36" t="n">
-        <v>51327</v>
+        <v>52576</v>
       </c>
       <c r="F36" t="n">
-        <v>521710</v>
+        <v>530642</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1292</v>
+        <v>5487</v>
       </c>
       <c r="D37" t="n">
-        <v>9330</v>
+        <v>9545</v>
       </c>
       <c r="E37" t="n">
-        <v>45840</v>
+        <v>51327</v>
       </c>
       <c r="F37" t="n">
-        <v>512165</v>
+        <v>521710</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1606</v>
+        <v>1292</v>
       </c>
       <c r="D38" t="n">
-        <v>11956</v>
+        <v>9330</v>
       </c>
       <c r="E38" t="n">
-        <v>44548</v>
+        <v>45840</v>
       </c>
       <c r="F38" t="n">
-        <v>502835</v>
+        <v>512165</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="D39" t="n">
-        <v>15319</v>
+        <v>11956</v>
       </c>
       <c r="E39" t="n">
-        <v>42942</v>
+        <v>44548</v>
       </c>
       <c r="F39" t="n">
-        <v>490879</v>
+        <v>502835</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2472</v>
+        <v>1661</v>
       </c>
       <c r="D40" t="n">
-        <v>16983</v>
+        <v>15319</v>
       </c>
       <c r="E40" t="n">
-        <v>41281</v>
+        <v>42942</v>
       </c>
       <c r="F40" t="n">
-        <v>475560</v>
+        <v>490879</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1401</v>
+        <v>2472</v>
       </c>
       <c r="D41" t="n">
-        <v>19657</v>
+        <v>16983</v>
       </c>
       <c r="E41" t="n">
-        <v>38809</v>
+        <v>41281</v>
       </c>
       <c r="F41" t="n">
-        <v>458577</v>
+        <v>475560</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2736</v>
+        <v>1401</v>
       </c>
       <c r="D42" t="n">
-        <v>20634</v>
+        <v>19657</v>
       </c>
       <c r="E42" t="n">
-        <v>37408</v>
+        <v>38809</v>
       </c>
       <c r="F42" t="n">
-        <v>438920</v>
+        <v>458577</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1931</v>
+        <v>2736</v>
       </c>
       <c r="D43" t="n">
-        <v>15698</v>
+        <v>20634</v>
       </c>
       <c r="E43" t="n">
-        <v>34672</v>
+        <v>37408</v>
       </c>
       <c r="F43" t="n">
-        <v>418286</v>
+        <v>438920</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2634</v>
+        <v>1931</v>
       </c>
       <c r="D44" t="n">
-        <v>15861</v>
+        <v>15698</v>
       </c>
       <c r="E44" t="n">
-        <v>32741</v>
+        <v>34672</v>
       </c>
       <c r="F44" t="n">
-        <v>402588</v>
+        <v>418286</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2494</v>
+        <v>2634</v>
       </c>
       <c r="D45" t="n">
-        <v>16407</v>
+        <v>15861</v>
       </c>
       <c r="E45" t="n">
-        <v>30107</v>
+        <v>32741</v>
       </c>
       <c r="F45" t="n">
-        <v>386727</v>
+        <v>402588</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3084</v>
+        <v>2494</v>
       </c>
       <c r="D46" t="n">
-        <v>17332</v>
+        <v>16407</v>
       </c>
       <c r="E46" t="n">
-        <v>27613</v>
+        <v>30107</v>
       </c>
       <c r="F46" t="n">
-        <v>370320</v>
+        <v>386727</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2417</v>
+        <v>3084</v>
       </c>
       <c r="D47" t="n">
-        <v>19831</v>
+        <v>17332</v>
       </c>
       <c r="E47" t="n">
-        <v>24529</v>
+        <v>27613</v>
       </c>
       <c r="F47" t="n">
-        <v>352988</v>
+        <v>370320</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3238</v>
+        <v>2417</v>
       </c>
       <c r="D48" t="n">
-        <v>21582</v>
+        <v>19831</v>
       </c>
       <c r="E48" t="n">
-        <v>22112</v>
+        <v>24529</v>
       </c>
       <c r="F48" t="n">
-        <v>333157</v>
+        <v>352988</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3590</v>
+        <v>3238</v>
       </c>
       <c r="D49" t="n">
-        <v>19923</v>
+        <v>21582</v>
       </c>
       <c r="E49" t="n">
-        <v>18874</v>
+        <v>22112</v>
       </c>
       <c r="F49" t="n">
-        <v>311575</v>
+        <v>333157</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3200</v>
+        <v>3590</v>
       </c>
       <c r="D50" t="n">
-        <v>19872</v>
+        <v>19923</v>
       </c>
       <c r="E50" t="n">
-        <v>15284</v>
+        <v>18874</v>
       </c>
       <c r="F50" t="n">
-        <v>291652</v>
+        <v>311575</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2573</v>
+        <v>3200</v>
       </c>
       <c r="D51" t="n">
-        <v>25146</v>
+        <v>19872</v>
       </c>
       <c r="E51" t="n">
-        <v>12084</v>
+        <v>15284</v>
       </c>
       <c r="F51" t="n">
-        <v>271780</v>
+        <v>291652</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1189</v>
+        <v>2573</v>
       </c>
       <c r="D52" t="n">
-        <v>25141</v>
+        <v>25146</v>
       </c>
       <c r="E52" t="n">
-        <v>9511</v>
+        <v>12084</v>
       </c>
       <c r="F52" t="n">
-        <v>246634</v>
+        <v>271780</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>994</v>
+        <v>1189</v>
       </c>
       <c r="D53" t="n">
-        <v>22348</v>
+        <v>25141</v>
       </c>
       <c r="E53" t="n">
-        <v>8322</v>
+        <v>9511</v>
       </c>
       <c r="F53" t="n">
-        <v>221493</v>
+        <v>246634</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="D54" t="n">
-        <v>25173</v>
+        <v>22348</v>
       </c>
       <c r="E54" t="n">
-        <v>7328</v>
+        <v>8322</v>
       </c>
       <c r="F54" t="n">
-        <v>199145</v>
+        <v>221493</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1006</v>
+        <v>914</v>
       </c>
       <c r="D55" t="n">
-        <v>23937</v>
+        <v>25173</v>
       </c>
       <c r="E55" t="n">
-        <v>6414</v>
+        <v>7328</v>
       </c>
       <c r="F55" t="n">
-        <v>173972</v>
+        <v>199145</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D56" t="n">
-        <v>22609</v>
+        <v>23937</v>
       </c>
       <c r="E56" t="n">
-        <v>5408</v>
+        <v>6414</v>
       </c>
       <c r="F56" t="n">
-        <v>150035</v>
+        <v>173972</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D57" t="n">
-        <v>20398</v>
+        <v>22609</v>
       </c>
       <c r="E57" t="n">
-        <v>4393</v>
+        <v>5408</v>
       </c>
       <c r="F57" t="n">
-        <v>127426</v>
+        <v>150035</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="D58" t="n">
-        <v>19660</v>
+        <v>20398</v>
       </c>
       <c r="E58" t="n">
-        <v>3569</v>
+        <v>4393</v>
       </c>
       <c r="F58" t="n">
-        <v>107028</v>
+        <v>127426</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D59" t="n">
-        <v>16766</v>
+        <v>19660</v>
       </c>
       <c r="E59" t="n">
-        <v>3247</v>
+        <v>3569</v>
       </c>
       <c r="F59" t="n">
-        <v>87368</v>
+        <v>107028</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D60" t="n">
-        <v>13086</v>
+        <v>16766</v>
       </c>
       <c r="E60" t="n">
-        <v>2936</v>
+        <v>3247</v>
       </c>
       <c r="F60" t="n">
-        <v>70602</v>
+        <v>87368</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="D61" t="n">
-        <v>8581</v>
+        <v>13086</v>
       </c>
       <c r="E61" t="n">
-        <v>2668</v>
+        <v>2936</v>
       </c>
       <c r="F61" t="n">
-        <v>57516</v>
+        <v>70602</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D62" t="n">
-        <v>7788</v>
+        <v>8581</v>
       </c>
       <c r="E62" t="n">
-        <v>2243</v>
+        <v>2668</v>
       </c>
       <c r="F62" t="n">
-        <v>48935</v>
+        <v>57516</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="D63" t="n">
-        <v>6051</v>
+        <v>7788</v>
       </c>
       <c r="E63" t="n">
-        <v>1805</v>
+        <v>2243</v>
       </c>
       <c r="F63" t="n">
-        <v>41147</v>
+        <v>48935</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D64" t="n">
-        <v>4144</v>
+        <v>6051</v>
       </c>
       <c r="E64" t="n">
-        <v>1545</v>
+        <v>1805</v>
       </c>
       <c r="F64" t="n">
-        <v>35096</v>
+        <v>41147</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D65" t="n">
-        <v>5298</v>
+        <v>4144</v>
       </c>
       <c r="E65" t="n">
-        <v>1187</v>
+        <v>1545</v>
       </c>
       <c r="F65" t="n">
-        <v>30952</v>
+        <v>35096</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D66" t="n">
-        <v>5656</v>
+        <v>5298</v>
       </c>
       <c r="E66" t="n">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="F66" t="n">
-        <v>25654</v>
+        <v>30952</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="D67" t="n">
-        <v>4381</v>
+        <v>5656</v>
       </c>
       <c r="E67" t="n">
-        <v>506</v>
+        <v>832</v>
       </c>
       <c r="F67" t="n">
-        <v>19998</v>
+        <v>25654</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D68" t="n">
-        <v>3450</v>
+        <v>4381</v>
       </c>
       <c r="E68" t="n">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F68" t="n">
-        <v>15617</v>
+        <v>19998</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D69" t="n">
-        <v>2631</v>
+        <v>3450</v>
       </c>
       <c r="E69" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F69" t="n">
-        <v>12167</v>
+        <v>15617</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>2231</v>
+        <v>2631</v>
       </c>
       <c r="E70" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F70" t="n">
-        <v>9536</v>
+        <v>12167</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>1580</v>
+        <v>2231</v>
       </c>
       <c r="E71" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F71" t="n">
-        <v>7305</v>
+        <v>9536</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>979</v>
+        <v>1580</v>
       </c>
       <c r="E72" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F72" t="n">
-        <v>5725</v>
+        <v>7305</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E73" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F73" t="n">
-        <v>4746</v>
+        <v>5725</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="E74" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F74" t="n">
-        <v>3769</v>
+        <v>4746</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E75" t="n">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F75" t="n">
-        <v>2904</v>
+        <v>3769</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D76" t="n">
-        <v>492</v>
+        <v>734</v>
       </c>
       <c r="E76" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F76" t="n">
-        <v>2170</v>
+        <v>2904</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E77" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F77" t="n">
-        <v>1678</v>
+        <v>2170</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E78" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F78" t="n">
-        <v>1312</v>
+        <v>1678</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D79" t="n">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E79" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F79" t="n">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E80" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F80" t="n">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="E81" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F81" t="n">
-        <v>762</v>
+        <v>959</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F82" t="n">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E83" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F83" t="n">
-        <v>504</v>
+        <v>632</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F84" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E85" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F85" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E86" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F86" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F87" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F88" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,22 +2771,47 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C95" t="n">
         <v>1</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D95" t="n">
         <v>1</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F95" t="n">
         <v>1</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G95" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>58013</v>
+        <v>58024</v>
       </c>
       <c r="F2" t="n">
-        <v>591357</v>
+        <v>591382</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>58005</v>
+        <v>58018</v>
       </c>
       <c r="F3" t="n">
-        <v>591349</v>
+        <v>591366</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>58000</v>
+        <v>58013</v>
       </c>
       <c r="F4" t="n">
-        <v>591341</v>
+        <v>591357</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>57995</v>
+        <v>58005</v>
       </c>
       <c r="F5" t="n">
-        <v>591331</v>
+        <v>591349</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>57986</v>
+        <v>58000</v>
       </c>
       <c r="F6" t="n">
-        <v>591309</v>
+        <v>591341</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>57980</v>
+        <v>57995</v>
       </c>
       <c r="F7" t="n">
-        <v>591248</v>
+        <v>591331</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
-        <v>57951</v>
+        <v>57986</v>
       </c>
       <c r="F8" t="n">
-        <v>591155</v>
+        <v>591309</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="E9" t="n">
-        <v>57912</v>
+        <v>57980</v>
       </c>
       <c r="F9" t="n">
-        <v>591024</v>
+        <v>591248</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
-        <v>57867</v>
+        <v>57951</v>
       </c>
       <c r="F10" t="n">
-        <v>590805</v>
+        <v>591155</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E11" t="n">
-        <v>57819</v>
+        <v>57912</v>
       </c>
       <c r="F11" t="n">
-        <v>590515</v>
+        <v>591024</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="E12" t="n">
-        <v>57775</v>
+        <v>57867</v>
       </c>
       <c r="F12" t="n">
-        <v>590172</v>
+        <v>590805</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="E13" t="n">
-        <v>57717</v>
+        <v>57819</v>
       </c>
       <c r="F13" t="n">
-        <v>589750</v>
+        <v>590515</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>570</v>
+        <v>422</v>
       </c>
       <c r="E14" t="n">
-        <v>57662</v>
+        <v>57775</v>
       </c>
       <c r="F14" t="n">
-        <v>589247</v>
+        <v>590172</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>784</v>
+        <v>503</v>
       </c>
       <c r="E15" t="n">
-        <v>57610</v>
+        <v>57717</v>
       </c>
       <c r="F15" t="n">
-        <v>588677</v>
+        <v>589750</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>770</v>
+        <v>570</v>
       </c>
       <c r="E16" t="n">
-        <v>57526</v>
+        <v>57662</v>
       </c>
       <c r="F16" t="n">
-        <v>587893</v>
+        <v>589247</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>637</v>
+        <v>784</v>
       </c>
       <c r="E17" t="n">
-        <v>57438</v>
+        <v>57610</v>
       </c>
       <c r="F17" t="n">
-        <v>587123</v>
+        <v>588677</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="E18" t="n">
-        <v>57356</v>
+        <v>57526</v>
       </c>
       <c r="F18" t="n">
-        <v>586486</v>
+        <v>587893</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D19" t="n">
-        <v>746</v>
+        <v>637</v>
       </c>
       <c r="E19" t="n">
-        <v>57260</v>
+        <v>57438</v>
       </c>
       <c r="F19" t="n">
-        <v>585727</v>
+        <v>587123</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D20" t="n">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="E20" t="n">
-        <v>57183</v>
+        <v>57356</v>
       </c>
       <c r="F20" t="n">
-        <v>584981</v>
+        <v>586486</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>1203</v>
+        <v>746</v>
       </c>
       <c r="E21" t="n">
-        <v>57114</v>
+        <v>57260</v>
       </c>
       <c r="F21" t="n">
-        <v>584112</v>
+        <v>585727</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>1487</v>
+        <v>869</v>
       </c>
       <c r="E22" t="n">
-        <v>56948</v>
+        <v>57183</v>
       </c>
       <c r="F22" t="n">
-        <v>582909</v>
+        <v>584981</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D23" t="n">
-        <v>1869</v>
+        <v>1203</v>
       </c>
       <c r="E23" t="n">
-        <v>56754</v>
+        <v>57114</v>
       </c>
       <c r="F23" t="n">
-        <v>581422</v>
+        <v>584112</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="D24" t="n">
-        <v>1305</v>
+        <v>1487</v>
       </c>
       <c r="E24" t="n">
-        <v>56527</v>
+        <v>56948</v>
       </c>
       <c r="F24" t="n">
-        <v>579553</v>
+        <v>582909</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" t="n">
-        <v>1259</v>
+        <v>1869</v>
       </c>
       <c r="E25" t="n">
-        <v>56383</v>
+        <v>56754</v>
       </c>
       <c r="F25" t="n">
-        <v>578248</v>
+        <v>581422</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="D26" t="n">
-        <v>2780</v>
+        <v>1305</v>
       </c>
       <c r="E26" t="n">
-        <v>56155</v>
+        <v>56527</v>
       </c>
       <c r="F26" t="n">
-        <v>576989</v>
+        <v>579553</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="D27" t="n">
-        <v>3625</v>
+        <v>1259</v>
       </c>
       <c r="E27" t="n">
-        <v>55921</v>
+        <v>56383</v>
       </c>
       <c r="F27" t="n">
-        <v>574209</v>
+        <v>578248</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D28" t="n">
-        <v>3760</v>
+        <v>2780</v>
       </c>
       <c r="E28" t="n">
-        <v>55599</v>
+        <v>56155</v>
       </c>
       <c r="F28" t="n">
-        <v>570584</v>
+        <v>576989</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="D29" t="n">
-        <v>3961</v>
+        <v>3625</v>
       </c>
       <c r="E29" t="n">
-        <v>55384</v>
+        <v>55921</v>
       </c>
       <c r="F29" t="n">
-        <v>566824</v>
+        <v>574209</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D30" t="n">
-        <v>4024</v>
+        <v>3760</v>
       </c>
       <c r="E30" t="n">
-        <v>55131</v>
+        <v>55599</v>
       </c>
       <c r="F30" t="n">
-        <v>562863</v>
+        <v>570584</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D31" t="n">
-        <v>4390</v>
+        <v>3961</v>
       </c>
       <c r="E31" t="n">
-        <v>54886</v>
+        <v>55384</v>
       </c>
       <c r="F31" t="n">
-        <v>558839</v>
+        <v>566824</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D32" t="n">
-        <v>4722</v>
+        <v>4024</v>
       </c>
       <c r="E32" t="n">
-        <v>54625</v>
+        <v>55131</v>
       </c>
       <c r="F32" t="n">
-        <v>554449</v>
+        <v>562863</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
-        <v>5395</v>
+        <v>4390</v>
       </c>
       <c r="E33" t="n">
-        <v>54365</v>
+        <v>54886</v>
       </c>
       <c r="F33" t="n">
-        <v>549727</v>
+        <v>558839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>727</v>
+        <v>260</v>
       </c>
       <c r="D34" t="n">
-        <v>6606</v>
+        <v>4722</v>
       </c>
       <c r="E34" t="n">
-        <v>54091</v>
+        <v>54625</v>
       </c>
       <c r="F34" t="n">
-        <v>544332</v>
+        <v>554449</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>788</v>
+        <v>274</v>
       </c>
       <c r="D35" t="n">
-        <v>7084</v>
+        <v>5395</v>
       </c>
       <c r="E35" t="n">
-        <v>53364</v>
+        <v>54365</v>
       </c>
       <c r="F35" t="n">
-        <v>537726</v>
+        <v>549727</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1249</v>
+        <v>727</v>
       </c>
       <c r="D36" t="n">
-        <v>8932</v>
+        <v>6606</v>
       </c>
       <c r="E36" t="n">
-        <v>52576</v>
+        <v>54091</v>
       </c>
       <c r="F36" t="n">
-        <v>530642</v>
+        <v>544332</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5487</v>
+        <v>788</v>
       </c>
       <c r="D37" t="n">
-        <v>9545</v>
+        <v>7084</v>
       </c>
       <c r="E37" t="n">
-        <v>51327</v>
+        <v>53364</v>
       </c>
       <c r="F37" t="n">
-        <v>521710</v>
+        <v>537726</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1292</v>
+        <v>1249</v>
       </c>
       <c r="D38" t="n">
-        <v>9330</v>
+        <v>8932</v>
       </c>
       <c r="E38" t="n">
-        <v>45840</v>
+        <v>52576</v>
       </c>
       <c r="F38" t="n">
-        <v>512165</v>
+        <v>530642</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1606</v>
+        <v>5487</v>
       </c>
       <c r="D39" t="n">
-        <v>11956</v>
+        <v>9545</v>
       </c>
       <c r="E39" t="n">
-        <v>44548</v>
+        <v>51327</v>
       </c>
       <c r="F39" t="n">
-        <v>502835</v>
+        <v>521710</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1661</v>
+        <v>1292</v>
       </c>
       <c r="D40" t="n">
-        <v>15319</v>
+        <v>9330</v>
       </c>
       <c r="E40" t="n">
-        <v>42942</v>
+        <v>45840</v>
       </c>
       <c r="F40" t="n">
-        <v>490879</v>
+        <v>512165</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2472</v>
+        <v>1606</v>
       </c>
       <c r="D41" t="n">
-        <v>16983</v>
+        <v>11956</v>
       </c>
       <c r="E41" t="n">
-        <v>41281</v>
+        <v>44548</v>
       </c>
       <c r="F41" t="n">
-        <v>475560</v>
+        <v>502835</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1401</v>
+        <v>1661</v>
       </c>
       <c r="D42" t="n">
-        <v>19657</v>
+        <v>15319</v>
       </c>
       <c r="E42" t="n">
-        <v>38809</v>
+        <v>42942</v>
       </c>
       <c r="F42" t="n">
-        <v>458577</v>
+        <v>490879</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2736</v>
+        <v>2472</v>
       </c>
       <c r="D43" t="n">
-        <v>20634</v>
+        <v>16983</v>
       </c>
       <c r="E43" t="n">
-        <v>37408</v>
+        <v>41281</v>
       </c>
       <c r="F43" t="n">
-        <v>438920</v>
+        <v>475560</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1931</v>
+        <v>1401</v>
       </c>
       <c r="D44" t="n">
-        <v>15698</v>
+        <v>19657</v>
       </c>
       <c r="E44" t="n">
-        <v>34672</v>
+        <v>38809</v>
       </c>
       <c r="F44" t="n">
-        <v>418286</v>
+        <v>458577</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2634</v>
+        <v>2736</v>
       </c>
       <c r="D45" t="n">
-        <v>15861</v>
+        <v>20634</v>
       </c>
       <c r="E45" t="n">
-        <v>32741</v>
+        <v>37408</v>
       </c>
       <c r="F45" t="n">
-        <v>402588</v>
+        <v>438920</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2494</v>
+        <v>1931</v>
       </c>
       <c r="D46" t="n">
-        <v>16407</v>
+        <v>15698</v>
       </c>
       <c r="E46" t="n">
-        <v>30107</v>
+        <v>34672</v>
       </c>
       <c r="F46" t="n">
-        <v>386727</v>
+        <v>418286</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3084</v>
+        <v>2634</v>
       </c>
       <c r="D47" t="n">
-        <v>17332</v>
+        <v>15861</v>
       </c>
       <c r="E47" t="n">
-        <v>27613</v>
+        <v>32741</v>
       </c>
       <c r="F47" t="n">
-        <v>370320</v>
+        <v>402588</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2417</v>
+        <v>2494</v>
       </c>
       <c r="D48" t="n">
-        <v>19831</v>
+        <v>16407</v>
       </c>
       <c r="E48" t="n">
-        <v>24529</v>
+        <v>30107</v>
       </c>
       <c r="F48" t="n">
-        <v>352988</v>
+        <v>386727</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3238</v>
+        <v>3084</v>
       </c>
       <c r="D49" t="n">
-        <v>21582</v>
+        <v>17332</v>
       </c>
       <c r="E49" t="n">
-        <v>22112</v>
+        <v>27613</v>
       </c>
       <c r="F49" t="n">
-        <v>333157</v>
+        <v>370320</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3590</v>
+        <v>2417</v>
       </c>
       <c r="D50" t="n">
-        <v>19923</v>
+        <v>19831</v>
       </c>
       <c r="E50" t="n">
-        <v>18874</v>
+        <v>24529</v>
       </c>
       <c r="F50" t="n">
-        <v>311575</v>
+        <v>352988</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3200</v>
+        <v>3238</v>
       </c>
       <c r="D51" t="n">
-        <v>19872</v>
+        <v>21582</v>
       </c>
       <c r="E51" t="n">
-        <v>15284</v>
+        <v>22112</v>
       </c>
       <c r="F51" t="n">
-        <v>291652</v>
+        <v>333157</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2573</v>
+        <v>3590</v>
       </c>
       <c r="D52" t="n">
-        <v>25146</v>
+        <v>19923</v>
       </c>
       <c r="E52" t="n">
-        <v>12084</v>
+        <v>18874</v>
       </c>
       <c r="F52" t="n">
-        <v>271780</v>
+        <v>311575</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1189</v>
+        <v>3200</v>
       </c>
       <c r="D53" t="n">
-        <v>25141</v>
+        <v>19872</v>
       </c>
       <c r="E53" t="n">
-        <v>9511</v>
+        <v>15284</v>
       </c>
       <c r="F53" t="n">
-        <v>246634</v>
+        <v>291652</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>994</v>
+        <v>2573</v>
       </c>
       <c r="D54" t="n">
-        <v>22348</v>
+        <v>25146</v>
       </c>
       <c r="E54" t="n">
-        <v>8322</v>
+        <v>12084</v>
       </c>
       <c r="F54" t="n">
-        <v>221493</v>
+        <v>271780</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>914</v>
+        <v>1189</v>
       </c>
       <c r="D55" t="n">
-        <v>25173</v>
+        <v>25141</v>
       </c>
       <c r="E55" t="n">
-        <v>7328</v>
+        <v>9511</v>
       </c>
       <c r="F55" t="n">
-        <v>199145</v>
+        <v>246634</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="D56" t="n">
-        <v>23937</v>
+        <v>22348</v>
       </c>
       <c r="E56" t="n">
-        <v>6414</v>
+        <v>8322</v>
       </c>
       <c r="F56" t="n">
-        <v>173972</v>
+        <v>221493</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1015</v>
+        <v>914</v>
       </c>
       <c r="D57" t="n">
-        <v>22609</v>
+        <v>25173</v>
       </c>
       <c r="E57" t="n">
-        <v>5408</v>
+        <v>7328</v>
       </c>
       <c r="F57" t="n">
-        <v>150035</v>
+        <v>199145</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>824</v>
+        <v>1006</v>
       </c>
       <c r="D58" t="n">
-        <v>20398</v>
+        <v>23937</v>
       </c>
       <c r="E58" t="n">
-        <v>4393</v>
+        <v>6414</v>
       </c>
       <c r="F58" t="n">
-        <v>127426</v>
+        <v>173972</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>322</v>
+        <v>1015</v>
       </c>
       <c r="D59" t="n">
-        <v>19660</v>
+        <v>22609</v>
       </c>
       <c r="E59" t="n">
-        <v>3569</v>
+        <v>5408</v>
       </c>
       <c r="F59" t="n">
-        <v>107028</v>
+        <v>150035</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>311</v>
+        <v>824</v>
       </c>
       <c r="D60" t="n">
-        <v>16766</v>
+        <v>20398</v>
       </c>
       <c r="E60" t="n">
-        <v>3247</v>
+        <v>4393</v>
       </c>
       <c r="F60" t="n">
-        <v>87368</v>
+        <v>127426</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="D61" t="n">
-        <v>13086</v>
+        <v>19660</v>
       </c>
       <c r="E61" t="n">
-        <v>2936</v>
+        <v>3569</v>
       </c>
       <c r="F61" t="n">
-        <v>70602</v>
+        <v>107028</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="D62" t="n">
-        <v>8581</v>
+        <v>16766</v>
       </c>
       <c r="E62" t="n">
-        <v>2668</v>
+        <v>3247</v>
       </c>
       <c r="F62" t="n">
-        <v>57516</v>
+        <v>87368</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="D63" t="n">
-        <v>7788</v>
+        <v>13086</v>
       </c>
       <c r="E63" t="n">
-        <v>2243</v>
+        <v>2936</v>
       </c>
       <c r="F63" t="n">
-        <v>48935</v>
+        <v>70602</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="D64" t="n">
-        <v>6051</v>
+        <v>8581</v>
       </c>
       <c r="E64" t="n">
-        <v>1805</v>
+        <v>2668</v>
       </c>
       <c r="F64" t="n">
-        <v>41147</v>
+        <v>57516</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="D65" t="n">
-        <v>4144</v>
+        <v>7788</v>
       </c>
       <c r="E65" t="n">
-        <v>1545</v>
+        <v>2243</v>
       </c>
       <c r="F65" t="n">
-        <v>35096</v>
+        <v>48935</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="D66" t="n">
-        <v>5298</v>
+        <v>6051</v>
       </c>
       <c r="E66" t="n">
-        <v>1187</v>
+        <v>1805</v>
       </c>
       <c r="F66" t="n">
-        <v>30952</v>
+        <v>41147</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="D67" t="n">
-        <v>5656</v>
+        <v>4144</v>
       </c>
       <c r="E67" t="n">
-        <v>832</v>
+        <v>1545</v>
       </c>
       <c r="F67" t="n">
-        <v>25654</v>
+        <v>35096</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="D68" t="n">
-        <v>4381</v>
+        <v>5298</v>
       </c>
       <c r="E68" t="n">
-        <v>506</v>
+        <v>1187</v>
       </c>
       <c r="F68" t="n">
-        <v>19998</v>
+        <v>30952</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="D69" t="n">
-        <v>3450</v>
+        <v>5656</v>
       </c>
       <c r="E69" t="n">
-        <v>410</v>
+        <v>832</v>
       </c>
       <c r="F69" t="n">
-        <v>15617</v>
+        <v>25654</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D70" t="n">
-        <v>2631</v>
+        <v>4381</v>
       </c>
       <c r="E70" t="n">
-        <v>360</v>
+        <v>506</v>
       </c>
       <c r="F70" t="n">
-        <v>12167</v>
+        <v>19998</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>2231</v>
+        <v>3450</v>
       </c>
       <c r="E71" t="n">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="F71" t="n">
-        <v>9536</v>
+        <v>15617</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>1580</v>
+        <v>2631</v>
       </c>
       <c r="E72" t="n">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="F72" t="n">
-        <v>7305</v>
+        <v>12167</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D73" t="n">
-        <v>979</v>
+        <v>2231</v>
       </c>
       <c r="E73" t="n">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="F73" t="n">
-        <v>5725</v>
+        <v>9536</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
-        <v>977</v>
+        <v>1580</v>
       </c>
       <c r="E74" t="n">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F74" t="n">
-        <v>4746</v>
+        <v>7305</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="E75" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F75" t="n">
-        <v>3769</v>
+        <v>5725</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>734</v>
+        <v>977</v>
       </c>
       <c r="E76" t="n">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F76" t="n">
-        <v>2904</v>
+        <v>4746</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
-        <v>492</v>
+        <v>865</v>
       </c>
       <c r="E77" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="F77" t="n">
-        <v>2170</v>
+        <v>3769</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D78" t="n">
-        <v>366</v>
+        <v>734</v>
       </c>
       <c r="E78" t="n">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="F78" t="n">
-        <v>1678</v>
+        <v>2904</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>203</v>
+        <v>492</v>
       </c>
       <c r="E79" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F79" t="n">
-        <v>1312</v>
+        <v>2170</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="E80" t="n">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F80" t="n">
-        <v>1109</v>
+        <v>1678</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D81" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E81" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F81" t="n">
-        <v>959</v>
+        <v>1312</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E82" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F82" t="n">
-        <v>762</v>
+        <v>1109</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="E83" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F83" t="n">
-        <v>632</v>
+        <v>959</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E84" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F84" t="n">
-        <v>504</v>
+        <v>762</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D85" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F85" t="n">
-        <v>440</v>
+        <v>632</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>64</v>
       </c>
       <c r="E86" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E87" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F87" t="n">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E88" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F88" t="n">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F89" t="n">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F90" t="n">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F91" t="n">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,22 +2796,72 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>14</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D97" t="n">
         <v>1</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F97" t="n">
         <v>1</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G97" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>58024</v>
+        <v>58028</v>
       </c>
       <c r="F2" t="n">
-        <v>591382</v>
+        <v>581386</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>58018</v>
+        <v>58024</v>
       </c>
       <c r="F3" t="n">
-        <v>591366</v>
+        <v>591382</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>58013</v>
+        <v>58018</v>
       </c>
       <c r="F4" t="n">
-        <v>591357</v>
+        <v>591366</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>58005</v>
+        <v>58013</v>
       </c>
       <c r="F5" t="n">
-        <v>591349</v>
+        <v>591357</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>58000</v>
+        <v>58005</v>
       </c>
       <c r="F6" t="n">
-        <v>591341</v>
+        <v>591349</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>57995</v>
+        <v>58000</v>
       </c>
       <c r="F7" t="n">
-        <v>591331</v>
+        <v>591341</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>57986</v>
+        <v>57995</v>
       </c>
       <c r="F8" t="n">
-        <v>591309</v>
+        <v>591331</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>57980</v>
+        <v>57986</v>
       </c>
       <c r="F9" t="n">
-        <v>591248</v>
+        <v>591309</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
-        <v>57951</v>
+        <v>57980</v>
       </c>
       <c r="F10" t="n">
-        <v>591155</v>
+        <v>591248</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
-        <v>57912</v>
+        <v>57951</v>
       </c>
       <c r="F11" t="n">
-        <v>591024</v>
+        <v>591155</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E12" t="n">
-        <v>57867</v>
+        <v>57912</v>
       </c>
       <c r="F12" t="n">
-        <v>590805</v>
+        <v>591024</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="E13" t="n">
-        <v>57819</v>
+        <v>57867</v>
       </c>
       <c r="F13" t="n">
-        <v>590515</v>
+        <v>590805</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="E14" t="n">
-        <v>57775</v>
+        <v>57819</v>
       </c>
       <c r="F14" t="n">
-        <v>590172</v>
+        <v>590515</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="E15" t="n">
-        <v>57717</v>
+        <v>57775</v>
       </c>
       <c r="F15" t="n">
-        <v>589750</v>
+        <v>590172</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E16" t="n">
-        <v>57662</v>
+        <v>57717</v>
       </c>
       <c r="F16" t="n">
-        <v>589247</v>
+        <v>589750</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D17" t="n">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="E17" t="n">
-        <v>57610</v>
+        <v>57662</v>
       </c>
       <c r="F17" t="n">
-        <v>588677</v>
+        <v>589247</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E18" t="n">
-        <v>57526</v>
+        <v>57610</v>
       </c>
       <c r="F18" t="n">
-        <v>587893</v>
+        <v>588677</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" t="n">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="E19" t="n">
-        <v>57438</v>
+        <v>57526</v>
       </c>
       <c r="F19" t="n">
-        <v>587123</v>
+        <v>587893</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D20" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="E20" t="n">
-        <v>57356</v>
+        <v>57438</v>
       </c>
       <c r="F20" t="n">
-        <v>586486</v>
+        <v>587123</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D21" t="n">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E21" t="n">
-        <v>57260</v>
+        <v>57356</v>
       </c>
       <c r="F21" t="n">
-        <v>585727</v>
+        <v>586486</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E22" t="n">
-        <v>57183</v>
+        <v>57260</v>
       </c>
       <c r="F22" t="n">
-        <v>584981</v>
+        <v>585727</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D23" t="n">
-        <v>1203</v>
+        <v>869</v>
       </c>
       <c r="E23" t="n">
-        <v>57114</v>
+        <v>57183</v>
       </c>
       <c r="F23" t="n">
-        <v>584112</v>
+        <v>584981</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D24" t="n">
-        <v>1487</v>
+        <v>1203</v>
       </c>
       <c r="E24" t="n">
-        <v>56948</v>
+        <v>57114</v>
       </c>
       <c r="F24" t="n">
-        <v>582909</v>
+        <v>584112</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D25" t="n">
-        <v>1869</v>
+        <v>1487</v>
       </c>
       <c r="E25" t="n">
-        <v>56754</v>
+        <v>56948</v>
       </c>
       <c r="F25" t="n">
-        <v>581422</v>
+        <v>582909</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D26" t="n">
-        <v>1305</v>
+        <v>1869</v>
       </c>
       <c r="E26" t="n">
-        <v>56527</v>
+        <v>56754</v>
       </c>
       <c r="F26" t="n">
-        <v>579553</v>
+        <v>581422</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D27" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="E27" t="n">
-        <v>56383</v>
+        <v>56527</v>
       </c>
       <c r="F27" t="n">
-        <v>578248</v>
+        <v>579553</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D28" t="n">
-        <v>2780</v>
+        <v>1259</v>
       </c>
       <c r="E28" t="n">
-        <v>56155</v>
+        <v>56383</v>
       </c>
       <c r="F28" t="n">
-        <v>576989</v>
+        <v>578248</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D29" t="n">
-        <v>3625</v>
+        <v>2780</v>
       </c>
       <c r="E29" t="n">
-        <v>55921</v>
+        <v>56155</v>
       </c>
       <c r="F29" t="n">
-        <v>574209</v>
+        <v>576989</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="D30" t="n">
-        <v>3760</v>
+        <v>3625</v>
       </c>
       <c r="E30" t="n">
-        <v>55599</v>
+        <v>55921</v>
       </c>
       <c r="F30" t="n">
-        <v>570584</v>
+        <v>574209</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D31" t="n">
-        <v>3961</v>
+        <v>3760</v>
       </c>
       <c r="E31" t="n">
-        <v>55384</v>
+        <v>55599</v>
       </c>
       <c r="F31" t="n">
-        <v>566824</v>
+        <v>570584</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D32" t="n">
-        <v>4024</v>
+        <v>3961</v>
       </c>
       <c r="E32" t="n">
-        <v>55131</v>
+        <v>55384</v>
       </c>
       <c r="F32" t="n">
-        <v>562863</v>
+        <v>566824</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D33" t="n">
-        <v>4390</v>
+        <v>4024</v>
       </c>
       <c r="E33" t="n">
-        <v>54886</v>
+        <v>55131</v>
       </c>
       <c r="F33" t="n">
-        <v>558839</v>
+        <v>562863</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D34" t="n">
-        <v>4722</v>
+        <v>4390</v>
       </c>
       <c r="E34" t="n">
-        <v>54625</v>
+        <v>54886</v>
       </c>
       <c r="F34" t="n">
-        <v>554449</v>
+        <v>558839</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D35" t="n">
-        <v>5395</v>
+        <v>4722</v>
       </c>
       <c r="E35" t="n">
-        <v>54365</v>
+        <v>54625</v>
       </c>
       <c r="F35" t="n">
-        <v>549727</v>
+        <v>554449</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>727</v>
+        <v>274</v>
       </c>
       <c r="D36" t="n">
-        <v>6606</v>
+        <v>5395</v>
       </c>
       <c r="E36" t="n">
-        <v>54091</v>
+        <v>54365</v>
       </c>
       <c r="F36" t="n">
-        <v>544332</v>
+        <v>549727</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="D37" t="n">
-        <v>7084</v>
+        <v>6606</v>
       </c>
       <c r="E37" t="n">
-        <v>53364</v>
+        <v>54091</v>
       </c>
       <c r="F37" t="n">
-        <v>537726</v>
+        <v>544332</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1249</v>
+        <v>788</v>
       </c>
       <c r="D38" t="n">
-        <v>8932</v>
+        <v>7084</v>
       </c>
       <c r="E38" t="n">
-        <v>52576</v>
+        <v>53364</v>
       </c>
       <c r="F38" t="n">
-        <v>530642</v>
+        <v>537726</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5487</v>
+        <v>1249</v>
       </c>
       <c r="D39" t="n">
-        <v>9545</v>
+        <v>8932</v>
       </c>
       <c r="E39" t="n">
-        <v>51327</v>
+        <v>52576</v>
       </c>
       <c r="F39" t="n">
-        <v>521710</v>
+        <v>530642</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1292</v>
+        <v>5487</v>
       </c>
       <c r="D40" t="n">
-        <v>9330</v>
+        <v>9545</v>
       </c>
       <c r="E40" t="n">
-        <v>45840</v>
+        <v>51327</v>
       </c>
       <c r="F40" t="n">
-        <v>512165</v>
+        <v>521710</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1606</v>
+        <v>1292</v>
       </c>
       <c r="D41" t="n">
-        <v>11956</v>
+        <v>9330</v>
       </c>
       <c r="E41" t="n">
-        <v>44548</v>
+        <v>45840</v>
       </c>
       <c r="F41" t="n">
-        <v>502835</v>
+        <v>512165</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="D42" t="n">
-        <v>15319</v>
+        <v>11956</v>
       </c>
       <c r="E42" t="n">
-        <v>42942</v>
+        <v>44548</v>
       </c>
       <c r="F42" t="n">
-        <v>490879</v>
+        <v>502835</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2472</v>
+        <v>1661</v>
       </c>
       <c r="D43" t="n">
-        <v>16983</v>
+        <v>15319</v>
       </c>
       <c r="E43" t="n">
-        <v>41281</v>
+        <v>42942</v>
       </c>
       <c r="F43" t="n">
-        <v>475560</v>
+        <v>490879</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1401</v>
+        <v>2472</v>
       </c>
       <c r="D44" t="n">
-        <v>19657</v>
+        <v>16983</v>
       </c>
       <c r="E44" t="n">
-        <v>38809</v>
+        <v>41281</v>
       </c>
       <c r="F44" t="n">
-        <v>458577</v>
+        <v>475560</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2736</v>
+        <v>1401</v>
       </c>
       <c r="D45" t="n">
-        <v>20634</v>
+        <v>19657</v>
       </c>
       <c r="E45" t="n">
-        <v>37408</v>
+        <v>38809</v>
       </c>
       <c r="F45" t="n">
-        <v>438920</v>
+        <v>458577</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1931</v>
+        <v>2736</v>
       </c>
       <c r="D46" t="n">
-        <v>15698</v>
+        <v>20634</v>
       </c>
       <c r="E46" t="n">
-        <v>34672</v>
+        <v>37408</v>
       </c>
       <c r="F46" t="n">
-        <v>418286</v>
+        <v>438920</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2634</v>
+        <v>1931</v>
       </c>
       <c r="D47" t="n">
-        <v>15861</v>
+        <v>15698</v>
       </c>
       <c r="E47" t="n">
-        <v>32741</v>
+        <v>34672</v>
       </c>
       <c r="F47" t="n">
-        <v>402588</v>
+        <v>418286</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2494</v>
+        <v>2634</v>
       </c>
       <c r="D48" t="n">
-        <v>16407</v>
+        <v>15861</v>
       </c>
       <c r="E48" t="n">
-        <v>30107</v>
+        <v>32741</v>
       </c>
       <c r="F48" t="n">
-        <v>386727</v>
+        <v>402588</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3084</v>
+        <v>2494</v>
       </c>
       <c r="D49" t="n">
-        <v>17332</v>
+        <v>16407</v>
       </c>
       <c r="E49" t="n">
-        <v>27613</v>
+        <v>30107</v>
       </c>
       <c r="F49" t="n">
-        <v>370320</v>
+        <v>386727</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2417</v>
+        <v>3084</v>
       </c>
       <c r="D50" t="n">
-        <v>19831</v>
+        <v>17332</v>
       </c>
       <c r="E50" t="n">
-        <v>24529</v>
+        <v>27613</v>
       </c>
       <c r="F50" t="n">
-        <v>352988</v>
+        <v>370320</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3238</v>
+        <v>2417</v>
       </c>
       <c r="D51" t="n">
-        <v>21582</v>
+        <v>19831</v>
       </c>
       <c r="E51" t="n">
-        <v>22112</v>
+        <v>24529</v>
       </c>
       <c r="F51" t="n">
-        <v>333157</v>
+        <v>352988</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3590</v>
+        <v>3238</v>
       </c>
       <c r="D52" t="n">
-        <v>19923</v>
+        <v>21582</v>
       </c>
       <c r="E52" t="n">
-        <v>18874</v>
+        <v>22112</v>
       </c>
       <c r="F52" t="n">
-        <v>311575</v>
+        <v>333157</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3200</v>
+        <v>3590</v>
       </c>
       <c r="D53" t="n">
-        <v>19872</v>
+        <v>19923</v>
       </c>
       <c r="E53" t="n">
-        <v>15284</v>
+        <v>18874</v>
       </c>
       <c r="F53" t="n">
-        <v>291652</v>
+        <v>311575</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2573</v>
+        <v>3200</v>
       </c>
       <c r="D54" t="n">
-        <v>25146</v>
+        <v>19872</v>
       </c>
       <c r="E54" t="n">
-        <v>12084</v>
+        <v>15284</v>
       </c>
       <c r="F54" t="n">
-        <v>271780</v>
+        <v>291652</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1189</v>
+        <v>2573</v>
       </c>
       <c r="D55" t="n">
-        <v>25141</v>
+        <v>25146</v>
       </c>
       <c r="E55" t="n">
-        <v>9511</v>
+        <v>12084</v>
       </c>
       <c r="F55" t="n">
-        <v>246634</v>
+        <v>271780</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>994</v>
+        <v>1189</v>
       </c>
       <c r="D56" t="n">
-        <v>22348</v>
+        <v>25141</v>
       </c>
       <c r="E56" t="n">
-        <v>8322</v>
+        <v>9511</v>
       </c>
       <c r="F56" t="n">
-        <v>221493</v>
+        <v>246634</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="D57" t="n">
-        <v>25173</v>
+        <v>22348</v>
       </c>
       <c r="E57" t="n">
-        <v>7328</v>
+        <v>8322</v>
       </c>
       <c r="F57" t="n">
-        <v>199145</v>
+        <v>221493</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1006</v>
+        <v>914</v>
       </c>
       <c r="D58" t="n">
-        <v>23937</v>
+        <v>25173</v>
       </c>
       <c r="E58" t="n">
-        <v>6414</v>
+        <v>7328</v>
       </c>
       <c r="F58" t="n">
-        <v>173972</v>
+        <v>199145</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D59" t="n">
-        <v>22609</v>
+        <v>23937</v>
       </c>
       <c r="E59" t="n">
-        <v>5408</v>
+        <v>6414</v>
       </c>
       <c r="F59" t="n">
-        <v>150035</v>
+        <v>173972</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D60" t="n">
-        <v>20398</v>
+        <v>22609</v>
       </c>
       <c r="E60" t="n">
-        <v>4393</v>
+        <v>5408</v>
       </c>
       <c r="F60" t="n">
-        <v>127426</v>
+        <v>150035</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="D61" t="n">
-        <v>19660</v>
+        <v>20398</v>
       </c>
       <c r="E61" t="n">
-        <v>3569</v>
+        <v>4393</v>
       </c>
       <c r="F61" t="n">
-        <v>107028</v>
+        <v>127426</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D62" t="n">
-        <v>16766</v>
+        <v>19660</v>
       </c>
       <c r="E62" t="n">
-        <v>3247</v>
+        <v>3569</v>
       </c>
       <c r="F62" t="n">
-        <v>87368</v>
+        <v>107028</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D63" t="n">
-        <v>13086</v>
+        <v>16766</v>
       </c>
       <c r="E63" t="n">
-        <v>2936</v>
+        <v>3247</v>
       </c>
       <c r="F63" t="n">
-        <v>70602</v>
+        <v>87368</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="D64" t="n">
-        <v>8581</v>
+        <v>13086</v>
       </c>
       <c r="E64" t="n">
-        <v>2668</v>
+        <v>2936</v>
       </c>
       <c r="F64" t="n">
-        <v>57516</v>
+        <v>70602</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D65" t="n">
-        <v>7788</v>
+        <v>8581</v>
       </c>
       <c r="E65" t="n">
-        <v>2243</v>
+        <v>2668</v>
       </c>
       <c r="F65" t="n">
-        <v>48935</v>
+        <v>57516</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="D66" t="n">
-        <v>6051</v>
+        <v>7788</v>
       </c>
       <c r="E66" t="n">
-        <v>1805</v>
+        <v>2243</v>
       </c>
       <c r="F66" t="n">
-        <v>41147</v>
+        <v>48935</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D67" t="n">
-        <v>4144</v>
+        <v>6051</v>
       </c>
       <c r="E67" t="n">
-        <v>1545</v>
+        <v>1805</v>
       </c>
       <c r="F67" t="n">
-        <v>35096</v>
+        <v>41147</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D68" t="n">
-        <v>5298</v>
+        <v>4144</v>
       </c>
       <c r="E68" t="n">
-        <v>1187</v>
+        <v>1545</v>
       </c>
       <c r="F68" t="n">
-        <v>30952</v>
+        <v>35096</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D69" t="n">
-        <v>5656</v>
+        <v>5298</v>
       </c>
       <c r="E69" t="n">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="F69" t="n">
-        <v>25654</v>
+        <v>30952</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="D70" t="n">
-        <v>4381</v>
+        <v>5656</v>
       </c>
       <c r="E70" t="n">
-        <v>506</v>
+        <v>832</v>
       </c>
       <c r="F70" t="n">
-        <v>19998</v>
+        <v>25654</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D71" t="n">
-        <v>3450</v>
+        <v>4381</v>
       </c>
       <c r="E71" t="n">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F71" t="n">
-        <v>15617</v>
+        <v>19998</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>2631</v>
+        <v>3450</v>
       </c>
       <c r="E72" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F72" t="n">
-        <v>12167</v>
+        <v>15617</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>2231</v>
+        <v>2631</v>
       </c>
       <c r="E73" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F73" t="n">
-        <v>9536</v>
+        <v>12167</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D74" t="n">
-        <v>1580</v>
+        <v>2231</v>
       </c>
       <c r="E74" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F74" t="n">
-        <v>7305</v>
+        <v>9536</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
-        <v>979</v>
+        <v>1580</v>
       </c>
       <c r="E75" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F75" t="n">
-        <v>5725</v>
+        <v>7305</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E76" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F76" t="n">
-        <v>4746</v>
+        <v>5725</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="E77" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F77" t="n">
-        <v>3769</v>
+        <v>4746</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E78" t="n">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F78" t="n">
-        <v>2904</v>
+        <v>3769</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D79" t="n">
-        <v>492</v>
+        <v>734</v>
       </c>
       <c r="E79" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F79" t="n">
-        <v>2170</v>
+        <v>2904</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E80" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F80" t="n">
-        <v>1678</v>
+        <v>2170</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E81" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F81" t="n">
-        <v>1312</v>
+        <v>1678</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D82" t="n">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E82" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F82" t="n">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E83" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F83" t="n">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="E84" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F84" t="n">
-        <v>762</v>
+        <v>959</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F85" t="n">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E86" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F86" t="n">
-        <v>504</v>
+        <v>632</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E87" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E88" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F88" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E89" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F89" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E90" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F91" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F92" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,22 +2846,47 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D98" t="n">
         <v>1</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E98" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F98" t="n">
         <v>1</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>58028</v>
+        <v>58052</v>
       </c>
       <c r="F2" t="n">
-        <v>581386</v>
+        <v>591423</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>58024</v>
+        <v>58045</v>
       </c>
       <c r="F3" t="n">
-        <v>591382</v>
+        <v>591414</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
       <c r="E4" t="n">
-        <v>58018</v>
+        <v>58039</v>
       </c>
       <c r="F4" t="n">
-        <v>591366</v>
+        <v>591409</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>58013</v>
+        <v>58035</v>
       </c>
       <c r="F5" t="n">
-        <v>591357</v>
+        <v>591404</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>58005</v>
+        <v>58031</v>
       </c>
       <c r="F6" t="n">
-        <v>591349</v>
+        <v>591393</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>58000</v>
+        <v>58028</v>
       </c>
       <c r="F7" t="n">
-        <v>591341</v>
+        <v>591386</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>57995</v>
+        <v>58024</v>
       </c>
       <c r="F8" t="n">
-        <v>591331</v>
+        <v>591382</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>57986</v>
+        <v>58018</v>
       </c>
       <c r="F9" t="n">
-        <v>591309</v>
+        <v>591366</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>57980</v>
+        <v>58013</v>
       </c>
       <c r="F10" t="n">
-        <v>591248</v>
+        <v>591357</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>57951</v>
+        <v>58005</v>
       </c>
       <c r="F11" t="n">
-        <v>591155</v>
+        <v>591349</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>57912</v>
+        <v>58000</v>
       </c>
       <c r="F12" t="n">
-        <v>591024</v>
+        <v>591341</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>57867</v>
+        <v>57995</v>
       </c>
       <c r="F13" t="n">
-        <v>590805</v>
+        <v>591331</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>57819</v>
+        <v>57986</v>
       </c>
       <c r="F14" t="n">
-        <v>590515</v>
+        <v>591309</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>422</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
-        <v>57775</v>
+        <v>57980</v>
       </c>
       <c r="F15" t="n">
-        <v>590172</v>
+        <v>591248</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
-        <v>503</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
-        <v>57717</v>
+        <v>57951</v>
       </c>
       <c r="F16" t="n">
-        <v>589750</v>
+        <v>591155</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>570</v>
+        <v>219</v>
       </c>
       <c r="E17" t="n">
-        <v>57662</v>
+        <v>57912</v>
       </c>
       <c r="F17" t="n">
-        <v>589247</v>
+        <v>591024</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>784</v>
+        <v>290</v>
       </c>
       <c r="E18" t="n">
-        <v>57610</v>
+        <v>57867</v>
       </c>
       <c r="F18" t="n">
-        <v>588677</v>
+        <v>590805</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>770</v>
+        <v>343</v>
       </c>
       <c r="E19" t="n">
-        <v>57526</v>
+        <v>57819</v>
       </c>
       <c r="F19" t="n">
-        <v>587893</v>
+        <v>590515</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D20" t="n">
-        <v>637</v>
+        <v>422</v>
       </c>
       <c r="E20" t="n">
-        <v>57438</v>
+        <v>57775</v>
       </c>
       <c r="F20" t="n">
-        <v>587123</v>
+        <v>590172</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>759</v>
+        <v>503</v>
       </c>
       <c r="E21" t="n">
-        <v>57356</v>
+        <v>57717</v>
       </c>
       <c r="F21" t="n">
-        <v>586486</v>
+        <v>589750</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>746</v>
+        <v>570</v>
       </c>
       <c r="E22" t="n">
-        <v>57260</v>
+        <v>57662</v>
       </c>
       <c r="F22" t="n">
-        <v>585727</v>
+        <v>589247</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D23" t="n">
-        <v>869</v>
+        <v>784</v>
       </c>
       <c r="E23" t="n">
-        <v>57183</v>
+        <v>57610</v>
       </c>
       <c r="F23" t="n">
-        <v>584981</v>
+        <v>588677</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="D24" t="n">
-        <v>1203</v>
+        <v>770</v>
       </c>
       <c r="E24" t="n">
-        <v>57114</v>
+        <v>57526</v>
       </c>
       <c r="F24" t="n">
-        <v>584112</v>
+        <v>587893</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="D25" t="n">
-        <v>1487</v>
+        <v>637</v>
       </c>
       <c r="E25" t="n">
-        <v>56948</v>
+        <v>57438</v>
       </c>
       <c r="F25" t="n">
-        <v>582909</v>
+        <v>587123</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="D26" t="n">
-        <v>1869</v>
+        <v>759</v>
       </c>
       <c r="E26" t="n">
-        <v>56754</v>
+        <v>57356</v>
       </c>
       <c r="F26" t="n">
-        <v>581422</v>
+        <v>586486</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D27" t="n">
-        <v>1305</v>
+        <v>746</v>
       </c>
       <c r="E27" t="n">
-        <v>56527</v>
+        <v>57260</v>
       </c>
       <c r="F27" t="n">
-        <v>579553</v>
+        <v>585727</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="D28" t="n">
-        <v>1259</v>
+        <v>869</v>
       </c>
       <c r="E28" t="n">
-        <v>56383</v>
+        <v>57183</v>
       </c>
       <c r="F28" t="n">
-        <v>578248</v>
+        <v>584981</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="D29" t="n">
-        <v>2780</v>
+        <v>1203</v>
       </c>
       <c r="E29" t="n">
-        <v>56155</v>
+        <v>57114</v>
       </c>
       <c r="F29" t="n">
-        <v>576989</v>
+        <v>584112</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>322</v>
+        <v>194</v>
       </c>
       <c r="D30" t="n">
-        <v>3625</v>
+        <v>1487</v>
       </c>
       <c r="E30" t="n">
-        <v>55921</v>
+        <v>56948</v>
       </c>
       <c r="F30" t="n">
-        <v>574209</v>
+        <v>582909</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D31" t="n">
-        <v>3760</v>
+        <v>1869</v>
       </c>
       <c r="E31" t="n">
-        <v>55599</v>
+        <v>56754</v>
       </c>
       <c r="F31" t="n">
-        <v>570584</v>
+        <v>581422</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="D32" t="n">
-        <v>3961</v>
+        <v>1305</v>
       </c>
       <c r="E32" t="n">
-        <v>55384</v>
+        <v>56527</v>
       </c>
       <c r="F32" t="n">
-        <v>566824</v>
+        <v>579553</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D33" t="n">
-        <v>4024</v>
+        <v>1259</v>
       </c>
       <c r="E33" t="n">
-        <v>55131</v>
+        <v>56383</v>
       </c>
       <c r="F33" t="n">
-        <v>562863</v>
+        <v>578248</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="D34" t="n">
-        <v>4390</v>
+        <v>2780</v>
       </c>
       <c r="E34" t="n">
-        <v>54886</v>
+        <v>56155</v>
       </c>
       <c r="F34" t="n">
-        <v>558839</v>
+        <v>576989</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D35" t="n">
-        <v>4722</v>
+        <v>3625</v>
       </c>
       <c r="E35" t="n">
-        <v>54625</v>
+        <v>55921</v>
       </c>
       <c r="F35" t="n">
-        <v>554449</v>
+        <v>574209</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D36" t="n">
-        <v>5395</v>
+        <v>3760</v>
       </c>
       <c r="E36" t="n">
-        <v>54365</v>
+        <v>55599</v>
       </c>
       <c r="F36" t="n">
-        <v>549727</v>
+        <v>570584</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>727</v>
+        <v>253</v>
       </c>
       <c r="D37" t="n">
-        <v>6606</v>
+        <v>3961</v>
       </c>
       <c r="E37" t="n">
-        <v>54091</v>
+        <v>55384</v>
       </c>
       <c r="F37" t="n">
-        <v>544332</v>
+        <v>566824</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>788</v>
+        <v>245</v>
       </c>
       <c r="D38" t="n">
-        <v>7084</v>
+        <v>4024</v>
       </c>
       <c r="E38" t="n">
-        <v>53364</v>
+        <v>55131</v>
       </c>
       <c r="F38" t="n">
-        <v>537726</v>
+        <v>562863</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1249</v>
+        <v>261</v>
       </c>
       <c r="D39" t="n">
-        <v>8932</v>
+        <v>4390</v>
       </c>
       <c r="E39" t="n">
-        <v>52576</v>
+        <v>54886</v>
       </c>
       <c r="F39" t="n">
-        <v>530642</v>
+        <v>558839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5487</v>
+        <v>260</v>
       </c>
       <c r="D40" t="n">
-        <v>9545</v>
+        <v>4722</v>
       </c>
       <c r="E40" t="n">
-        <v>51327</v>
+        <v>54625</v>
       </c>
       <c r="F40" t="n">
-        <v>521710</v>
+        <v>554449</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1292</v>
+        <v>274</v>
       </c>
       <c r="D41" t="n">
-        <v>9330</v>
+        <v>5395</v>
       </c>
       <c r="E41" t="n">
-        <v>45840</v>
+        <v>54365</v>
       </c>
       <c r="F41" t="n">
-        <v>512165</v>
+        <v>549727</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1606</v>
+        <v>727</v>
       </c>
       <c r="D42" t="n">
-        <v>11956</v>
+        <v>6606</v>
       </c>
       <c r="E42" t="n">
-        <v>44548</v>
+        <v>54091</v>
       </c>
       <c r="F42" t="n">
-        <v>502835</v>
+        <v>544332</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1661</v>
+        <v>788</v>
       </c>
       <c r="D43" t="n">
-        <v>15319</v>
+        <v>7084</v>
       </c>
       <c r="E43" t="n">
-        <v>42942</v>
+        <v>53364</v>
       </c>
       <c r="F43" t="n">
-        <v>490879</v>
+        <v>537726</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2472</v>
+        <v>1249</v>
       </c>
       <c r="D44" t="n">
-        <v>16983</v>
+        <v>8932</v>
       </c>
       <c r="E44" t="n">
-        <v>41281</v>
+        <v>52576</v>
       </c>
       <c r="F44" t="n">
-        <v>475560</v>
+        <v>530642</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1401</v>
+        <v>5487</v>
       </c>
       <c r="D45" t="n">
-        <v>19657</v>
+        <v>9545</v>
       </c>
       <c r="E45" t="n">
-        <v>38809</v>
+        <v>51327</v>
       </c>
       <c r="F45" t="n">
-        <v>458577</v>
+        <v>521710</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2736</v>
+        <v>1292</v>
       </c>
       <c r="D46" t="n">
-        <v>20634</v>
+        <v>9330</v>
       </c>
       <c r="E46" t="n">
-        <v>37408</v>
+        <v>45840</v>
       </c>
       <c r="F46" t="n">
-        <v>438920</v>
+        <v>512165</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1931</v>
+        <v>1606</v>
       </c>
       <c r="D47" t="n">
-        <v>15698</v>
+        <v>11956</v>
       </c>
       <c r="E47" t="n">
-        <v>34672</v>
+        <v>44548</v>
       </c>
       <c r="F47" t="n">
-        <v>418286</v>
+        <v>502835</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2634</v>
+        <v>1661</v>
       </c>
       <c r="D48" t="n">
-        <v>15861</v>
+        <v>15319</v>
       </c>
       <c r="E48" t="n">
-        <v>32741</v>
+        <v>42942</v>
       </c>
       <c r="F48" t="n">
-        <v>402588</v>
+        <v>490879</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2494</v>
+        <v>2472</v>
       </c>
       <c r="D49" t="n">
-        <v>16407</v>
+        <v>16983</v>
       </c>
       <c r="E49" t="n">
-        <v>30107</v>
+        <v>41281</v>
       </c>
       <c r="F49" t="n">
-        <v>386727</v>
+        <v>475560</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3084</v>
+        <v>1401</v>
       </c>
       <c r="D50" t="n">
-        <v>17332</v>
+        <v>19657</v>
       </c>
       <c r="E50" t="n">
-        <v>27613</v>
+        <v>38809</v>
       </c>
       <c r="F50" t="n">
-        <v>370320</v>
+        <v>458577</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2417</v>
+        <v>2736</v>
       </c>
       <c r="D51" t="n">
-        <v>19831</v>
+        <v>20634</v>
       </c>
       <c r="E51" t="n">
-        <v>24529</v>
+        <v>37408</v>
       </c>
       <c r="F51" t="n">
-        <v>352988</v>
+        <v>438920</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3238</v>
+        <v>1931</v>
       </c>
       <c r="D52" t="n">
-        <v>21582</v>
+        <v>15698</v>
       </c>
       <c r="E52" t="n">
-        <v>22112</v>
+        <v>34672</v>
       </c>
       <c r="F52" t="n">
-        <v>333157</v>
+        <v>418286</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3590</v>
+        <v>2634</v>
       </c>
       <c r="D53" t="n">
-        <v>19923</v>
+        <v>15861</v>
       </c>
       <c r="E53" t="n">
-        <v>18874</v>
+        <v>32741</v>
       </c>
       <c r="F53" t="n">
-        <v>311575</v>
+        <v>402588</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3200</v>
+        <v>2494</v>
       </c>
       <c r="D54" t="n">
-        <v>19872</v>
+        <v>16407</v>
       </c>
       <c r="E54" t="n">
-        <v>15284</v>
+        <v>30107</v>
       </c>
       <c r="F54" t="n">
-        <v>291652</v>
+        <v>386727</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2573</v>
+        <v>3084</v>
       </c>
       <c r="D55" t="n">
-        <v>25146</v>
+        <v>17332</v>
       </c>
       <c r="E55" t="n">
-        <v>12084</v>
+        <v>27613</v>
       </c>
       <c r="F55" t="n">
-        <v>271780</v>
+        <v>370320</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1189</v>
+        <v>2417</v>
       </c>
       <c r="D56" t="n">
-        <v>25141</v>
+        <v>19831</v>
       </c>
       <c r="E56" t="n">
-        <v>9511</v>
+        <v>24529</v>
       </c>
       <c r="F56" t="n">
-        <v>246634</v>
+        <v>352988</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>994</v>
+        <v>3238</v>
       </c>
       <c r="D57" t="n">
-        <v>22348</v>
+        <v>21582</v>
       </c>
       <c r="E57" t="n">
-        <v>8322</v>
+        <v>22112</v>
       </c>
       <c r="F57" t="n">
-        <v>221493</v>
+        <v>333157</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>914</v>
+        <v>3590</v>
       </c>
       <c r="D58" t="n">
-        <v>25173</v>
+        <v>19923</v>
       </c>
       <c r="E58" t="n">
-        <v>7328</v>
+        <v>18874</v>
       </c>
       <c r="F58" t="n">
-        <v>199145</v>
+        <v>311575</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1006</v>
+        <v>3200</v>
       </c>
       <c r="D59" t="n">
-        <v>23937</v>
+        <v>19872</v>
       </c>
       <c r="E59" t="n">
-        <v>6414</v>
+        <v>15284</v>
       </c>
       <c r="F59" t="n">
-        <v>173972</v>
+        <v>291652</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1015</v>
+        <v>2573</v>
       </c>
       <c r="D60" t="n">
-        <v>22609</v>
+        <v>25146</v>
       </c>
       <c r="E60" t="n">
-        <v>5408</v>
+        <v>12084</v>
       </c>
       <c r="F60" t="n">
-        <v>150035</v>
+        <v>271780</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>824</v>
+        <v>1189</v>
       </c>
       <c r="D61" t="n">
-        <v>20398</v>
+        <v>25141</v>
       </c>
       <c r="E61" t="n">
-        <v>4393</v>
+        <v>9511</v>
       </c>
       <c r="F61" t="n">
-        <v>127426</v>
+        <v>246634</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>322</v>
+        <v>994</v>
       </c>
       <c r="D62" t="n">
-        <v>19660</v>
+        <v>22348</v>
       </c>
       <c r="E62" t="n">
-        <v>3569</v>
+        <v>8322</v>
       </c>
       <c r="F62" t="n">
-        <v>107028</v>
+        <v>221493</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>311</v>
+        <v>914</v>
       </c>
       <c r="D63" t="n">
-        <v>16766</v>
+        <v>25173</v>
       </c>
       <c r="E63" t="n">
-        <v>3247</v>
+        <v>7328</v>
       </c>
       <c r="F63" t="n">
-        <v>87368</v>
+        <v>199145</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>268</v>
+        <v>1006</v>
       </c>
       <c r="D64" t="n">
-        <v>13086</v>
+        <v>23937</v>
       </c>
       <c r="E64" t="n">
-        <v>2936</v>
+        <v>6414</v>
       </c>
       <c r="F64" t="n">
-        <v>70602</v>
+        <v>173972</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>425</v>
+        <v>1015</v>
       </c>
       <c r="D65" t="n">
-        <v>8581</v>
+        <v>22609</v>
       </c>
       <c r="E65" t="n">
-        <v>2668</v>
+        <v>5408</v>
       </c>
       <c r="F65" t="n">
-        <v>57516</v>
+        <v>150035</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>438</v>
+        <v>824</v>
       </c>
       <c r="D66" t="n">
-        <v>7788</v>
+        <v>20398</v>
       </c>
       <c r="E66" t="n">
-        <v>2243</v>
+        <v>4393</v>
       </c>
       <c r="F66" t="n">
-        <v>48935</v>
+        <v>127426</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D67" t="n">
-        <v>6051</v>
+        <v>19660</v>
       </c>
       <c r="E67" t="n">
-        <v>1805</v>
+        <v>3569</v>
       </c>
       <c r="F67" t="n">
-        <v>41147</v>
+        <v>107028</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D68" t="n">
-        <v>4144</v>
+        <v>16766</v>
       </c>
       <c r="E68" t="n">
-        <v>1545</v>
+        <v>3247</v>
       </c>
       <c r="F68" t="n">
-        <v>35096</v>
+        <v>87368</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="D69" t="n">
-        <v>5298</v>
+        <v>13086</v>
       </c>
       <c r="E69" t="n">
-        <v>1187</v>
+        <v>2936</v>
       </c>
       <c r="F69" t="n">
-        <v>30952</v>
+        <v>70602</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="D70" t="n">
-        <v>5656</v>
+        <v>8581</v>
       </c>
       <c r="E70" t="n">
-        <v>832</v>
+        <v>2668</v>
       </c>
       <c r="F70" t="n">
-        <v>25654</v>
+        <v>57516</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="D71" t="n">
-        <v>4381</v>
+        <v>7788</v>
       </c>
       <c r="E71" t="n">
-        <v>506</v>
+        <v>2243</v>
       </c>
       <c r="F71" t="n">
-        <v>19998</v>
+        <v>48935</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="D72" t="n">
-        <v>3450</v>
+        <v>6051</v>
       </c>
       <c r="E72" t="n">
-        <v>410</v>
+        <v>1805</v>
       </c>
       <c r="F72" t="n">
-        <v>15617</v>
+        <v>41147</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="D73" t="n">
-        <v>2631</v>
+        <v>4144</v>
       </c>
       <c r="E73" t="n">
-        <v>360</v>
+        <v>1545</v>
       </c>
       <c r="F73" t="n">
-        <v>12167</v>
+        <v>35096</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="D74" t="n">
-        <v>2231</v>
+        <v>5298</v>
       </c>
       <c r="E74" t="n">
-        <v>315</v>
+        <v>1187</v>
       </c>
       <c r="F74" t="n">
-        <v>9536</v>
+        <v>30952</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="D75" t="n">
-        <v>1580</v>
+        <v>5656</v>
       </c>
       <c r="E75" t="n">
-        <v>277</v>
+        <v>832</v>
       </c>
       <c r="F75" t="n">
-        <v>7305</v>
+        <v>25654</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D76" t="n">
-        <v>979</v>
+        <v>4381</v>
       </c>
       <c r="E76" t="n">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="F76" t="n">
-        <v>5725</v>
+        <v>19998</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>977</v>
+        <v>3450</v>
       </c>
       <c r="E77" t="n">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="F77" t="n">
-        <v>4746</v>
+        <v>15617</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>865</v>
+        <v>2631</v>
       </c>
       <c r="E78" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F78" t="n">
-        <v>3769</v>
+        <v>12167</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D79" t="n">
-        <v>734</v>
+        <v>2231</v>
       </c>
       <c r="E79" t="n">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="F79" t="n">
-        <v>2904</v>
+        <v>9536</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
-        <v>492</v>
+        <v>1580</v>
       </c>
       <c r="E80" t="n">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="F80" t="n">
-        <v>2170</v>
+        <v>7305</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>366</v>
+        <v>979</v>
       </c>
       <c r="E81" t="n">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="F81" t="n">
-        <v>1678</v>
+        <v>5725</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>203</v>
+        <v>977</v>
       </c>
       <c r="E82" t="n">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="F82" t="n">
-        <v>1312</v>
+        <v>4746</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
-        <v>150</v>
+        <v>865</v>
       </c>
       <c r="E83" t="n">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="F83" t="n">
-        <v>1109</v>
+        <v>3769</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D84" t="n">
-        <v>197</v>
+        <v>734</v>
       </c>
       <c r="E84" t="n">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="F84" t="n">
-        <v>959</v>
+        <v>2904</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>130</v>
+        <v>492</v>
       </c>
       <c r="E85" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F85" t="n">
-        <v>762</v>
+        <v>2170</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="E86" t="n">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="F86" t="n">
-        <v>632</v>
+        <v>1678</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D87" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F87" t="n">
-        <v>504</v>
+        <v>1312</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="E88" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F88" t="n">
-        <v>440</v>
+        <v>1109</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E89" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F89" t="n">
-        <v>362</v>
+        <v>959</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E90" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F90" t="n">
-        <v>298</v>
+        <v>762</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E91" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F91" t="n">
-        <v>222</v>
+        <v>632</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>504</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F93" t="n">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F94" t="n">
-        <v>64</v>
+        <v>362</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,22 +2871,147 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>2022-03-06</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>45</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12</v>
+      </c>
+      <c r="F98" t="n">
+        <v>109</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>64</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>36</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D103" t="n">
         <v>1</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E103" t="n">
         <v>1</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F103" t="n">
         <v>1</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>58052</v>
+        <v>58089</v>
       </c>
       <c r="F2" t="n">
-        <v>591423</v>
+        <v>591484</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>58045</v>
+        <v>58076</v>
       </c>
       <c r="F3" t="n">
-        <v>591414</v>
+        <v>591482</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>58039</v>
+        <v>58073</v>
       </c>
       <c r="F4" t="n">
-        <v>591409</v>
+        <v>591468</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>58035</v>
+        <v>58062</v>
       </c>
       <c r="F5" t="n">
-        <v>591404</v>
+        <v>591442</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>58031</v>
+        <v>58052</v>
       </c>
       <c r="F6" t="n">
-        <v>591393</v>
+        <v>591423</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>58028</v>
+        <v>58045</v>
       </c>
       <c r="F7" t="n">
-        <v>591386</v>
+        <v>591414</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>58024</v>
+        <v>58039</v>
       </c>
       <c r="F8" t="n">
-        <v>591382</v>
+        <v>591409</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>58018</v>
+        <v>58035</v>
       </c>
       <c r="F9" t="n">
-        <v>591366</v>
+        <v>591404</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>58013</v>
+        <v>58031</v>
       </c>
       <c r="F10" t="n">
-        <v>591357</v>
+        <v>591393</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>58005</v>
+        <v>58028</v>
       </c>
       <c r="F11" t="n">
-        <v>591349</v>
+        <v>591386</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>58000</v>
+        <v>58024</v>
       </c>
       <c r="F12" t="n">
-        <v>591341</v>
+        <v>591382</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
-        <v>22</v>
-      </c>
       <c r="E13" t="n">
-        <v>57995</v>
+        <v>58018</v>
       </c>
       <c r="F13" t="n">
-        <v>591331</v>
+        <v>591366</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>57986</v>
+        <v>58013</v>
       </c>
       <c r="F14" t="n">
-        <v>591309</v>
+        <v>591357</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>57980</v>
+        <v>58005</v>
       </c>
       <c r="F15" t="n">
-        <v>591248</v>
+        <v>591349</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>57951</v>
+        <v>58000</v>
       </c>
       <c r="F16" t="n">
-        <v>591155</v>
+        <v>591341</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>57912</v>
+        <v>57995</v>
       </c>
       <c r="F17" t="n">
-        <v>591024</v>
+        <v>591331</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
-        <v>57867</v>
+        <v>57986</v>
       </c>
       <c r="F18" t="n">
-        <v>590805</v>
+        <v>591309</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="E19" t="n">
-        <v>57819</v>
+        <v>57980</v>
       </c>
       <c r="F19" t="n">
-        <v>590515</v>
+        <v>591248</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="E20" t="n">
-        <v>57775</v>
+        <v>57951</v>
       </c>
       <c r="F20" t="n">
-        <v>590172</v>
+        <v>591155</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="E21" t="n">
-        <v>57717</v>
+        <v>57912</v>
       </c>
       <c r="F21" t="n">
-        <v>589750</v>
+        <v>591024</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="E22" t="n">
-        <v>57662</v>
+        <v>57867</v>
       </c>
       <c r="F22" t="n">
-        <v>589247</v>
+        <v>590805</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>784</v>
+        <v>343</v>
       </c>
       <c r="E23" t="n">
-        <v>57610</v>
+        <v>57819</v>
       </c>
       <c r="F23" t="n">
-        <v>588677</v>
+        <v>590515</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>770</v>
+        <v>422</v>
       </c>
       <c r="E24" t="n">
-        <v>57526</v>
+        <v>57775</v>
       </c>
       <c r="F24" t="n">
-        <v>587893</v>
+        <v>590172</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="E25" t="n">
-        <v>57438</v>
+        <v>57717</v>
       </c>
       <c r="F25" t="n">
-        <v>587123</v>
+        <v>589750</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D26" t="n">
-        <v>759</v>
+        <v>570</v>
       </c>
       <c r="E26" t="n">
-        <v>57356</v>
+        <v>57662</v>
       </c>
       <c r="F26" t="n">
-        <v>586486</v>
+        <v>589247</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="E27" t="n">
-        <v>57260</v>
+        <v>57610</v>
       </c>
       <c r="F27" t="n">
-        <v>585727</v>
+        <v>588677</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D28" t="n">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="E28" t="n">
-        <v>57183</v>
+        <v>57526</v>
       </c>
       <c r="F28" t="n">
-        <v>584981</v>
+        <v>587893</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D29" t="n">
-        <v>1203</v>
+        <v>637</v>
       </c>
       <c r="E29" t="n">
-        <v>57114</v>
+        <v>57438</v>
       </c>
       <c r="F29" t="n">
-        <v>584112</v>
+        <v>587123</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="D30" t="n">
-        <v>1487</v>
+        <v>759</v>
       </c>
       <c r="E30" t="n">
-        <v>56948</v>
+        <v>57356</v>
       </c>
       <c r="F30" t="n">
-        <v>582909</v>
+        <v>586486</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="D31" t="n">
-        <v>1869</v>
+        <v>746</v>
       </c>
       <c r="E31" t="n">
-        <v>56754</v>
+        <v>57260</v>
       </c>
       <c r="F31" t="n">
-        <v>581422</v>
+        <v>585727</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D32" t="n">
-        <v>1305</v>
+        <v>869</v>
       </c>
       <c r="E32" t="n">
-        <v>56527</v>
+        <v>57183</v>
       </c>
       <c r="F32" t="n">
-        <v>579553</v>
+        <v>584981</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="D33" t="n">
-        <v>1259</v>
+        <v>1203</v>
       </c>
       <c r="E33" t="n">
-        <v>56383</v>
+        <v>57114</v>
       </c>
       <c r="F33" t="n">
-        <v>578248</v>
+        <v>584112</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D34" t="n">
-        <v>2780</v>
+        <v>1487</v>
       </c>
       <c r="E34" t="n">
-        <v>56155</v>
+        <v>56948</v>
       </c>
       <c r="F34" t="n">
-        <v>576989</v>
+        <v>582909</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="D35" t="n">
-        <v>3625</v>
+        <v>1869</v>
       </c>
       <c r="E35" t="n">
-        <v>55921</v>
+        <v>56754</v>
       </c>
       <c r="F35" t="n">
-        <v>574209</v>
+        <v>581422</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D36" t="n">
-        <v>3760</v>
+        <v>1305</v>
       </c>
       <c r="E36" t="n">
-        <v>55599</v>
+        <v>56527</v>
       </c>
       <c r="F36" t="n">
-        <v>570584</v>
+        <v>579553</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D37" t="n">
-        <v>3961</v>
+        <v>1259</v>
       </c>
       <c r="E37" t="n">
-        <v>55384</v>
+        <v>56383</v>
       </c>
       <c r="F37" t="n">
-        <v>566824</v>
+        <v>578248</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D38" t="n">
-        <v>4024</v>
+        <v>2780</v>
       </c>
       <c r="E38" t="n">
-        <v>55131</v>
+        <v>56155</v>
       </c>
       <c r="F38" t="n">
-        <v>562863</v>
+        <v>576989</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="D39" t="n">
-        <v>4390</v>
+        <v>3625</v>
       </c>
       <c r="E39" t="n">
-        <v>54886</v>
+        <v>55921</v>
       </c>
       <c r="F39" t="n">
-        <v>558839</v>
+        <v>574209</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D40" t="n">
-        <v>4722</v>
+        <v>3760</v>
       </c>
       <c r="E40" t="n">
-        <v>54625</v>
+        <v>55599</v>
       </c>
       <c r="F40" t="n">
-        <v>554449</v>
+        <v>570584</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D41" t="n">
-        <v>5395</v>
+        <v>3961</v>
       </c>
       <c r="E41" t="n">
-        <v>54365</v>
+        <v>55384</v>
       </c>
       <c r="F41" t="n">
-        <v>549727</v>
+        <v>566824</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>727</v>
+        <v>245</v>
       </c>
       <c r="D42" t="n">
-        <v>6606</v>
+        <v>4024</v>
       </c>
       <c r="E42" t="n">
-        <v>54091</v>
+        <v>55131</v>
       </c>
       <c r="F42" t="n">
-        <v>544332</v>
+        <v>562863</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>788</v>
+        <v>261</v>
       </c>
       <c r="D43" t="n">
-        <v>7084</v>
+        <v>4390</v>
       </c>
       <c r="E43" t="n">
-        <v>53364</v>
+        <v>54886</v>
       </c>
       <c r="F43" t="n">
-        <v>537726</v>
+        <v>558839</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1249</v>
+        <v>260</v>
       </c>
       <c r="D44" t="n">
-        <v>8932</v>
+        <v>4722</v>
       </c>
       <c r="E44" t="n">
-        <v>52576</v>
+        <v>54625</v>
       </c>
       <c r="F44" t="n">
-        <v>530642</v>
+        <v>554449</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5487</v>
+        <v>274</v>
       </c>
       <c r="D45" t="n">
-        <v>9545</v>
+        <v>5395</v>
       </c>
       <c r="E45" t="n">
-        <v>51327</v>
+        <v>54365</v>
       </c>
       <c r="F45" t="n">
-        <v>521710</v>
+        <v>549727</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1292</v>
+        <v>727</v>
       </c>
       <c r="D46" t="n">
-        <v>9330</v>
+        <v>6606</v>
       </c>
       <c r="E46" t="n">
-        <v>45840</v>
+        <v>54091</v>
       </c>
       <c r="F46" t="n">
-        <v>512165</v>
+        <v>544332</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1606</v>
+        <v>788</v>
       </c>
       <c r="D47" t="n">
-        <v>11956</v>
+        <v>7084</v>
       </c>
       <c r="E47" t="n">
-        <v>44548</v>
+        <v>53364</v>
       </c>
       <c r="F47" t="n">
-        <v>502835</v>
+        <v>537726</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1661</v>
+        <v>1249</v>
       </c>
       <c r="D48" t="n">
-        <v>15319</v>
+        <v>8932</v>
       </c>
       <c r="E48" t="n">
-        <v>42942</v>
+        <v>52576</v>
       </c>
       <c r="F48" t="n">
-        <v>490879</v>
+        <v>530642</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2472</v>
+        <v>5487</v>
       </c>
       <c r="D49" t="n">
-        <v>16983</v>
+        <v>9545</v>
       </c>
       <c r="E49" t="n">
-        <v>41281</v>
+        <v>51327</v>
       </c>
       <c r="F49" t="n">
-        <v>475560</v>
+        <v>521710</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1401</v>
+        <v>1292</v>
       </c>
       <c r="D50" t="n">
-        <v>19657</v>
+        <v>9330</v>
       </c>
       <c r="E50" t="n">
-        <v>38809</v>
+        <v>45840</v>
       </c>
       <c r="F50" t="n">
-        <v>458577</v>
+        <v>512165</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2736</v>
+        <v>1606</v>
       </c>
       <c r="D51" t="n">
-        <v>20634</v>
+        <v>11956</v>
       </c>
       <c r="E51" t="n">
-        <v>37408</v>
+        <v>44548</v>
       </c>
       <c r="F51" t="n">
-        <v>438920</v>
+        <v>502835</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1931</v>
+        <v>1661</v>
       </c>
       <c r="D52" t="n">
-        <v>15698</v>
+        <v>15319</v>
       </c>
       <c r="E52" t="n">
-        <v>34672</v>
+        <v>42942</v>
       </c>
       <c r="F52" t="n">
-        <v>418286</v>
+        <v>490879</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2634</v>
+        <v>2472</v>
       </c>
       <c r="D53" t="n">
-        <v>15861</v>
+        <v>16983</v>
       </c>
       <c r="E53" t="n">
-        <v>32741</v>
+        <v>41281</v>
       </c>
       <c r="F53" t="n">
-        <v>402588</v>
+        <v>475560</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2494</v>
+        <v>1401</v>
       </c>
       <c r="D54" t="n">
-        <v>16407</v>
+        <v>19657</v>
       </c>
       <c r="E54" t="n">
-        <v>30107</v>
+        <v>38809</v>
       </c>
       <c r="F54" t="n">
-        <v>386727</v>
+        <v>458577</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3084</v>
+        <v>2736</v>
       </c>
       <c r="D55" t="n">
-        <v>17332</v>
+        <v>20634</v>
       </c>
       <c r="E55" t="n">
-        <v>27613</v>
+        <v>37408</v>
       </c>
       <c r="F55" t="n">
-        <v>370320</v>
+        <v>438920</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2417</v>
+        <v>1931</v>
       </c>
       <c r="D56" t="n">
-        <v>19831</v>
+        <v>15698</v>
       </c>
       <c r="E56" t="n">
-        <v>24529</v>
+        <v>34672</v>
       </c>
       <c r="F56" t="n">
-        <v>352988</v>
+        <v>418286</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3238</v>
+        <v>2634</v>
       </c>
       <c r="D57" t="n">
-        <v>21582</v>
+        <v>15861</v>
       </c>
       <c r="E57" t="n">
-        <v>22112</v>
+        <v>32741</v>
       </c>
       <c r="F57" t="n">
-        <v>333157</v>
+        <v>402588</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3590</v>
+        <v>2494</v>
       </c>
       <c r="D58" t="n">
-        <v>19923</v>
+        <v>16407</v>
       </c>
       <c r="E58" t="n">
-        <v>18874</v>
+        <v>30107</v>
       </c>
       <c r="F58" t="n">
-        <v>311575</v>
+        <v>386727</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3200</v>
+        <v>3084</v>
       </c>
       <c r="D59" t="n">
-        <v>19872</v>
+        <v>17332</v>
       </c>
       <c r="E59" t="n">
-        <v>15284</v>
+        <v>27613</v>
       </c>
       <c r="F59" t="n">
-        <v>291652</v>
+        <v>370320</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2573</v>
+        <v>2417</v>
       </c>
       <c r="D60" t="n">
-        <v>25146</v>
+        <v>19831</v>
       </c>
       <c r="E60" t="n">
-        <v>12084</v>
+        <v>24529</v>
       </c>
       <c r="F60" t="n">
-        <v>271780</v>
+        <v>352988</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1189</v>
+        <v>3238</v>
       </c>
       <c r="D61" t="n">
-        <v>25141</v>
+        <v>21582</v>
       </c>
       <c r="E61" t="n">
-        <v>9511</v>
+        <v>22112</v>
       </c>
       <c r="F61" t="n">
-        <v>246634</v>
+        <v>333157</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>994</v>
+        <v>3590</v>
       </c>
       <c r="D62" t="n">
-        <v>22348</v>
+        <v>19923</v>
       </c>
       <c r="E62" t="n">
-        <v>8322</v>
+        <v>18874</v>
       </c>
       <c r="F62" t="n">
-        <v>221493</v>
+        <v>311575</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>914</v>
+        <v>3200</v>
       </c>
       <c r="D63" t="n">
-        <v>25173</v>
+        <v>19872</v>
       </c>
       <c r="E63" t="n">
-        <v>7328</v>
+        <v>15284</v>
       </c>
       <c r="F63" t="n">
-        <v>199145</v>
+        <v>291652</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1006</v>
+        <v>2573</v>
       </c>
       <c r="D64" t="n">
-        <v>23937</v>
+        <v>25146</v>
       </c>
       <c r="E64" t="n">
-        <v>6414</v>
+        <v>12084</v>
       </c>
       <c r="F64" t="n">
-        <v>173972</v>
+        <v>271780</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1015</v>
+        <v>1189</v>
       </c>
       <c r="D65" t="n">
-        <v>22609</v>
+        <v>25141</v>
       </c>
       <c r="E65" t="n">
-        <v>5408</v>
+        <v>9511</v>
       </c>
       <c r="F65" t="n">
-        <v>150035</v>
+        <v>246634</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>824</v>
+        <v>994</v>
       </c>
       <c r="D66" t="n">
-        <v>20398</v>
+        <v>22348</v>
       </c>
       <c r="E66" t="n">
-        <v>4393</v>
+        <v>8322</v>
       </c>
       <c r="F66" t="n">
-        <v>127426</v>
+        <v>221493</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>322</v>
+        <v>914</v>
       </c>
       <c r="D67" t="n">
-        <v>19660</v>
+        <v>25173</v>
       </c>
       <c r="E67" t="n">
-        <v>3569</v>
+        <v>7328</v>
       </c>
       <c r="F67" t="n">
-        <v>107028</v>
+        <v>199145</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>311</v>
+        <v>1006</v>
       </c>
       <c r="D68" t="n">
-        <v>16766</v>
+        <v>23937</v>
       </c>
       <c r="E68" t="n">
-        <v>3247</v>
+        <v>6414</v>
       </c>
       <c r="F68" t="n">
-        <v>87368</v>
+        <v>173972</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>268</v>
+        <v>1015</v>
       </c>
       <c r="D69" t="n">
-        <v>13086</v>
+        <v>22609</v>
       </c>
       <c r="E69" t="n">
-        <v>2936</v>
+        <v>5408</v>
       </c>
       <c r="F69" t="n">
-        <v>70602</v>
+        <v>150035</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>425</v>
+        <v>824</v>
       </c>
       <c r="D70" t="n">
-        <v>8581</v>
+        <v>20398</v>
       </c>
       <c r="E70" t="n">
-        <v>2668</v>
+        <v>4393</v>
       </c>
       <c r="F70" t="n">
-        <v>57516</v>
+        <v>127426</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>438</v>
+        <v>322</v>
       </c>
       <c r="D71" t="n">
-        <v>7788</v>
+        <v>19660</v>
       </c>
       <c r="E71" t="n">
-        <v>2243</v>
+        <v>3569</v>
       </c>
       <c r="F71" t="n">
-        <v>48935</v>
+        <v>107028</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D72" t="n">
-        <v>6051</v>
+        <v>16766</v>
       </c>
       <c r="E72" t="n">
-        <v>1805</v>
+        <v>3247</v>
       </c>
       <c r="F72" t="n">
-        <v>41147</v>
+        <v>87368</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="D73" t="n">
-        <v>4144</v>
+        <v>13086</v>
       </c>
       <c r="E73" t="n">
-        <v>1545</v>
+        <v>2936</v>
       </c>
       <c r="F73" t="n">
-        <v>35096</v>
+        <v>70602</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D74" t="n">
-        <v>5298</v>
+        <v>8581</v>
       </c>
       <c r="E74" t="n">
-        <v>1187</v>
+        <v>2668</v>
       </c>
       <c r="F74" t="n">
-        <v>30952</v>
+        <v>57516</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="D75" t="n">
-        <v>5656</v>
+        <v>7788</v>
       </c>
       <c r="E75" t="n">
-        <v>832</v>
+        <v>2243</v>
       </c>
       <c r="F75" t="n">
-        <v>25654</v>
+        <v>48935</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D76" t="n">
-        <v>4381</v>
+        <v>6051</v>
       </c>
       <c r="E76" t="n">
-        <v>506</v>
+        <v>1805</v>
       </c>
       <c r="F76" t="n">
-        <v>19998</v>
+        <v>41147</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="D77" t="n">
-        <v>3450</v>
+        <v>4144</v>
       </c>
       <c r="E77" t="n">
-        <v>410</v>
+        <v>1545</v>
       </c>
       <c r="F77" t="n">
-        <v>15617</v>
+        <v>35096</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="D78" t="n">
-        <v>2631</v>
+        <v>5298</v>
       </c>
       <c r="E78" t="n">
-        <v>360</v>
+        <v>1187</v>
       </c>
       <c r="F78" t="n">
-        <v>12167</v>
+        <v>30952</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="D79" t="n">
-        <v>2231</v>
+        <v>5656</v>
       </c>
       <c r="E79" t="n">
-        <v>315</v>
+        <v>832</v>
       </c>
       <c r="F79" t="n">
-        <v>9536</v>
+        <v>25654</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D80" t="n">
-        <v>1580</v>
+        <v>4381</v>
       </c>
       <c r="E80" t="n">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="F80" t="n">
-        <v>7305</v>
+        <v>19998</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D81" t="n">
-        <v>979</v>
+        <v>3450</v>
       </c>
       <c r="E81" t="n">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="F81" t="n">
-        <v>5725</v>
+        <v>15617</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>977</v>
+        <v>2631</v>
       </c>
       <c r="E82" t="n">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="F82" t="n">
-        <v>4746</v>
+        <v>12167</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>865</v>
+        <v>2231</v>
       </c>
       <c r="E83" t="n">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="F83" t="n">
-        <v>3769</v>
+        <v>9536</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>734</v>
+        <v>1580</v>
       </c>
       <c r="E84" t="n">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="F84" t="n">
-        <v>2904</v>
+        <v>7305</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>492</v>
+        <v>979</v>
       </c>
       <c r="E85" t="n">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F85" t="n">
-        <v>2170</v>
+        <v>5725</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>366</v>
+        <v>977</v>
       </c>
       <c r="E86" t="n">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F86" t="n">
-        <v>1678</v>
+        <v>4746</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
-        <v>203</v>
+        <v>865</v>
       </c>
       <c r="E87" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F87" t="n">
-        <v>1312</v>
+        <v>3769</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="E88" t="n">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="F88" t="n">
-        <v>1109</v>
+        <v>2904</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="E89" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="F89" t="n">
-        <v>959</v>
+        <v>2170</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="E90" t="n">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F90" t="n">
-        <v>762</v>
+        <v>1678</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E91" t="n">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F91" t="n">
-        <v>632</v>
+        <v>1312</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E92" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F92" t="n">
-        <v>504</v>
+        <v>1109</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="E93" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F93" t="n">
-        <v>440</v>
+        <v>959</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F94" t="n">
-        <v>362</v>
+        <v>762</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D95" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E95" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F95" t="n">
-        <v>298</v>
+        <v>632</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E96" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F96" t="n">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F97" t="n">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F98" t="n">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F99" t="n">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,22 +2996,122 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>28</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>64</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>16</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>36</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>14</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D107" t="n">
         <v>1</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E107" t="n">
         <v>1</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F107" t="n">
         <v>1</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G107" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>58089</v>
+        <v>58101</v>
       </c>
       <c r="F2" t="n">
-        <v>591484</v>
+        <v>591499</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>58076</v>
+        <v>58100</v>
       </c>
       <c r="F3" t="n">
-        <v>591482</v>
+        <v>591493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>58073</v>
+        <v>58098</v>
       </c>
       <c r="F4" t="n">
-        <v>591468</v>
+        <v>591491</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>58062</v>
+        <v>58089</v>
       </c>
       <c r="F5" t="n">
-        <v>591442</v>
+        <v>591484</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>58052</v>
+        <v>58076</v>
       </c>
       <c r="F6" t="n">
-        <v>591423</v>
+        <v>591482</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>58045</v>
+        <v>58073</v>
       </c>
       <c r="F7" t="n">
-        <v>591414</v>
+        <v>591468</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>58039</v>
+        <v>58062</v>
       </c>
       <c r="F8" t="n">
-        <v>591409</v>
+        <v>591442</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>58035</v>
+        <v>58052</v>
       </c>
       <c r="F9" t="n">
-        <v>591404</v>
+        <v>591423</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>58031</v>
+        <v>58045</v>
       </c>
       <c r="F10" t="n">
-        <v>591393</v>
+        <v>591414</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>58028</v>
+        <v>58039</v>
       </c>
       <c r="F11" t="n">
-        <v>591386</v>
+        <v>591409</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>58024</v>
+        <v>58035</v>
       </c>
       <c r="F12" t="n">
-        <v>591382</v>
+        <v>591404</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>58018</v>
+        <v>58031</v>
       </c>
       <c r="F13" t="n">
-        <v>591366</v>
+        <v>591393</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>58013</v>
+        <v>58028</v>
       </c>
       <c r="F14" t="n">
-        <v>591357</v>
+        <v>591386</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>58005</v>
+        <v>58024</v>
       </c>
       <c r="F15" t="n">
-        <v>591349</v>
+        <v>591382</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>58000</v>
+        <v>58018</v>
       </c>
       <c r="F16" t="n">
-        <v>591341</v>
+        <v>591366</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>57995</v>
+        <v>58013</v>
       </c>
       <c r="F17" t="n">
-        <v>591331</v>
+        <v>591357</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>57986</v>
+        <v>58005</v>
       </c>
       <c r="F18" t="n">
-        <v>591309</v>
+        <v>591349</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>57980</v>
+        <v>58000</v>
       </c>
       <c r="F19" t="n">
-        <v>591248</v>
+        <v>591341</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>57951</v>
+        <v>57995</v>
       </c>
       <c r="F20" t="n">
-        <v>591155</v>
+        <v>591331</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>57912</v>
+        <v>57986</v>
       </c>
       <c r="F21" t="n">
-        <v>591024</v>
+        <v>591309</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="E22" t="n">
-        <v>57867</v>
+        <v>57980</v>
       </c>
       <c r="F22" t="n">
-        <v>590805</v>
+        <v>591248</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="E23" t="n">
-        <v>57819</v>
+        <v>57951</v>
       </c>
       <c r="F23" t="n">
-        <v>590515</v>
+        <v>591155</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="E24" t="n">
-        <v>57775</v>
+        <v>57912</v>
       </c>
       <c r="F24" t="n">
-        <v>590172</v>
+        <v>591024</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="E25" t="n">
-        <v>57717</v>
+        <v>57867</v>
       </c>
       <c r="F25" t="n">
-        <v>589750</v>
+        <v>590805</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>570</v>
+        <v>343</v>
       </c>
       <c r="E26" t="n">
-        <v>57662</v>
+        <v>57819</v>
       </c>
       <c r="F26" t="n">
-        <v>589247</v>
+        <v>590515</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>784</v>
+        <v>422</v>
       </c>
       <c r="E27" t="n">
-        <v>57610</v>
+        <v>57775</v>
       </c>
       <c r="F27" t="n">
-        <v>588677</v>
+        <v>590172</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>770</v>
+        <v>503</v>
       </c>
       <c r="E28" t="n">
-        <v>57526</v>
+        <v>57717</v>
       </c>
       <c r="F28" t="n">
-        <v>587893</v>
+        <v>589750</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="E29" t="n">
-        <v>57438</v>
+        <v>57662</v>
       </c>
       <c r="F29" t="n">
-        <v>587123</v>
+        <v>589247</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="E30" t="n">
-        <v>57356</v>
+        <v>57610</v>
       </c>
       <c r="F30" t="n">
-        <v>586486</v>
+        <v>588677</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D31" t="n">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E31" t="n">
-        <v>57260</v>
+        <v>57526</v>
       </c>
       <c r="F31" t="n">
-        <v>585727</v>
+        <v>587893</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D32" t="n">
-        <v>869</v>
+        <v>637</v>
       </c>
       <c r="E32" t="n">
-        <v>57183</v>
+        <v>57438</v>
       </c>
       <c r="F32" t="n">
-        <v>584981</v>
+        <v>587123</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D33" t="n">
-        <v>1203</v>
+        <v>759</v>
       </c>
       <c r="E33" t="n">
-        <v>57114</v>
+        <v>57356</v>
       </c>
       <c r="F33" t="n">
-        <v>584112</v>
+        <v>586486</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D34" t="n">
-        <v>1487</v>
+        <v>746</v>
       </c>
       <c r="E34" t="n">
-        <v>56948</v>
+        <v>57260</v>
       </c>
       <c r="F34" t="n">
-        <v>582909</v>
+        <v>585727</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D35" t="n">
-        <v>1869</v>
+        <v>869</v>
       </c>
       <c r="E35" t="n">
-        <v>56754</v>
+        <v>57183</v>
       </c>
       <c r="F35" t="n">
-        <v>581422</v>
+        <v>584981</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D36" t="n">
-        <v>1305</v>
+        <v>1203</v>
       </c>
       <c r="E36" t="n">
-        <v>56527</v>
+        <v>57114</v>
       </c>
       <c r="F36" t="n">
-        <v>579553</v>
+        <v>584112</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D37" t="n">
-        <v>1259</v>
+        <v>1487</v>
       </c>
       <c r="E37" t="n">
-        <v>56383</v>
+        <v>56948</v>
       </c>
       <c r="F37" t="n">
-        <v>578248</v>
+        <v>582909</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D38" t="n">
-        <v>2780</v>
+        <v>1869</v>
       </c>
       <c r="E38" t="n">
-        <v>56155</v>
+        <v>56754</v>
       </c>
       <c r="F38" t="n">
-        <v>576989</v>
+        <v>581422</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="D39" t="n">
-        <v>3625</v>
+        <v>1305</v>
       </c>
       <c r="E39" t="n">
-        <v>55921</v>
+        <v>56527</v>
       </c>
       <c r="F39" t="n">
-        <v>574209</v>
+        <v>579553</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D40" t="n">
-        <v>3760</v>
+        <v>1259</v>
       </c>
       <c r="E40" t="n">
-        <v>55599</v>
+        <v>56383</v>
       </c>
       <c r="F40" t="n">
-        <v>570584</v>
+        <v>578248</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D41" t="n">
-        <v>3961</v>
+        <v>2780</v>
       </c>
       <c r="E41" t="n">
-        <v>55384</v>
+        <v>56155</v>
       </c>
       <c r="F41" t="n">
-        <v>566824</v>
+        <v>576989</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="D42" t="n">
-        <v>4024</v>
+        <v>3625</v>
       </c>
       <c r="E42" t="n">
-        <v>55131</v>
+        <v>55921</v>
       </c>
       <c r="F42" t="n">
-        <v>562863</v>
+        <v>574209</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D43" t="n">
-        <v>4390</v>
+        <v>3760</v>
       </c>
       <c r="E43" t="n">
-        <v>54886</v>
+        <v>55599</v>
       </c>
       <c r="F43" t="n">
-        <v>558839</v>
+        <v>570584</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D44" t="n">
-        <v>4722</v>
+        <v>3961</v>
       </c>
       <c r="E44" t="n">
-        <v>54625</v>
+        <v>55384</v>
       </c>
       <c r="F44" t="n">
-        <v>554449</v>
+        <v>566824</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D45" t="n">
-        <v>5395</v>
+        <v>4024</v>
       </c>
       <c r="E45" t="n">
-        <v>54365</v>
+        <v>55131</v>
       </c>
       <c r="F45" t="n">
-        <v>549727</v>
+        <v>562863</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>727</v>
+        <v>261</v>
       </c>
       <c r="D46" t="n">
-        <v>6606</v>
+        <v>4390</v>
       </c>
       <c r="E46" t="n">
-        <v>54091</v>
+        <v>54886</v>
       </c>
       <c r="F46" t="n">
-        <v>544332</v>
+        <v>558839</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>788</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
-        <v>7084</v>
+        <v>4722</v>
       </c>
       <c r="E47" t="n">
-        <v>53364</v>
+        <v>54625</v>
       </c>
       <c r="F47" t="n">
-        <v>537726</v>
+        <v>554449</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1249</v>
+        <v>274</v>
       </c>
       <c r="D48" t="n">
-        <v>8932</v>
+        <v>5395</v>
       </c>
       <c r="E48" t="n">
-        <v>52576</v>
+        <v>54365</v>
       </c>
       <c r="F48" t="n">
-        <v>530642</v>
+        <v>549727</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5487</v>
+        <v>727</v>
       </c>
       <c r="D49" t="n">
-        <v>9545</v>
+        <v>6606</v>
       </c>
       <c r="E49" t="n">
-        <v>51327</v>
+        <v>54091</v>
       </c>
       <c r="F49" t="n">
-        <v>521710</v>
+        <v>544332</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1292</v>
+        <v>788</v>
       </c>
       <c r="D50" t="n">
-        <v>9330</v>
+        <v>7084</v>
       </c>
       <c r="E50" t="n">
-        <v>45840</v>
+        <v>53364</v>
       </c>
       <c r="F50" t="n">
-        <v>512165</v>
+        <v>537726</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1606</v>
+        <v>1249</v>
       </c>
       <c r="D51" t="n">
-        <v>11956</v>
+        <v>8932</v>
       </c>
       <c r="E51" t="n">
-        <v>44548</v>
+        <v>52576</v>
       </c>
       <c r="F51" t="n">
-        <v>502835</v>
+        <v>530642</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1661</v>
+        <v>5487</v>
       </c>
       <c r="D52" t="n">
-        <v>15319</v>
+        <v>9545</v>
       </c>
       <c r="E52" t="n">
-        <v>42942</v>
+        <v>51327</v>
       </c>
       <c r="F52" t="n">
-        <v>490879</v>
+        <v>521710</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2472</v>
+        <v>1292</v>
       </c>
       <c r="D53" t="n">
-        <v>16983</v>
+        <v>9330</v>
       </c>
       <c r="E53" t="n">
-        <v>41281</v>
+        <v>45840</v>
       </c>
       <c r="F53" t="n">
-        <v>475560</v>
+        <v>512165</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="D54" t="n">
-        <v>19657</v>
+        <v>11956</v>
       </c>
       <c r="E54" t="n">
-        <v>38809</v>
+        <v>44548</v>
       </c>
       <c r="F54" t="n">
-        <v>458577</v>
+        <v>502835</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2736</v>
+        <v>1661</v>
       </c>
       <c r="D55" t="n">
-        <v>20634</v>
+        <v>15319</v>
       </c>
       <c r="E55" t="n">
-        <v>37408</v>
+        <v>42942</v>
       </c>
       <c r="F55" t="n">
-        <v>438920</v>
+        <v>490879</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1931</v>
+        <v>2472</v>
       </c>
       <c r="D56" t="n">
-        <v>15698</v>
+        <v>16983</v>
       </c>
       <c r="E56" t="n">
-        <v>34672</v>
+        <v>41281</v>
       </c>
       <c r="F56" t="n">
-        <v>418286</v>
+        <v>475560</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2634</v>
+        <v>1401</v>
       </c>
       <c r="D57" t="n">
-        <v>15861</v>
+        <v>19657</v>
       </c>
       <c r="E57" t="n">
-        <v>32741</v>
+        <v>38809</v>
       </c>
       <c r="F57" t="n">
-        <v>402588</v>
+        <v>458577</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2494</v>
+        <v>2736</v>
       </c>
       <c r="D58" t="n">
-        <v>16407</v>
+        <v>20634</v>
       </c>
       <c r="E58" t="n">
-        <v>30107</v>
+        <v>37408</v>
       </c>
       <c r="F58" t="n">
-        <v>386727</v>
+        <v>438920</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
       <c r="D59" t="n">
-        <v>17332</v>
+        <v>15698</v>
       </c>
       <c r="E59" t="n">
-        <v>27613</v>
+        <v>34672</v>
       </c>
       <c r="F59" t="n">
-        <v>370320</v>
+        <v>418286</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2417</v>
+        <v>2634</v>
       </c>
       <c r="D60" t="n">
-        <v>19831</v>
+        <v>15861</v>
       </c>
       <c r="E60" t="n">
-        <v>24529</v>
+        <v>32741</v>
       </c>
       <c r="F60" t="n">
-        <v>352988</v>
+        <v>402588</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3238</v>
+        <v>2494</v>
       </c>
       <c r="D61" t="n">
-        <v>21582</v>
+        <v>16407</v>
       </c>
       <c r="E61" t="n">
-        <v>22112</v>
+        <v>30107</v>
       </c>
       <c r="F61" t="n">
-        <v>333157</v>
+        <v>386727</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3590</v>
+        <v>3084</v>
       </c>
       <c r="D62" t="n">
-        <v>19923</v>
+        <v>17332</v>
       </c>
       <c r="E62" t="n">
-        <v>18874</v>
+        <v>27613</v>
       </c>
       <c r="F62" t="n">
-        <v>311575</v>
+        <v>370320</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3200</v>
+        <v>2417</v>
       </c>
       <c r="D63" t="n">
-        <v>19872</v>
+        <v>19831</v>
       </c>
       <c r="E63" t="n">
-        <v>15284</v>
+        <v>24529</v>
       </c>
       <c r="F63" t="n">
-        <v>291652</v>
+        <v>352988</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2573</v>
+        <v>3238</v>
       </c>
       <c r="D64" t="n">
-        <v>25146</v>
+        <v>21582</v>
       </c>
       <c r="E64" t="n">
-        <v>12084</v>
+        <v>22112</v>
       </c>
       <c r="F64" t="n">
-        <v>271780</v>
+        <v>333157</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1189</v>
+        <v>3590</v>
       </c>
       <c r="D65" t="n">
-        <v>25141</v>
+        <v>19923</v>
       </c>
       <c r="E65" t="n">
-        <v>9511</v>
+        <v>18874</v>
       </c>
       <c r="F65" t="n">
-        <v>246634</v>
+        <v>311575</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>994</v>
+        <v>3200</v>
       </c>
       <c r="D66" t="n">
-        <v>22348</v>
+        <v>19872</v>
       </c>
       <c r="E66" t="n">
-        <v>8322</v>
+        <v>15284</v>
       </c>
       <c r="F66" t="n">
-        <v>221493</v>
+        <v>291652</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>914</v>
+        <v>2573</v>
       </c>
       <c r="D67" t="n">
-        <v>25173</v>
+        <v>25146</v>
       </c>
       <c r="E67" t="n">
-        <v>7328</v>
+        <v>12084</v>
       </c>
       <c r="F67" t="n">
-        <v>199145</v>
+        <v>271780</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1006</v>
+        <v>1189</v>
       </c>
       <c r="D68" t="n">
-        <v>23937</v>
+        <v>25141</v>
       </c>
       <c r="E68" t="n">
-        <v>6414</v>
+        <v>9511</v>
       </c>
       <c r="F68" t="n">
-        <v>173972</v>
+        <v>246634</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="D69" t="n">
-        <v>22609</v>
+        <v>22348</v>
       </c>
       <c r="E69" t="n">
-        <v>5408</v>
+        <v>8322</v>
       </c>
       <c r="F69" t="n">
-        <v>150035</v>
+        <v>221493</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>824</v>
+        <v>914</v>
       </c>
       <c r="D70" t="n">
-        <v>20398</v>
+        <v>25173</v>
       </c>
       <c r="E70" t="n">
-        <v>4393</v>
+        <v>7328</v>
       </c>
       <c r="F70" t="n">
-        <v>127426</v>
+        <v>199145</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>322</v>
+        <v>1006</v>
       </c>
       <c r="D71" t="n">
-        <v>19660</v>
+        <v>23937</v>
       </c>
       <c r="E71" t="n">
-        <v>3569</v>
+        <v>6414</v>
       </c>
       <c r="F71" t="n">
-        <v>107028</v>
+        <v>173972</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>311</v>
+        <v>1015</v>
       </c>
       <c r="D72" t="n">
-        <v>16766</v>
+        <v>22609</v>
       </c>
       <c r="E72" t="n">
-        <v>3247</v>
+        <v>5408</v>
       </c>
       <c r="F72" t="n">
-        <v>87368</v>
+        <v>150035</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>268</v>
+        <v>824</v>
       </c>
       <c r="D73" t="n">
-        <v>13086</v>
+        <v>20398</v>
       </c>
       <c r="E73" t="n">
-        <v>2936</v>
+        <v>4393</v>
       </c>
       <c r="F73" t="n">
-        <v>70602</v>
+        <v>127426</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="D74" t="n">
-        <v>8581</v>
+        <v>19660</v>
       </c>
       <c r="E74" t="n">
-        <v>2668</v>
+        <v>3569</v>
       </c>
       <c r="F74" t="n">
-        <v>57516</v>
+        <v>107028</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="D75" t="n">
-        <v>7788</v>
+        <v>16766</v>
       </c>
       <c r="E75" t="n">
-        <v>2243</v>
+        <v>3247</v>
       </c>
       <c r="F75" t="n">
-        <v>48935</v>
+        <v>87368</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D76" t="n">
-        <v>6051</v>
+        <v>13086</v>
       </c>
       <c r="E76" t="n">
-        <v>1805</v>
+        <v>2936</v>
       </c>
       <c r="F76" t="n">
-        <v>41147</v>
+        <v>70602</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="D77" t="n">
-        <v>4144</v>
+        <v>8581</v>
       </c>
       <c r="E77" t="n">
-        <v>1545</v>
+        <v>2668</v>
       </c>
       <c r="F77" t="n">
-        <v>35096</v>
+        <v>57516</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="D78" t="n">
-        <v>5298</v>
+        <v>7788</v>
       </c>
       <c r="E78" t="n">
-        <v>1187</v>
+        <v>2243</v>
       </c>
       <c r="F78" t="n">
-        <v>30952</v>
+        <v>48935</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="D79" t="n">
-        <v>5656</v>
+        <v>6051</v>
       </c>
       <c r="E79" t="n">
-        <v>832</v>
+        <v>1805</v>
       </c>
       <c r="F79" t="n">
-        <v>25654</v>
+        <v>41147</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="D80" t="n">
-        <v>4381</v>
+        <v>4144</v>
       </c>
       <c r="E80" t="n">
-        <v>506</v>
+        <v>1545</v>
       </c>
       <c r="F80" t="n">
-        <v>19998</v>
+        <v>35096</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="D81" t="n">
-        <v>3450</v>
+        <v>5298</v>
       </c>
       <c r="E81" t="n">
-        <v>410</v>
+        <v>1187</v>
       </c>
       <c r="F81" t="n">
-        <v>15617</v>
+        <v>30952</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D82" t="n">
-        <v>2631</v>
+        <v>5656</v>
       </c>
       <c r="E82" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="F82" t="n">
-        <v>12167</v>
+        <v>25654</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D83" t="n">
-        <v>2231</v>
+        <v>4381</v>
       </c>
       <c r="E83" t="n">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="F83" t="n">
-        <v>9536</v>
+        <v>19998</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
-        <v>1580</v>
+        <v>3450</v>
       </c>
       <c r="E84" t="n">
-        <v>277</v>
+        <v>410</v>
       </c>
       <c r="F84" t="n">
-        <v>7305</v>
+        <v>15617</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>979</v>
+        <v>2631</v>
       </c>
       <c r="E85" t="n">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="F85" t="n">
-        <v>5725</v>
+        <v>12167</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
-        <v>977</v>
+        <v>2231</v>
       </c>
       <c r="E86" t="n">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F86" t="n">
-        <v>4746</v>
+        <v>9536</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
-        <v>865</v>
+        <v>1580</v>
       </c>
       <c r="E87" t="n">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F87" t="n">
-        <v>3769</v>
+        <v>7305</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>734</v>
+        <v>979</v>
       </c>
       <c r="E88" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F88" t="n">
-        <v>2904</v>
+        <v>5725</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>492</v>
+        <v>977</v>
       </c>
       <c r="E89" t="n">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F89" t="n">
-        <v>2170</v>
+        <v>4746</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="E90" t="n">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="F90" t="n">
-        <v>1678</v>
+        <v>3769</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D91" t="n">
-        <v>203</v>
+        <v>734</v>
       </c>
       <c r="E91" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F91" t="n">
-        <v>1312</v>
+        <v>2904</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D92" t="n">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="E92" t="n">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F92" t="n">
-        <v>1109</v>
+        <v>2170</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E93" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="F93" t="n">
-        <v>959</v>
+        <v>1678</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D94" t="n">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E94" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F94" t="n">
-        <v>762</v>
+        <v>1312</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E95" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F95" t="n">
-        <v>632</v>
+        <v>1109</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E96" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F96" t="n">
-        <v>504</v>
+        <v>959</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E97" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F97" t="n">
-        <v>440</v>
+        <v>762</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E98" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F98" t="n">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E99" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F99" t="n">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E100" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F100" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F101" t="n">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F102" t="n">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
+        <v>51</v>
+      </c>
+      <c r="E104" t="n">
         <v>16</v>
       </c>
-      <c r="E104" t="n">
-        <v>9</v>
-      </c>
       <c r="F104" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,22 +3096,97 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>16</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>36</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>14</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C110" t="n">
         <v>1</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D110" t="n">
         <v>1</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E110" t="n">
         <v>1</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F110" t="n">
         <v>1</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G110" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>58101</v>
+        <v>58104</v>
       </c>
       <c r="F2" t="n">
-        <v>591499</v>
+        <v>591505</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>58100</v>
+        <v>58101</v>
       </c>
       <c r="F3" t="n">
-        <v>591493</v>
+        <v>591499</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>58098</v>
+        <v>58100</v>
       </c>
       <c r="F4" t="n">
-        <v>591491</v>
+        <v>591493</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>58089</v>
+        <v>58098</v>
       </c>
       <c r="F5" t="n">
-        <v>591484</v>
+        <v>591491</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>58076</v>
+        <v>58089</v>
       </c>
       <c r="F6" t="n">
-        <v>591482</v>
+        <v>591484</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>58073</v>
+        <v>58076</v>
       </c>
       <c r="F7" t="n">
-        <v>591468</v>
+        <v>591482</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>58062</v>
+        <v>58073</v>
       </c>
       <c r="F8" t="n">
-        <v>591442</v>
+        <v>591468</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>58052</v>
+        <v>58062</v>
       </c>
       <c r="F9" t="n">
-        <v>591423</v>
+        <v>591442</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>58045</v>
+        <v>58052</v>
       </c>
       <c r="F10" t="n">
-        <v>591414</v>
+        <v>591423</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>58039</v>
+        <v>58045</v>
       </c>
       <c r="F11" t="n">
-        <v>591409</v>
+        <v>591414</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>58035</v>
+        <v>58039</v>
       </c>
       <c r="F12" t="n">
-        <v>591404</v>
+        <v>591409</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>58031</v>
+        <v>58035</v>
       </c>
       <c r="F13" t="n">
-        <v>591393</v>
+        <v>591404</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>58028</v>
+        <v>58031</v>
       </c>
       <c r="F14" t="n">
-        <v>591386</v>
+        <v>591393</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>58024</v>
+        <v>58028</v>
       </c>
       <c r="F15" t="n">
-        <v>591382</v>
+        <v>591386</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>58018</v>
+        <v>58024</v>
       </c>
       <c r="F16" t="n">
-        <v>591366</v>
+        <v>591382</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>58013</v>
+        <v>58018</v>
       </c>
       <c r="F17" t="n">
-        <v>591357</v>
+        <v>591366</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>58005</v>
+        <v>58013</v>
       </c>
       <c r="F18" t="n">
-        <v>591349</v>
+        <v>591357</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>58000</v>
+        <v>58005</v>
       </c>
       <c r="F19" t="n">
-        <v>591341</v>
+        <v>591349</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>57995</v>
+        <v>58000</v>
       </c>
       <c r="F20" t="n">
-        <v>591331</v>
+        <v>591341</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>57986</v>
+        <v>57995</v>
       </c>
       <c r="F21" t="n">
-        <v>591309</v>
+        <v>591331</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>57980</v>
+        <v>57986</v>
       </c>
       <c r="F22" t="n">
-        <v>591248</v>
+        <v>591309</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E23" t="n">
-        <v>57951</v>
+        <v>57980</v>
       </c>
       <c r="F23" t="n">
-        <v>591155</v>
+        <v>591248</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E24" t="n">
-        <v>57912</v>
+        <v>57951</v>
       </c>
       <c r="F24" t="n">
-        <v>591024</v>
+        <v>591155</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E25" t="n">
-        <v>57867</v>
+        <v>57912</v>
       </c>
       <c r="F25" t="n">
-        <v>590805</v>
+        <v>591024</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="E26" t="n">
-        <v>57819</v>
+        <v>57867</v>
       </c>
       <c r="F26" t="n">
-        <v>590515</v>
+        <v>590805</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="E27" t="n">
-        <v>57775</v>
+        <v>57819</v>
       </c>
       <c r="F27" t="n">
-        <v>590172</v>
+        <v>590515</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" t="n">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="E28" t="n">
-        <v>57717</v>
+        <v>57775</v>
       </c>
       <c r="F28" t="n">
-        <v>589750</v>
+        <v>590172</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" t="n">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E29" t="n">
-        <v>57662</v>
+        <v>57717</v>
       </c>
       <c r="F29" t="n">
-        <v>589247</v>
+        <v>589750</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D30" t="n">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="E30" t="n">
-        <v>57610</v>
+        <v>57662</v>
       </c>
       <c r="F30" t="n">
-        <v>588677</v>
+        <v>589247</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E31" t="n">
-        <v>57526</v>
+        <v>57610</v>
       </c>
       <c r="F31" t="n">
-        <v>587893</v>
+        <v>588677</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D32" t="n">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="E32" t="n">
-        <v>57438</v>
+        <v>57526</v>
       </c>
       <c r="F32" t="n">
-        <v>587123</v>
+        <v>587893</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D33" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="E33" t="n">
-        <v>57356</v>
+        <v>57438</v>
       </c>
       <c r="F33" t="n">
-        <v>586486</v>
+        <v>587123</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D34" t="n">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E34" t="n">
-        <v>57260</v>
+        <v>57356</v>
       </c>
       <c r="F34" t="n">
-        <v>585727</v>
+        <v>586486</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D35" t="n">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E35" t="n">
-        <v>57183</v>
+        <v>57260</v>
       </c>
       <c r="F35" t="n">
-        <v>584981</v>
+        <v>585727</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>1203</v>
+        <v>869</v>
       </c>
       <c r="E36" t="n">
-        <v>57114</v>
+        <v>57183</v>
       </c>
       <c r="F36" t="n">
-        <v>584112</v>
+        <v>584981</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D37" t="n">
-        <v>1487</v>
+        <v>1203</v>
       </c>
       <c r="E37" t="n">
-        <v>56948</v>
+        <v>57114</v>
       </c>
       <c r="F37" t="n">
-        <v>582909</v>
+        <v>584112</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D38" t="n">
-        <v>1869</v>
+        <v>1487</v>
       </c>
       <c r="E38" t="n">
-        <v>56754</v>
+        <v>56948</v>
       </c>
       <c r="F38" t="n">
-        <v>581422</v>
+        <v>582909</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D39" t="n">
-        <v>1305</v>
+        <v>1869</v>
       </c>
       <c r="E39" t="n">
-        <v>56527</v>
+        <v>56754</v>
       </c>
       <c r="F39" t="n">
-        <v>579553</v>
+        <v>581422</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D40" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="E40" t="n">
-        <v>56383</v>
+        <v>56527</v>
       </c>
       <c r="F40" t="n">
-        <v>578248</v>
+        <v>579553</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D41" t="n">
-        <v>2780</v>
+        <v>1259</v>
       </c>
       <c r="E41" t="n">
-        <v>56155</v>
+        <v>56383</v>
       </c>
       <c r="F41" t="n">
-        <v>576989</v>
+        <v>578248</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D42" t="n">
-        <v>3625</v>
+        <v>2780</v>
       </c>
       <c r="E42" t="n">
-        <v>55921</v>
+        <v>56155</v>
       </c>
       <c r="F42" t="n">
-        <v>574209</v>
+        <v>576989</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="D43" t="n">
-        <v>3760</v>
+        <v>3625</v>
       </c>
       <c r="E43" t="n">
-        <v>55599</v>
+        <v>55921</v>
       </c>
       <c r="F43" t="n">
-        <v>570584</v>
+        <v>574209</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D44" t="n">
-        <v>3961</v>
+        <v>3760</v>
       </c>
       <c r="E44" t="n">
-        <v>55384</v>
+        <v>55599</v>
       </c>
       <c r="F44" t="n">
-        <v>566824</v>
+        <v>570584</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D45" t="n">
-        <v>4024</v>
+        <v>3961</v>
       </c>
       <c r="E45" t="n">
-        <v>55131</v>
+        <v>55384</v>
       </c>
       <c r="F45" t="n">
-        <v>562863</v>
+        <v>566824</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D46" t="n">
-        <v>4390</v>
+        <v>4024</v>
       </c>
       <c r="E46" t="n">
-        <v>54886</v>
+        <v>55131</v>
       </c>
       <c r="F46" t="n">
-        <v>558839</v>
+        <v>562863</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D47" t="n">
-        <v>4722</v>
+        <v>4390</v>
       </c>
       <c r="E47" t="n">
-        <v>54625</v>
+        <v>54886</v>
       </c>
       <c r="F47" t="n">
-        <v>554449</v>
+        <v>558839</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D48" t="n">
-        <v>5395</v>
+        <v>4722</v>
       </c>
       <c r="E48" t="n">
-        <v>54365</v>
+        <v>54625</v>
       </c>
       <c r="F48" t="n">
-        <v>549727</v>
+        <v>554449</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>727</v>
+        <v>274</v>
       </c>
       <c r="D49" t="n">
-        <v>6606</v>
+        <v>5395</v>
       </c>
       <c r="E49" t="n">
-        <v>54091</v>
+        <v>54365</v>
       </c>
       <c r="F49" t="n">
-        <v>544332</v>
+        <v>549727</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="D50" t="n">
-        <v>7084</v>
+        <v>6606</v>
       </c>
       <c r="E50" t="n">
-        <v>53364</v>
+        <v>54091</v>
       </c>
       <c r="F50" t="n">
-        <v>537726</v>
+        <v>544332</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1249</v>
+        <v>788</v>
       </c>
       <c r="D51" t="n">
-        <v>8932</v>
+        <v>7084</v>
       </c>
       <c r="E51" t="n">
-        <v>52576</v>
+        <v>53364</v>
       </c>
       <c r="F51" t="n">
-        <v>530642</v>
+        <v>537726</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5487</v>
+        <v>1249</v>
       </c>
       <c r="D52" t="n">
-        <v>9545</v>
+        <v>8932</v>
       </c>
       <c r="E52" t="n">
-        <v>51327</v>
+        <v>52576</v>
       </c>
       <c r="F52" t="n">
-        <v>521710</v>
+        <v>530642</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1292</v>
+        <v>5487</v>
       </c>
       <c r="D53" t="n">
-        <v>9330</v>
+        <v>9545</v>
       </c>
       <c r="E53" t="n">
-        <v>45840</v>
+        <v>51327</v>
       </c>
       <c r="F53" t="n">
-        <v>512165</v>
+        <v>521710</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1606</v>
+        <v>1292</v>
       </c>
       <c r="D54" t="n">
-        <v>11956</v>
+        <v>9330</v>
       </c>
       <c r="E54" t="n">
-        <v>44548</v>
+        <v>45840</v>
       </c>
       <c r="F54" t="n">
-        <v>502835</v>
+        <v>512165</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="D55" t="n">
-        <v>15319</v>
+        <v>11956</v>
       </c>
       <c r="E55" t="n">
-        <v>42942</v>
+        <v>44548</v>
       </c>
       <c r="F55" t="n">
-        <v>490879</v>
+        <v>502835</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2472</v>
+        <v>1661</v>
       </c>
       <c r="D56" t="n">
-        <v>16983</v>
+        <v>15319</v>
       </c>
       <c r="E56" t="n">
-        <v>41281</v>
+        <v>42942</v>
       </c>
       <c r="F56" t="n">
-        <v>475560</v>
+        <v>490879</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1401</v>
+        <v>2472</v>
       </c>
       <c r="D57" t="n">
-        <v>19657</v>
+        <v>16983</v>
       </c>
       <c r="E57" t="n">
-        <v>38809</v>
+        <v>41281</v>
       </c>
       <c r="F57" t="n">
-        <v>458577</v>
+        <v>475560</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2736</v>
+        <v>1401</v>
       </c>
       <c r="D58" t="n">
-        <v>20634</v>
+        <v>19657</v>
       </c>
       <c r="E58" t="n">
-        <v>37408</v>
+        <v>38809</v>
       </c>
       <c r="F58" t="n">
-        <v>438920</v>
+        <v>458577</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1931</v>
+        <v>2736</v>
       </c>
       <c r="D59" t="n">
-        <v>15698</v>
+        <v>20634</v>
       </c>
       <c r="E59" t="n">
-        <v>34672</v>
+        <v>37408</v>
       </c>
       <c r="F59" t="n">
-        <v>418286</v>
+        <v>438920</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2634</v>
+        <v>1931</v>
       </c>
       <c r="D60" t="n">
-        <v>15861</v>
+        <v>15698</v>
       </c>
       <c r="E60" t="n">
-        <v>32741</v>
+        <v>34672</v>
       </c>
       <c r="F60" t="n">
-        <v>402588</v>
+        <v>418286</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2494</v>
+        <v>2634</v>
       </c>
       <c r="D61" t="n">
-        <v>16407</v>
+        <v>15861</v>
       </c>
       <c r="E61" t="n">
-        <v>30107</v>
+        <v>32741</v>
       </c>
       <c r="F61" t="n">
-        <v>386727</v>
+        <v>402588</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3084</v>
+        <v>2494</v>
       </c>
       <c r="D62" t="n">
-        <v>17332</v>
+        <v>16407</v>
       </c>
       <c r="E62" t="n">
-        <v>27613</v>
+        <v>30107</v>
       </c>
       <c r="F62" t="n">
-        <v>370320</v>
+        <v>386727</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2417</v>
+        <v>3084</v>
       </c>
       <c r="D63" t="n">
-        <v>19831</v>
+        <v>17332</v>
       </c>
       <c r="E63" t="n">
-        <v>24529</v>
+        <v>27613</v>
       </c>
       <c r="F63" t="n">
-        <v>352988</v>
+        <v>370320</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3238</v>
+        <v>2417</v>
       </c>
       <c r="D64" t="n">
-        <v>21582</v>
+        <v>19831</v>
       </c>
       <c r="E64" t="n">
-        <v>22112</v>
+        <v>24529</v>
       </c>
       <c r="F64" t="n">
-        <v>333157</v>
+        <v>352988</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3590</v>
+        <v>3238</v>
       </c>
       <c r="D65" t="n">
-        <v>19923</v>
+        <v>21582</v>
       </c>
       <c r="E65" t="n">
-        <v>18874</v>
+        <v>22112</v>
       </c>
       <c r="F65" t="n">
-        <v>311575</v>
+        <v>333157</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3200</v>
+        <v>3590</v>
       </c>
       <c r="D66" t="n">
-        <v>19872</v>
+        <v>19923</v>
       </c>
       <c r="E66" t="n">
-        <v>15284</v>
+        <v>18874</v>
       </c>
       <c r="F66" t="n">
-        <v>291652</v>
+        <v>311575</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2573</v>
+        <v>3200</v>
       </c>
       <c r="D67" t="n">
-        <v>25146</v>
+        <v>19872</v>
       </c>
       <c r="E67" t="n">
-        <v>12084</v>
+        <v>15284</v>
       </c>
       <c r="F67" t="n">
-        <v>271780</v>
+        <v>291652</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1189</v>
+        <v>2573</v>
       </c>
       <c r="D68" t="n">
-        <v>25141</v>
+        <v>25146</v>
       </c>
       <c r="E68" t="n">
-        <v>9511</v>
+        <v>12084</v>
       </c>
       <c r="F68" t="n">
-        <v>246634</v>
+        <v>271780</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>994</v>
+        <v>1189</v>
       </c>
       <c r="D69" t="n">
-        <v>22348</v>
+        <v>25141</v>
       </c>
       <c r="E69" t="n">
-        <v>8322</v>
+        <v>9511</v>
       </c>
       <c r="F69" t="n">
-        <v>221493</v>
+        <v>246634</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="D70" t="n">
-        <v>25173</v>
+        <v>22348</v>
       </c>
       <c r="E70" t="n">
-        <v>7328</v>
+        <v>8322</v>
       </c>
       <c r="F70" t="n">
-        <v>199145</v>
+        <v>221493</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1006</v>
+        <v>914</v>
       </c>
       <c r="D71" t="n">
-        <v>23937</v>
+        <v>25173</v>
       </c>
       <c r="E71" t="n">
-        <v>6414</v>
+        <v>7328</v>
       </c>
       <c r="F71" t="n">
-        <v>173972</v>
+        <v>199145</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D72" t="n">
-        <v>22609</v>
+        <v>23937</v>
       </c>
       <c r="E72" t="n">
-        <v>5408</v>
+        <v>6414</v>
       </c>
       <c r="F72" t="n">
-        <v>150035</v>
+        <v>173972</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D73" t="n">
-        <v>20398</v>
+        <v>22609</v>
       </c>
       <c r="E73" t="n">
-        <v>4393</v>
+        <v>5408</v>
       </c>
       <c r="F73" t="n">
-        <v>127426</v>
+        <v>150035</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="D74" t="n">
-        <v>19660</v>
+        <v>20398</v>
       </c>
       <c r="E74" t="n">
-        <v>3569</v>
+        <v>4393</v>
       </c>
       <c r="F74" t="n">
-        <v>107028</v>
+        <v>127426</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D75" t="n">
-        <v>16766</v>
+        <v>19660</v>
       </c>
       <c r="E75" t="n">
-        <v>3247</v>
+        <v>3569</v>
       </c>
       <c r="F75" t="n">
-        <v>87368</v>
+        <v>107028</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D76" t="n">
-        <v>13086</v>
+        <v>16766</v>
       </c>
       <c r="E76" t="n">
-        <v>2936</v>
+        <v>3247</v>
       </c>
       <c r="F76" t="n">
-        <v>70602</v>
+        <v>87368</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="D77" t="n">
-        <v>8581</v>
+        <v>13086</v>
       </c>
       <c r="E77" t="n">
-        <v>2668</v>
+        <v>2936</v>
       </c>
       <c r="F77" t="n">
-        <v>57516</v>
+        <v>70602</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D78" t="n">
-        <v>7788</v>
+        <v>8581</v>
       </c>
       <c r="E78" t="n">
-        <v>2243</v>
+        <v>2668</v>
       </c>
       <c r="F78" t="n">
-        <v>48935</v>
+        <v>57516</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="D79" t="n">
-        <v>6051</v>
+        <v>7788</v>
       </c>
       <c r="E79" t="n">
-        <v>1805</v>
+        <v>2243</v>
       </c>
       <c r="F79" t="n">
-        <v>41147</v>
+        <v>48935</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>4144</v>
+        <v>6051</v>
       </c>
       <c r="E80" t="n">
-        <v>1545</v>
+        <v>1805</v>
       </c>
       <c r="F80" t="n">
-        <v>35096</v>
+        <v>41147</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D81" t="n">
-        <v>5298</v>
+        <v>4144</v>
       </c>
       <c r="E81" t="n">
-        <v>1187</v>
+        <v>1545</v>
       </c>
       <c r="F81" t="n">
-        <v>30952</v>
+        <v>35096</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D82" t="n">
-        <v>5656</v>
+        <v>5298</v>
       </c>
       <c r="E82" t="n">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="F82" t="n">
-        <v>25654</v>
+        <v>30952</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="D83" t="n">
-        <v>4381</v>
+        <v>5656</v>
       </c>
       <c r="E83" t="n">
-        <v>506</v>
+        <v>832</v>
       </c>
       <c r="F83" t="n">
-        <v>19998</v>
+        <v>25654</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D84" t="n">
-        <v>3450</v>
+        <v>4381</v>
       </c>
       <c r="E84" t="n">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F84" t="n">
-        <v>15617</v>
+        <v>19998</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
-        <v>2631</v>
+        <v>3450</v>
       </c>
       <c r="E85" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F85" t="n">
-        <v>12167</v>
+        <v>15617</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>2231</v>
+        <v>2631</v>
       </c>
       <c r="E86" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F86" t="n">
-        <v>9536</v>
+        <v>12167</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
-        <v>1580</v>
+        <v>2231</v>
       </c>
       <c r="E87" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F87" t="n">
-        <v>7305</v>
+        <v>9536</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
-        <v>979</v>
+        <v>1580</v>
       </c>
       <c r="E88" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F88" t="n">
-        <v>5725</v>
+        <v>7305</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E89" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F89" t="n">
-        <v>4746</v>
+        <v>5725</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="E90" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F90" t="n">
-        <v>3769</v>
+        <v>4746</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E91" t="n">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F91" t="n">
-        <v>2904</v>
+        <v>3769</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
-        <v>492</v>
+        <v>734</v>
       </c>
       <c r="E92" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F92" t="n">
-        <v>2170</v>
+        <v>2904</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E93" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F93" t="n">
-        <v>1678</v>
+        <v>2170</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E94" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F94" t="n">
-        <v>1312</v>
+        <v>1678</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D95" t="n">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E95" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F95" t="n">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E96" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F96" t="n">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="E97" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F97" t="n">
-        <v>762</v>
+        <v>959</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F98" t="n">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D99" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F99" t="n">
-        <v>504</v>
+        <v>632</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E100" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F100" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E101" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F101" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E102" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F102" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E103" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F103" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E104" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F104" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F105" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E106" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,22 +3171,47 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C111" t="n">
         <v>1</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D111" t="n">
         <v>1</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E111" t="n">
         <v>1</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F111" t="n">
         <v>1</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G111" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
       <c r="E2" t="n">
-        <v>58104</v>
+        <v>58114</v>
       </c>
       <c r="F2" t="n">
-        <v>591505</v>
+        <v>591508</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>58101</v>
+        <v>58104</v>
       </c>
       <c r="F3" t="n">
-        <v>591499</v>
+        <v>591505</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>58100</v>
+        <v>58101</v>
       </c>
       <c r="F4" t="n">
-        <v>591493</v>
+        <v>591499</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>58098</v>
+        <v>58100</v>
       </c>
       <c r="F5" t="n">
-        <v>591491</v>
+        <v>591493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>58089</v>
+        <v>58098</v>
       </c>
       <c r="F6" t="n">
-        <v>591484</v>
+        <v>591491</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>58076</v>
+        <v>58089</v>
       </c>
       <c r="F7" t="n">
-        <v>591482</v>
+        <v>591484</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>58073</v>
+        <v>58076</v>
       </c>
       <c r="F8" t="n">
-        <v>591468</v>
+        <v>591482</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>58062</v>
+        <v>58073</v>
       </c>
       <c r="F9" t="n">
-        <v>591442</v>
+        <v>591468</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>58052</v>
+        <v>58062</v>
       </c>
       <c r="F10" t="n">
-        <v>591423</v>
+        <v>591442</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>58045</v>
+        <v>58052</v>
       </c>
       <c r="F11" t="n">
-        <v>591414</v>
+        <v>591423</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>58039</v>
+        <v>58045</v>
       </c>
       <c r="F12" t="n">
-        <v>591409</v>
+        <v>591414</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>58035</v>
+        <v>58039</v>
       </c>
       <c r="F13" t="n">
-        <v>591404</v>
+        <v>591409</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>58031</v>
+        <v>58035</v>
       </c>
       <c r="F14" t="n">
-        <v>591393</v>
+        <v>591404</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>58028</v>
+        <v>58031</v>
       </c>
       <c r="F15" t="n">
-        <v>591386</v>
+        <v>591393</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>58024</v>
+        <v>58028</v>
       </c>
       <c r="F16" t="n">
-        <v>591382</v>
+        <v>591386</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>58018</v>
+        <v>58024</v>
       </c>
       <c r="F17" t="n">
-        <v>591366</v>
+        <v>591382</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>58013</v>
+        <v>58018</v>
       </c>
       <c r="F18" t="n">
-        <v>591357</v>
+        <v>591366</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>58005</v>
+        <v>58013</v>
       </c>
       <c r="F19" t="n">
-        <v>591349</v>
+        <v>591357</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>58000</v>
+        <v>58005</v>
       </c>
       <c r="F20" t="n">
-        <v>591341</v>
+        <v>591349</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>57995</v>
+        <v>58000</v>
       </c>
       <c r="F21" t="n">
-        <v>591331</v>
+        <v>591341</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>57986</v>
+        <v>57995</v>
       </c>
       <c r="F22" t="n">
-        <v>591309</v>
+        <v>591331</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>57980</v>
+        <v>57986</v>
       </c>
       <c r="F23" t="n">
-        <v>591248</v>
+        <v>591309</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E24" t="n">
-        <v>57951</v>
+        <v>57980</v>
       </c>
       <c r="F24" t="n">
-        <v>591155</v>
+        <v>591248</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E25" t="n">
-        <v>57912</v>
+        <v>57951</v>
       </c>
       <c r="F25" t="n">
-        <v>591024</v>
+        <v>591155</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E26" t="n">
-        <v>57867</v>
+        <v>57912</v>
       </c>
       <c r="F26" t="n">
-        <v>590805</v>
+        <v>591024</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="E27" t="n">
-        <v>57819</v>
+        <v>57867</v>
       </c>
       <c r="F27" t="n">
-        <v>590515</v>
+        <v>590805</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="E28" t="n">
-        <v>57775</v>
+        <v>57819</v>
       </c>
       <c r="F28" t="n">
-        <v>590172</v>
+        <v>590515</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="E29" t="n">
-        <v>57717</v>
+        <v>57775</v>
       </c>
       <c r="F29" t="n">
-        <v>589750</v>
+        <v>590172</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E30" t="n">
-        <v>57662</v>
+        <v>57717</v>
       </c>
       <c r="F30" t="n">
-        <v>589247</v>
+        <v>589750</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="E31" t="n">
-        <v>57610</v>
+        <v>57662</v>
       </c>
       <c r="F31" t="n">
-        <v>588677</v>
+        <v>589247</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D32" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E32" t="n">
-        <v>57526</v>
+        <v>57610</v>
       </c>
       <c r="F32" t="n">
-        <v>587893</v>
+        <v>588677</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="E33" t="n">
-        <v>57438</v>
+        <v>57526</v>
       </c>
       <c r="F33" t="n">
-        <v>587123</v>
+        <v>587893</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D34" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="E34" t="n">
-        <v>57356</v>
+        <v>57438</v>
       </c>
       <c r="F34" t="n">
-        <v>586486</v>
+        <v>587123</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D35" t="n">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E35" t="n">
-        <v>57260</v>
+        <v>57356</v>
       </c>
       <c r="F35" t="n">
-        <v>585727</v>
+        <v>586486</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D36" t="n">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E36" t="n">
-        <v>57183</v>
+        <v>57260</v>
       </c>
       <c r="F36" t="n">
-        <v>584981</v>
+        <v>585727</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>1203</v>
+        <v>869</v>
       </c>
       <c r="E37" t="n">
-        <v>57114</v>
+        <v>57183</v>
       </c>
       <c r="F37" t="n">
-        <v>584112</v>
+        <v>584981</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D38" t="n">
-        <v>1487</v>
+        <v>1203</v>
       </c>
       <c r="E38" t="n">
-        <v>56948</v>
+        <v>57114</v>
       </c>
       <c r="F38" t="n">
-        <v>582909</v>
+        <v>584112</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D39" t="n">
-        <v>1869</v>
+        <v>1487</v>
       </c>
       <c r="E39" t="n">
-        <v>56754</v>
+        <v>56948</v>
       </c>
       <c r="F39" t="n">
-        <v>581422</v>
+        <v>582909</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D40" t="n">
-        <v>1305</v>
+        <v>1869</v>
       </c>
       <c r="E40" t="n">
-        <v>56527</v>
+        <v>56754</v>
       </c>
       <c r="F40" t="n">
-        <v>579553</v>
+        <v>581422</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D41" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="E41" t="n">
-        <v>56383</v>
+        <v>56527</v>
       </c>
       <c r="F41" t="n">
-        <v>578248</v>
+        <v>579553</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D42" t="n">
-        <v>2780</v>
+        <v>1259</v>
       </c>
       <c r="E42" t="n">
-        <v>56155</v>
+        <v>56383</v>
       </c>
       <c r="F42" t="n">
-        <v>576989</v>
+        <v>578248</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D43" t="n">
-        <v>3625</v>
+        <v>2780</v>
       </c>
       <c r="E43" t="n">
-        <v>55921</v>
+        <v>56155</v>
       </c>
       <c r="F43" t="n">
-        <v>574209</v>
+        <v>576989</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="D44" t="n">
-        <v>3760</v>
+        <v>3625</v>
       </c>
       <c r="E44" t="n">
-        <v>55599</v>
+        <v>55921</v>
       </c>
       <c r="F44" t="n">
-        <v>570584</v>
+        <v>574209</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D45" t="n">
-        <v>3961</v>
+        <v>3760</v>
       </c>
       <c r="E45" t="n">
-        <v>55384</v>
+        <v>55599</v>
       </c>
       <c r="F45" t="n">
-        <v>566824</v>
+        <v>570584</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D46" t="n">
-        <v>4024</v>
+        <v>3961</v>
       </c>
       <c r="E46" t="n">
-        <v>55131</v>
+        <v>55384</v>
       </c>
       <c r="F46" t="n">
-        <v>562863</v>
+        <v>566824</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D47" t="n">
-        <v>4390</v>
+        <v>4024</v>
       </c>
       <c r="E47" t="n">
-        <v>54886</v>
+        <v>55131</v>
       </c>
       <c r="F47" t="n">
-        <v>558839</v>
+        <v>562863</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D48" t="n">
-        <v>4722</v>
+        <v>4390</v>
       </c>
       <c r="E48" t="n">
-        <v>54625</v>
+        <v>54886</v>
       </c>
       <c r="F48" t="n">
-        <v>554449</v>
+        <v>558839</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D49" t="n">
-        <v>5395</v>
+        <v>4722</v>
       </c>
       <c r="E49" t="n">
-        <v>54365</v>
+        <v>54625</v>
       </c>
       <c r="F49" t="n">
-        <v>549727</v>
+        <v>554449</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>727</v>
+        <v>274</v>
       </c>
       <c r="D50" t="n">
-        <v>6606</v>
+        <v>5395</v>
       </c>
       <c r="E50" t="n">
-        <v>54091</v>
+        <v>54365</v>
       </c>
       <c r="F50" t="n">
-        <v>544332</v>
+        <v>549727</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="D51" t="n">
-        <v>7084</v>
+        <v>6606</v>
       </c>
       <c r="E51" t="n">
-        <v>53364</v>
+        <v>54091</v>
       </c>
       <c r="F51" t="n">
-        <v>537726</v>
+        <v>544332</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1249</v>
+        <v>788</v>
       </c>
       <c r="D52" t="n">
-        <v>8932</v>
+        <v>7084</v>
       </c>
       <c r="E52" t="n">
-        <v>52576</v>
+        <v>53364</v>
       </c>
       <c r="F52" t="n">
-        <v>530642</v>
+        <v>537726</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5487</v>
+        <v>1249</v>
       </c>
       <c r="D53" t="n">
-        <v>9545</v>
+        <v>8932</v>
       </c>
       <c r="E53" t="n">
-        <v>51327</v>
+        <v>52576</v>
       </c>
       <c r="F53" t="n">
-        <v>521710</v>
+        <v>530642</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1292</v>
+        <v>5487</v>
       </c>
       <c r="D54" t="n">
-        <v>9330</v>
+        <v>9545</v>
       </c>
       <c r="E54" t="n">
-        <v>45840</v>
+        <v>51327</v>
       </c>
       <c r="F54" t="n">
-        <v>512165</v>
+        <v>521710</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1606</v>
+        <v>1292</v>
       </c>
       <c r="D55" t="n">
-        <v>11956</v>
+        <v>9330</v>
       </c>
       <c r="E55" t="n">
-        <v>44548</v>
+        <v>45840</v>
       </c>
       <c r="F55" t="n">
-        <v>502835</v>
+        <v>512165</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="D56" t="n">
-        <v>15319</v>
+        <v>11956</v>
       </c>
       <c r="E56" t="n">
-        <v>42942</v>
+        <v>44548</v>
       </c>
       <c r="F56" t="n">
-        <v>490879</v>
+        <v>502835</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2472</v>
+        <v>1661</v>
       </c>
       <c r="D57" t="n">
-        <v>16983</v>
+        <v>15319</v>
       </c>
       <c r="E57" t="n">
-        <v>41281</v>
+        <v>42942</v>
       </c>
       <c r="F57" t="n">
-        <v>475560</v>
+        <v>490879</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1401</v>
+        <v>2472</v>
       </c>
       <c r="D58" t="n">
-        <v>19657</v>
+        <v>16983</v>
       </c>
       <c r="E58" t="n">
-        <v>38809</v>
+        <v>41281</v>
       </c>
       <c r="F58" t="n">
-        <v>458577</v>
+        <v>475560</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2736</v>
+        <v>1401</v>
       </c>
       <c r="D59" t="n">
-        <v>20634</v>
+        <v>19657</v>
       </c>
       <c r="E59" t="n">
-        <v>37408</v>
+        <v>38809</v>
       </c>
       <c r="F59" t="n">
-        <v>438920</v>
+        <v>458577</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1931</v>
+        <v>2736</v>
       </c>
       <c r="D60" t="n">
-        <v>15698</v>
+        <v>20634</v>
       </c>
       <c r="E60" t="n">
-        <v>34672</v>
+        <v>37408</v>
       </c>
       <c r="F60" t="n">
-        <v>418286</v>
+        <v>438920</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2634</v>
+        <v>1931</v>
       </c>
       <c r="D61" t="n">
-        <v>15861</v>
+        <v>15698</v>
       </c>
       <c r="E61" t="n">
-        <v>32741</v>
+        <v>34672</v>
       </c>
       <c r="F61" t="n">
-        <v>402588</v>
+        <v>418286</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2494</v>
+        <v>2634</v>
       </c>
       <c r="D62" t="n">
-        <v>16407</v>
+        <v>15861</v>
       </c>
       <c r="E62" t="n">
-        <v>30107</v>
+        <v>32741</v>
       </c>
       <c r="F62" t="n">
-        <v>386727</v>
+        <v>402588</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3084</v>
+        <v>2494</v>
       </c>
       <c r="D63" t="n">
-        <v>17332</v>
+        <v>16407</v>
       </c>
       <c r="E63" t="n">
-        <v>27613</v>
+        <v>30107</v>
       </c>
       <c r="F63" t="n">
-        <v>370320</v>
+        <v>386727</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2417</v>
+        <v>3084</v>
       </c>
       <c r="D64" t="n">
-        <v>19831</v>
+        <v>17332</v>
       </c>
       <c r="E64" t="n">
-        <v>24529</v>
+        <v>27613</v>
       </c>
       <c r="F64" t="n">
-        <v>352988</v>
+        <v>370320</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3238</v>
+        <v>2417</v>
       </c>
       <c r="D65" t="n">
-        <v>21582</v>
+        <v>19831</v>
       </c>
       <c r="E65" t="n">
-        <v>22112</v>
+        <v>24529</v>
       </c>
       <c r="F65" t="n">
-        <v>333157</v>
+        <v>352988</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3590</v>
+        <v>3238</v>
       </c>
       <c r="D66" t="n">
-        <v>19923</v>
+        <v>21582</v>
       </c>
       <c r="E66" t="n">
-        <v>18874</v>
+        <v>22112</v>
       </c>
       <c r="F66" t="n">
-        <v>311575</v>
+        <v>333157</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3200</v>
+        <v>3590</v>
       </c>
       <c r="D67" t="n">
-        <v>19872</v>
+        <v>19923</v>
       </c>
       <c r="E67" t="n">
-        <v>15284</v>
+        <v>18874</v>
       </c>
       <c r="F67" t="n">
-        <v>291652</v>
+        <v>311575</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2573</v>
+        <v>3200</v>
       </c>
       <c r="D68" t="n">
-        <v>25146</v>
+        <v>19872</v>
       </c>
       <c r="E68" t="n">
-        <v>12084</v>
+        <v>15284</v>
       </c>
       <c r="F68" t="n">
-        <v>271780</v>
+        <v>291652</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1189</v>
+        <v>2573</v>
       </c>
       <c r="D69" t="n">
-        <v>25141</v>
+        <v>25146</v>
       </c>
       <c r="E69" t="n">
-        <v>9511</v>
+        <v>12084</v>
       </c>
       <c r="F69" t="n">
-        <v>246634</v>
+        <v>271780</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>994</v>
+        <v>1189</v>
       </c>
       <c r="D70" t="n">
-        <v>22348</v>
+        <v>25141</v>
       </c>
       <c r="E70" t="n">
-        <v>8322</v>
+        <v>9511</v>
       </c>
       <c r="F70" t="n">
-        <v>221493</v>
+        <v>246634</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="D71" t="n">
-        <v>25173</v>
+        <v>22348</v>
       </c>
       <c r="E71" t="n">
-        <v>7328</v>
+        <v>8322</v>
       </c>
       <c r="F71" t="n">
-        <v>199145</v>
+        <v>221493</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1006</v>
+        <v>914</v>
       </c>
       <c r="D72" t="n">
-        <v>23937</v>
+        <v>25173</v>
       </c>
       <c r="E72" t="n">
-        <v>6414</v>
+        <v>7328</v>
       </c>
       <c r="F72" t="n">
-        <v>173972</v>
+        <v>199145</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D73" t="n">
-        <v>22609</v>
+        <v>23937</v>
       </c>
       <c r="E73" t="n">
-        <v>5408</v>
+        <v>6414</v>
       </c>
       <c r="F73" t="n">
-        <v>150035</v>
+        <v>173972</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D74" t="n">
-        <v>20398</v>
+        <v>22609</v>
       </c>
       <c r="E74" t="n">
-        <v>4393</v>
+        <v>5408</v>
       </c>
       <c r="F74" t="n">
-        <v>127426</v>
+        <v>150035</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="D75" t="n">
-        <v>19660</v>
+        <v>20398</v>
       </c>
       <c r="E75" t="n">
-        <v>3569</v>
+        <v>4393</v>
       </c>
       <c r="F75" t="n">
-        <v>107028</v>
+        <v>127426</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D76" t="n">
-        <v>16766</v>
+        <v>19660</v>
       </c>
       <c r="E76" t="n">
-        <v>3247</v>
+        <v>3569</v>
       </c>
       <c r="F76" t="n">
-        <v>87368</v>
+        <v>107028</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D77" t="n">
-        <v>13086</v>
+        <v>16766</v>
       </c>
       <c r="E77" t="n">
-        <v>2936</v>
+        <v>3247</v>
       </c>
       <c r="F77" t="n">
-        <v>70602</v>
+        <v>87368</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="D78" t="n">
-        <v>8581</v>
+        <v>13086</v>
       </c>
       <c r="E78" t="n">
-        <v>2668</v>
+        <v>2936</v>
       </c>
       <c r="F78" t="n">
-        <v>57516</v>
+        <v>70602</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>7788</v>
+        <v>8581</v>
       </c>
       <c r="E79" t="n">
-        <v>2243</v>
+        <v>2668</v>
       </c>
       <c r="F79" t="n">
-        <v>48935</v>
+        <v>57516</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="D80" t="n">
-        <v>6051</v>
+        <v>7788</v>
       </c>
       <c r="E80" t="n">
-        <v>1805</v>
+        <v>2243</v>
       </c>
       <c r="F80" t="n">
-        <v>41147</v>
+        <v>48935</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
-        <v>4144</v>
+        <v>6051</v>
       </c>
       <c r="E81" t="n">
-        <v>1545</v>
+        <v>1805</v>
       </c>
       <c r="F81" t="n">
-        <v>35096</v>
+        <v>41147</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D82" t="n">
-        <v>5298</v>
+        <v>4144</v>
       </c>
       <c r="E82" t="n">
-        <v>1187</v>
+        <v>1545</v>
       </c>
       <c r="F82" t="n">
-        <v>30952</v>
+        <v>35096</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D83" t="n">
-        <v>5656</v>
+        <v>5298</v>
       </c>
       <c r="E83" t="n">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="F83" t="n">
-        <v>25654</v>
+        <v>30952</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="D84" t="n">
-        <v>4381</v>
+        <v>5656</v>
       </c>
       <c r="E84" t="n">
-        <v>506</v>
+        <v>832</v>
       </c>
       <c r="F84" t="n">
-        <v>19998</v>
+        <v>25654</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D85" t="n">
-        <v>3450</v>
+        <v>4381</v>
       </c>
       <c r="E85" t="n">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F85" t="n">
-        <v>15617</v>
+        <v>19998</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>2631</v>
+        <v>3450</v>
       </c>
       <c r="E86" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F86" t="n">
-        <v>12167</v>
+        <v>15617</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>2231</v>
+        <v>2631</v>
       </c>
       <c r="E87" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F87" t="n">
-        <v>9536</v>
+        <v>12167</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
-        <v>1580</v>
+        <v>2231</v>
       </c>
       <c r="E88" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F88" t="n">
-        <v>7305</v>
+        <v>9536</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D89" t="n">
-        <v>979</v>
+        <v>1580</v>
       </c>
       <c r="E89" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F89" t="n">
-        <v>5725</v>
+        <v>7305</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E90" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F90" t="n">
-        <v>4746</v>
+        <v>5725</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="E91" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F91" t="n">
-        <v>3769</v>
+        <v>4746</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E92" t="n">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F92" t="n">
-        <v>2904</v>
+        <v>3769</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>492</v>
+        <v>734</v>
       </c>
       <c r="E93" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F93" t="n">
-        <v>2170</v>
+        <v>2904</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E94" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F94" t="n">
-        <v>1678</v>
+        <v>2170</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E95" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F95" t="n">
-        <v>1312</v>
+        <v>1678</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D96" t="n">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E96" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F96" t="n">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E97" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F97" t="n">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="E98" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F98" t="n">
-        <v>762</v>
+        <v>959</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F99" t="n">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F100" t="n">
-        <v>504</v>
+        <v>632</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F101" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E102" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F102" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E103" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F103" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E104" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F105" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F106" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F110" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,22 +3196,47 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C112" t="n">
         <v>1</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D112" t="n">
         <v>1</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E112" t="n">
         <v>1</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F112" t="n">
         <v>1</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G112" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>58114</v>
+        <v>58135</v>
       </c>
       <c r="F2" t="n">
-        <v>591508</v>
+        <v>591516</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>58104</v>
+        <v>58133</v>
       </c>
       <c r="F3" t="n">
-        <v>591505</v>
+        <v>591515</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>58101</v>
+        <v>58124</v>
       </c>
       <c r="F4" t="n">
-        <v>591499</v>
+        <v>591515</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>58100</v>
+        <v>58120</v>
       </c>
       <c r="F5" t="n">
-        <v>591493</v>
+        <v>591511</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>58098</v>
+        <v>58114</v>
       </c>
       <c r="F6" t="n">
-        <v>591491</v>
+        <v>591508</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>58089</v>
+        <v>58104</v>
       </c>
       <c r="F7" t="n">
-        <v>591484</v>
+        <v>591505</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>58076</v>
+        <v>58101</v>
       </c>
       <c r="F8" t="n">
-        <v>591482</v>
+        <v>591499</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>58073</v>
+        <v>58100</v>
       </c>
       <c r="F9" t="n">
-        <v>591468</v>
+        <v>591493</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>58062</v>
+        <v>58098</v>
       </c>
       <c r="F10" t="n">
-        <v>591442</v>
+        <v>591491</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>58052</v>
+        <v>58089</v>
       </c>
       <c r="F11" t="n">
-        <v>591423</v>
+        <v>591484</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>58045</v>
+        <v>58076</v>
       </c>
       <c r="F12" t="n">
-        <v>591414</v>
+        <v>591482</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>58039</v>
+        <v>58073</v>
       </c>
       <c r="F13" t="n">
-        <v>591409</v>
+        <v>591468</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>58035</v>
+        <v>58062</v>
       </c>
       <c r="F14" t="n">
-        <v>591404</v>
+        <v>591442</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>58031</v>
+        <v>58052</v>
       </c>
       <c r="F15" t="n">
-        <v>591393</v>
+        <v>591423</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>58028</v>
+        <v>58045</v>
       </c>
       <c r="F16" t="n">
-        <v>591386</v>
+        <v>591414</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>58024</v>
+        <v>58039</v>
       </c>
       <c r="F17" t="n">
-        <v>591382</v>
+        <v>591409</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>58018</v>
+        <v>58035</v>
       </c>
       <c r="F18" t="n">
-        <v>591366</v>
+        <v>591404</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>58013</v>
+        <v>58031</v>
       </c>
       <c r="F19" t="n">
-        <v>591357</v>
+        <v>591393</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>58005</v>
+        <v>58028</v>
       </c>
       <c r="F20" t="n">
-        <v>591349</v>
+        <v>591386</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>58000</v>
+        <v>58024</v>
       </c>
       <c r="F21" t="n">
-        <v>591341</v>
+        <v>591382</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
         <v>9</v>
       </c>
-      <c r="D22" t="n">
-        <v>22</v>
-      </c>
       <c r="E22" t="n">
-        <v>57995</v>
+        <v>58018</v>
       </c>
       <c r="F22" t="n">
-        <v>591331</v>
+        <v>591366</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>57986</v>
+        <v>58013</v>
       </c>
       <c r="F23" t="n">
-        <v>591309</v>
+        <v>591357</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>57980</v>
+        <v>58005</v>
       </c>
       <c r="F24" t="n">
-        <v>591248</v>
+        <v>591349</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>57951</v>
+        <v>58000</v>
       </c>
       <c r="F25" t="n">
-        <v>591155</v>
+        <v>591341</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>57912</v>
+        <v>57995</v>
       </c>
       <c r="F26" t="n">
-        <v>591024</v>
+        <v>591331</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
-        <v>57867</v>
+        <v>57986</v>
       </c>
       <c r="F27" t="n">
-        <v>590805</v>
+        <v>591309</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="E28" t="n">
-        <v>57819</v>
+        <v>57980</v>
       </c>
       <c r="F28" t="n">
-        <v>590515</v>
+        <v>591248</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="E29" t="n">
-        <v>57775</v>
+        <v>57951</v>
       </c>
       <c r="F29" t="n">
-        <v>590172</v>
+        <v>591155</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="E30" t="n">
-        <v>57717</v>
+        <v>57912</v>
       </c>
       <c r="F30" t="n">
-        <v>589750</v>
+        <v>591024</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="E31" t="n">
-        <v>57662</v>
+        <v>57867</v>
       </c>
       <c r="F31" t="n">
-        <v>589247</v>
+        <v>590805</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
-        <v>784</v>
+        <v>343</v>
       </c>
       <c r="E32" t="n">
-        <v>57610</v>
+        <v>57819</v>
       </c>
       <c r="F32" t="n">
-        <v>588677</v>
+        <v>590515</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D33" t="n">
-        <v>770</v>
+        <v>422</v>
       </c>
       <c r="E33" t="n">
-        <v>57526</v>
+        <v>57775</v>
       </c>
       <c r="F33" t="n">
-        <v>587893</v>
+        <v>590172</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>637</v>
+        <v>503</v>
       </c>
       <c r="E34" t="n">
-        <v>57438</v>
+        <v>57717</v>
       </c>
       <c r="F34" t="n">
-        <v>587123</v>
+        <v>589750</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
-        <v>759</v>
+        <v>570</v>
       </c>
       <c r="E35" t="n">
-        <v>57356</v>
+        <v>57662</v>
       </c>
       <c r="F35" t="n">
-        <v>586486</v>
+        <v>589247</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D36" t="n">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="E36" t="n">
-        <v>57260</v>
+        <v>57610</v>
       </c>
       <c r="F36" t="n">
-        <v>585727</v>
+        <v>588677</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D37" t="n">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="E37" t="n">
-        <v>57183</v>
+        <v>57526</v>
       </c>
       <c r="F37" t="n">
-        <v>584981</v>
+        <v>587893</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D38" t="n">
-        <v>1203</v>
+        <v>637</v>
       </c>
       <c r="E38" t="n">
-        <v>57114</v>
+        <v>57438</v>
       </c>
       <c r="F38" t="n">
-        <v>584112</v>
+        <v>587123</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="D39" t="n">
-        <v>1487</v>
+        <v>759</v>
       </c>
       <c r="E39" t="n">
-        <v>56948</v>
+        <v>57356</v>
       </c>
       <c r="F39" t="n">
-        <v>582909</v>
+        <v>586486</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="D40" t="n">
-        <v>1869</v>
+        <v>746</v>
       </c>
       <c r="E40" t="n">
-        <v>56754</v>
+        <v>57260</v>
       </c>
       <c r="F40" t="n">
-        <v>581422</v>
+        <v>585727</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D41" t="n">
-        <v>1305</v>
+        <v>869</v>
       </c>
       <c r="E41" t="n">
-        <v>56527</v>
+        <v>57183</v>
       </c>
       <c r="F41" t="n">
-        <v>579553</v>
+        <v>584981</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="D42" t="n">
-        <v>1259</v>
+        <v>1203</v>
       </c>
       <c r="E42" t="n">
-        <v>56383</v>
+        <v>57114</v>
       </c>
       <c r="F42" t="n">
-        <v>578248</v>
+        <v>584112</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D43" t="n">
-        <v>2780</v>
+        <v>1487</v>
       </c>
       <c r="E43" t="n">
-        <v>56155</v>
+        <v>56948</v>
       </c>
       <c r="F43" t="n">
-        <v>576989</v>
+        <v>582909</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="D44" t="n">
-        <v>3625</v>
+        <v>1869</v>
       </c>
       <c r="E44" t="n">
-        <v>55921</v>
+        <v>56754</v>
       </c>
       <c r="F44" t="n">
-        <v>574209</v>
+        <v>581422</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D45" t="n">
-        <v>3760</v>
+        <v>1305</v>
       </c>
       <c r="E45" t="n">
-        <v>55599</v>
+        <v>56527</v>
       </c>
       <c r="F45" t="n">
-        <v>570584</v>
+        <v>579553</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D46" t="n">
-        <v>3961</v>
+        <v>1259</v>
       </c>
       <c r="E46" t="n">
-        <v>55384</v>
+        <v>56383</v>
       </c>
       <c r="F46" t="n">
-        <v>566824</v>
+        <v>578248</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D47" t="n">
-        <v>4024</v>
+        <v>2780</v>
       </c>
       <c r="E47" t="n">
-        <v>55131</v>
+        <v>56155</v>
       </c>
       <c r="F47" t="n">
-        <v>562863</v>
+        <v>576989</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="D48" t="n">
-        <v>4390</v>
+        <v>3625</v>
       </c>
       <c r="E48" t="n">
-        <v>54886</v>
+        <v>55921</v>
       </c>
       <c r="F48" t="n">
-        <v>558839</v>
+        <v>574209</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D49" t="n">
-        <v>4722</v>
+        <v>3760</v>
       </c>
       <c r="E49" t="n">
-        <v>54625</v>
+        <v>55599</v>
       </c>
       <c r="F49" t="n">
-        <v>554449</v>
+        <v>570584</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D50" t="n">
-        <v>5395</v>
+        <v>3961</v>
       </c>
       <c r="E50" t="n">
-        <v>54365</v>
+        <v>55384</v>
       </c>
       <c r="F50" t="n">
-        <v>549727</v>
+        <v>566824</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>727</v>
+        <v>245</v>
       </c>
       <c r="D51" t="n">
-        <v>6606</v>
+        <v>4024</v>
       </c>
       <c r="E51" t="n">
-        <v>54091</v>
+        <v>55131</v>
       </c>
       <c r="F51" t="n">
-        <v>544332</v>
+        <v>562863</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>788</v>
+        <v>261</v>
       </c>
       <c r="D52" t="n">
-        <v>7084</v>
+        <v>4390</v>
       </c>
       <c r="E52" t="n">
-        <v>53364</v>
+        <v>54886</v>
       </c>
       <c r="F52" t="n">
-        <v>537726</v>
+        <v>558839</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1249</v>
+        <v>260</v>
       </c>
       <c r="D53" t="n">
-        <v>8932</v>
+        <v>4722</v>
       </c>
       <c r="E53" t="n">
-        <v>52576</v>
+        <v>54625</v>
       </c>
       <c r="F53" t="n">
-        <v>530642</v>
+        <v>554449</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5487</v>
+        <v>274</v>
       </c>
       <c r="D54" t="n">
-        <v>9545</v>
+        <v>5395</v>
       </c>
       <c r="E54" t="n">
-        <v>51327</v>
+        <v>54365</v>
       </c>
       <c r="F54" t="n">
-        <v>521710</v>
+        <v>549727</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1292</v>
+        <v>727</v>
       </c>
       <c r="D55" t="n">
-        <v>9330</v>
+        <v>6606</v>
       </c>
       <c r="E55" t="n">
-        <v>45840</v>
+        <v>54091</v>
       </c>
       <c r="F55" t="n">
-        <v>512165</v>
+        <v>544332</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1606</v>
+        <v>788</v>
       </c>
       <c r="D56" t="n">
-        <v>11956</v>
+        <v>7084</v>
       </c>
       <c r="E56" t="n">
-        <v>44548</v>
+        <v>53364</v>
       </c>
       <c r="F56" t="n">
-        <v>502835</v>
+        <v>537726</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1661</v>
+        <v>1249</v>
       </c>
       <c r="D57" t="n">
-        <v>15319</v>
+        <v>8932</v>
       </c>
       <c r="E57" t="n">
-        <v>42942</v>
+        <v>52576</v>
       </c>
       <c r="F57" t="n">
-        <v>490879</v>
+        <v>530642</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2472</v>
+        <v>5487</v>
       </c>
       <c r="D58" t="n">
-        <v>16983</v>
+        <v>9545</v>
       </c>
       <c r="E58" t="n">
-        <v>41281</v>
+        <v>51327</v>
       </c>
       <c r="F58" t="n">
-        <v>475560</v>
+        <v>521710</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1401</v>
+        <v>1292</v>
       </c>
       <c r="D59" t="n">
-        <v>19657</v>
+        <v>9330</v>
       </c>
       <c r="E59" t="n">
-        <v>38809</v>
+        <v>45840</v>
       </c>
       <c r="F59" t="n">
-        <v>458577</v>
+        <v>512165</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2736</v>
+        <v>1606</v>
       </c>
       <c r="D60" t="n">
-        <v>20634</v>
+        <v>11956</v>
       </c>
       <c r="E60" t="n">
-        <v>37408</v>
+        <v>44548</v>
       </c>
       <c r="F60" t="n">
-        <v>438920</v>
+        <v>502835</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1931</v>
+        <v>1661</v>
       </c>
       <c r="D61" t="n">
-        <v>15698</v>
+        <v>15319</v>
       </c>
       <c r="E61" t="n">
-        <v>34672</v>
+        <v>42942</v>
       </c>
       <c r="F61" t="n">
-        <v>418286</v>
+        <v>490879</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2634</v>
+        <v>2472</v>
       </c>
       <c r="D62" t="n">
-        <v>15861</v>
+        <v>16983</v>
       </c>
       <c r="E62" t="n">
-        <v>32741</v>
+        <v>41281</v>
       </c>
       <c r="F62" t="n">
-        <v>402588</v>
+        <v>475560</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2494</v>
+        <v>1401</v>
       </c>
       <c r="D63" t="n">
-        <v>16407</v>
+        <v>19657</v>
       </c>
       <c r="E63" t="n">
-        <v>30107</v>
+        <v>38809</v>
       </c>
       <c r="F63" t="n">
-        <v>386727</v>
+        <v>458577</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3084</v>
+        <v>2736</v>
       </c>
       <c r="D64" t="n">
-        <v>17332</v>
+        <v>20634</v>
       </c>
       <c r="E64" t="n">
-        <v>27613</v>
+        <v>37408</v>
       </c>
       <c r="F64" t="n">
-        <v>370320</v>
+        <v>438920</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2417</v>
+        <v>1931</v>
       </c>
       <c r="D65" t="n">
-        <v>19831</v>
+        <v>15698</v>
       </c>
       <c r="E65" t="n">
-        <v>24529</v>
+        <v>34672</v>
       </c>
       <c r="F65" t="n">
-        <v>352988</v>
+        <v>418286</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3238</v>
+        <v>2634</v>
       </c>
       <c r="D66" t="n">
-        <v>21582</v>
+        <v>15861</v>
       </c>
       <c r="E66" t="n">
-        <v>22112</v>
+        <v>32741</v>
       </c>
       <c r="F66" t="n">
-        <v>333157</v>
+        <v>402588</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3590</v>
+        <v>2494</v>
       </c>
       <c r="D67" t="n">
-        <v>19923</v>
+        <v>16407</v>
       </c>
       <c r="E67" t="n">
-        <v>18874</v>
+        <v>30107</v>
       </c>
       <c r="F67" t="n">
-        <v>311575</v>
+        <v>386727</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3200</v>
+        <v>3084</v>
       </c>
       <c r="D68" t="n">
-        <v>19872</v>
+        <v>17332</v>
       </c>
       <c r="E68" t="n">
-        <v>15284</v>
+        <v>27613</v>
       </c>
       <c r="F68" t="n">
-        <v>291652</v>
+        <v>370320</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2573</v>
+        <v>2417</v>
       </c>
       <c r="D69" t="n">
-        <v>25146</v>
+        <v>19831</v>
       </c>
       <c r="E69" t="n">
-        <v>12084</v>
+        <v>24529</v>
       </c>
       <c r="F69" t="n">
-        <v>271780</v>
+        <v>352988</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1189</v>
+        <v>3238</v>
       </c>
       <c r="D70" t="n">
-        <v>25141</v>
+        <v>21582</v>
       </c>
       <c r="E70" t="n">
-        <v>9511</v>
+        <v>22112</v>
       </c>
       <c r="F70" t="n">
-        <v>246634</v>
+        <v>333157</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>994</v>
+        <v>3590</v>
       </c>
       <c r="D71" t="n">
-        <v>22348</v>
+        <v>19923</v>
       </c>
       <c r="E71" t="n">
-        <v>8322</v>
+        <v>18874</v>
       </c>
       <c r="F71" t="n">
-        <v>221493</v>
+        <v>311575</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>914</v>
+        <v>3200</v>
       </c>
       <c r="D72" t="n">
-        <v>25173</v>
+        <v>19872</v>
       </c>
       <c r="E72" t="n">
-        <v>7328</v>
+        <v>15284</v>
       </c>
       <c r="F72" t="n">
-        <v>199145</v>
+        <v>291652</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1006</v>
+        <v>2573</v>
       </c>
       <c r="D73" t="n">
-        <v>23937</v>
+        <v>25146</v>
       </c>
       <c r="E73" t="n">
-        <v>6414</v>
+        <v>12084</v>
       </c>
       <c r="F73" t="n">
-        <v>173972</v>
+        <v>271780</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1015</v>
+        <v>1189</v>
       </c>
       <c r="D74" t="n">
-        <v>22609</v>
+        <v>25141</v>
       </c>
       <c r="E74" t="n">
-        <v>5408</v>
+        <v>9511</v>
       </c>
       <c r="F74" t="n">
-        <v>150035</v>
+        <v>246634</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>824</v>
+        <v>994</v>
       </c>
       <c r="D75" t="n">
-        <v>20398</v>
+        <v>22348</v>
       </c>
       <c r="E75" t="n">
-        <v>4393</v>
+        <v>8322</v>
       </c>
       <c r="F75" t="n">
-        <v>127426</v>
+        <v>221493</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>322</v>
+        <v>914</v>
       </c>
       <c r="D76" t="n">
-        <v>19660</v>
+        <v>25173</v>
       </c>
       <c r="E76" t="n">
-        <v>3569</v>
+        <v>7328</v>
       </c>
       <c r="F76" t="n">
-        <v>107028</v>
+        <v>199145</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>311</v>
+        <v>1006</v>
       </c>
       <c r="D77" t="n">
-        <v>16766</v>
+        <v>23937</v>
       </c>
       <c r="E77" t="n">
-        <v>3247</v>
+        <v>6414</v>
       </c>
       <c r="F77" t="n">
-        <v>87368</v>
+        <v>173972</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>268</v>
+        <v>1015</v>
       </c>
       <c r="D78" t="n">
-        <v>13086</v>
+        <v>22609</v>
       </c>
       <c r="E78" t="n">
-        <v>2936</v>
+        <v>5408</v>
       </c>
       <c r="F78" t="n">
-        <v>70602</v>
+        <v>150035</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>824</v>
       </c>
       <c r="D79" t="n">
-        <v>8581</v>
+        <v>20398</v>
       </c>
       <c r="E79" t="n">
-        <v>2668</v>
+        <v>4393</v>
       </c>
       <c r="F79" t="n">
-        <v>57516</v>
+        <v>127426</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>438</v>
+        <v>322</v>
       </c>
       <c r="D80" t="n">
-        <v>7788</v>
+        <v>19660</v>
       </c>
       <c r="E80" t="n">
-        <v>2243</v>
+        <v>3569</v>
       </c>
       <c r="F80" t="n">
-        <v>48935</v>
+        <v>107028</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D81" t="n">
-        <v>6051</v>
+        <v>16766</v>
       </c>
       <c r="E81" t="n">
-        <v>1805</v>
+        <v>3247</v>
       </c>
       <c r="F81" t="n">
-        <v>41147</v>
+        <v>87368</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="D82" t="n">
-        <v>4144</v>
+        <v>13086</v>
       </c>
       <c r="E82" t="n">
-        <v>1545</v>
+        <v>2936</v>
       </c>
       <c r="F82" t="n">
-        <v>35096</v>
+        <v>70602</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D83" t="n">
-        <v>5298</v>
+        <v>8581</v>
       </c>
       <c r="E83" t="n">
-        <v>1187</v>
+        <v>2668</v>
       </c>
       <c r="F83" t="n">
-        <v>30952</v>
+        <v>57516</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="D84" t="n">
-        <v>5656</v>
+        <v>7788</v>
       </c>
       <c r="E84" t="n">
-        <v>832</v>
+        <v>2243</v>
       </c>
       <c r="F84" t="n">
-        <v>25654</v>
+        <v>48935</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="D85" t="n">
-        <v>4381</v>
+        <v>6051</v>
       </c>
       <c r="E85" t="n">
-        <v>506</v>
+        <v>1805</v>
       </c>
       <c r="F85" t="n">
-        <v>19998</v>
+        <v>41147</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="D86" t="n">
-        <v>3450</v>
+        <v>4144</v>
       </c>
       <c r="E86" t="n">
-        <v>410</v>
+        <v>1545</v>
       </c>
       <c r="F86" t="n">
-        <v>15617</v>
+        <v>35096</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="D87" t="n">
-        <v>2631</v>
+        <v>5298</v>
       </c>
       <c r="E87" t="n">
-        <v>360</v>
+        <v>1187</v>
       </c>
       <c r="F87" t="n">
-        <v>12167</v>
+        <v>30952</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="D88" t="n">
-        <v>2231</v>
+        <v>5656</v>
       </c>
       <c r="E88" t="n">
-        <v>315</v>
+        <v>832</v>
       </c>
       <c r="F88" t="n">
-        <v>9536</v>
+        <v>25654</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D89" t="n">
-        <v>1580</v>
+        <v>4381</v>
       </c>
       <c r="E89" t="n">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="F89" t="n">
-        <v>7305</v>
+        <v>19998</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
-        <v>979</v>
+        <v>3450</v>
       </c>
       <c r="E90" t="n">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="F90" t="n">
-        <v>5725</v>
+        <v>15617</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>977</v>
+        <v>2631</v>
       </c>
       <c r="E91" t="n">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="F91" t="n">
-        <v>4746</v>
+        <v>12167</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>865</v>
+        <v>2231</v>
       </c>
       <c r="E92" t="n">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="F92" t="n">
-        <v>3769</v>
+        <v>9536</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>734</v>
+        <v>1580</v>
       </c>
       <c r="E93" t="n">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="F93" t="n">
-        <v>2904</v>
+        <v>7305</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>492</v>
+        <v>979</v>
       </c>
       <c r="E94" t="n">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="F94" t="n">
-        <v>2170</v>
+        <v>5725</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>366</v>
+        <v>977</v>
       </c>
       <c r="E95" t="n">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F95" t="n">
-        <v>1678</v>
+        <v>4746</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
-        <v>203</v>
+        <v>865</v>
       </c>
       <c r="E96" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F96" t="n">
-        <v>1312</v>
+        <v>3769</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
-        <v>150</v>
+        <v>734</v>
       </c>
       <c r="E97" t="n">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="F97" t="n">
-        <v>1109</v>
+        <v>2904</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D98" t="n">
-        <v>197</v>
+        <v>492</v>
       </c>
       <c r="E98" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="F98" t="n">
-        <v>959</v>
+        <v>2170</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="E99" t="n">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F99" t="n">
-        <v>762</v>
+        <v>1678</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E100" t="n">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F100" t="n">
-        <v>632</v>
+        <v>1312</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E101" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F101" t="n">
-        <v>504</v>
+        <v>1109</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="E102" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F102" t="n">
-        <v>440</v>
+        <v>959</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E103" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F103" t="n">
-        <v>362</v>
+        <v>762</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E104" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F104" t="n">
-        <v>298</v>
+        <v>632</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E105" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F105" t="n">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E106" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F106" t="n">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F107" t="n">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F108" t="n">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F109" t="n">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3221,22 +3221,122 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>28</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>64</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>36</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C116" t="n">
         <v>1</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D116" t="n">
         <v>1</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E116" t="n">
         <v>1</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F116" t="n">
         <v>1</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G116" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>58135</v>
@@ -496,20 +496,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>58133</v>
+        <v>58135</v>
       </c>
       <c r="F3" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,17 +521,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58124</v>
+        <v>58133</v>
       </c>
       <c r="F4" t="n">
         <v>591515</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>58120</v>
+        <v>58124</v>
       </c>
       <c r="F5" t="n">
-        <v>591511</v>
+        <v>591515</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>58114</v>
+        <v>58120</v>
       </c>
       <c r="F6" t="n">
-        <v>591508</v>
+        <v>591511</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
       <c r="E7" t="n">
-        <v>58104</v>
+        <v>58114</v>
       </c>
       <c r="F7" t="n">
-        <v>591505</v>
+        <v>591508</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>58101</v>
+        <v>58104</v>
       </c>
       <c r="F8" t="n">
-        <v>591499</v>
+        <v>591505</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>58100</v>
+        <v>58101</v>
       </c>
       <c r="F9" t="n">
-        <v>591493</v>
+        <v>591499</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>58098</v>
+        <v>58100</v>
       </c>
       <c r="F10" t="n">
-        <v>591491</v>
+        <v>591493</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>58089</v>
+        <v>58098</v>
       </c>
       <c r="F11" t="n">
-        <v>591484</v>
+        <v>591491</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>58076</v>
+        <v>58089</v>
       </c>
       <c r="F12" t="n">
-        <v>591482</v>
+        <v>591484</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>58073</v>
+        <v>58076</v>
       </c>
       <c r="F13" t="n">
-        <v>591468</v>
+        <v>591482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>58062</v>
+        <v>58073</v>
       </c>
       <c r="F14" t="n">
-        <v>591442</v>
+        <v>591468</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>58052</v>
+        <v>58062</v>
       </c>
       <c r="F15" t="n">
-        <v>591423</v>
+        <v>591442</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>58045</v>
+        <v>58052</v>
       </c>
       <c r="F16" t="n">
-        <v>591414</v>
+        <v>591423</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>58039</v>
+        <v>58045</v>
       </c>
       <c r="F17" t="n">
-        <v>591409</v>
+        <v>591414</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>58035</v>
+        <v>58039</v>
       </c>
       <c r="F18" t="n">
-        <v>591404</v>
+        <v>591409</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>58031</v>
+        <v>58035</v>
       </c>
       <c r="F19" t="n">
-        <v>591393</v>
+        <v>591404</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>58028</v>
+        <v>58031</v>
       </c>
       <c r="F20" t="n">
-        <v>591386</v>
+        <v>591393</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>58024</v>
+        <v>58028</v>
       </c>
       <c r="F21" t="n">
-        <v>591382</v>
+        <v>591386</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>58018</v>
+        <v>58024</v>
       </c>
       <c r="F22" t="n">
-        <v>591366</v>
+        <v>591382</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>58013</v>
+        <v>58018</v>
       </c>
       <c r="F23" t="n">
-        <v>591357</v>
+        <v>591366</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>58005</v>
+        <v>58013</v>
       </c>
       <c r="F24" t="n">
-        <v>591349</v>
+        <v>591357</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>58000</v>
+        <v>58005</v>
       </c>
       <c r="F25" t="n">
-        <v>591341</v>
+        <v>591349</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>57995</v>
+        <v>58000</v>
       </c>
       <c r="F26" t="n">
-        <v>591331</v>
+        <v>591341</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>57986</v>
+        <v>57995</v>
       </c>
       <c r="F27" t="n">
-        <v>591309</v>
+        <v>591331</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>57980</v>
+        <v>57986</v>
       </c>
       <c r="F28" t="n">
-        <v>591248</v>
+        <v>591309</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E29" t="n">
-        <v>57951</v>
+        <v>57980</v>
       </c>
       <c r="F29" t="n">
-        <v>591155</v>
+        <v>591248</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="E30" t="n">
-        <v>57912</v>
+        <v>57951</v>
       </c>
       <c r="F30" t="n">
-        <v>591024</v>
+        <v>591155</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="E31" t="n">
-        <v>57867</v>
+        <v>57912</v>
       </c>
       <c r="F31" t="n">
-        <v>590805</v>
+        <v>591024</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="E32" t="n">
-        <v>57819</v>
+        <v>57867</v>
       </c>
       <c r="F32" t="n">
-        <v>590515</v>
+        <v>590805</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="E33" t="n">
-        <v>57775</v>
+        <v>57819</v>
       </c>
       <c r="F33" t="n">
-        <v>590172</v>
+        <v>590515</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D34" t="n">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="E34" t="n">
-        <v>57717</v>
+        <v>57775</v>
       </c>
       <c r="F34" t="n">
-        <v>589750</v>
+        <v>590172</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="E35" t="n">
-        <v>57662</v>
+        <v>57717</v>
       </c>
       <c r="F35" t="n">
-        <v>589247</v>
+        <v>589750</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D36" t="n">
-        <v>784</v>
+        <v>570</v>
       </c>
       <c r="E36" t="n">
-        <v>57610</v>
+        <v>57662</v>
       </c>
       <c r="F36" t="n">
-        <v>588677</v>
+        <v>589247</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37" t="n">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="E37" t="n">
-        <v>57526</v>
+        <v>57610</v>
       </c>
       <c r="F37" t="n">
-        <v>587893</v>
+        <v>588677</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D38" t="n">
-        <v>637</v>
+        <v>770</v>
       </c>
       <c r="E38" t="n">
-        <v>57438</v>
+        <v>57526</v>
       </c>
       <c r="F38" t="n">
-        <v>587123</v>
+        <v>587893</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D39" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="E39" t="n">
-        <v>57356</v>
+        <v>57438</v>
       </c>
       <c r="F39" t="n">
-        <v>586486</v>
+        <v>587123</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D40" t="n">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="E40" t="n">
-        <v>57260</v>
+        <v>57356</v>
       </c>
       <c r="F40" t="n">
-        <v>585727</v>
+        <v>586486</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D41" t="n">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="E41" t="n">
-        <v>57183</v>
+        <v>57260</v>
       </c>
       <c r="F41" t="n">
-        <v>584981</v>
+        <v>585727</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D42" t="n">
-        <v>1203</v>
+        <v>869</v>
       </c>
       <c r="E42" t="n">
-        <v>57114</v>
+        <v>57183</v>
       </c>
       <c r="F42" t="n">
-        <v>584112</v>
+        <v>584981</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D43" t="n">
-        <v>1487</v>
+        <v>1203</v>
       </c>
       <c r="E43" t="n">
-        <v>56948</v>
+        <v>57114</v>
       </c>
       <c r="F43" t="n">
-        <v>582909</v>
+        <v>584112</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D44" t="n">
-        <v>1869</v>
+        <v>1487</v>
       </c>
       <c r="E44" t="n">
-        <v>56754</v>
+        <v>56948</v>
       </c>
       <c r="F44" t="n">
-        <v>581422</v>
+        <v>582909</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D45" t="n">
-        <v>1305</v>
+        <v>1869</v>
       </c>
       <c r="E45" t="n">
-        <v>56527</v>
+        <v>56754</v>
       </c>
       <c r="F45" t="n">
-        <v>579553</v>
+        <v>581422</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="D46" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="E46" t="n">
-        <v>56383</v>
+        <v>56527</v>
       </c>
       <c r="F46" t="n">
-        <v>578248</v>
+        <v>579553</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D47" t="n">
-        <v>2780</v>
+        <v>1259</v>
       </c>
       <c r="E47" t="n">
-        <v>56155</v>
+        <v>56383</v>
       </c>
       <c r="F47" t="n">
-        <v>576989</v>
+        <v>578248</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="D48" t="n">
-        <v>3625</v>
+        <v>2780</v>
       </c>
       <c r="E48" t="n">
-        <v>55921</v>
+        <v>56155</v>
       </c>
       <c r="F48" t="n">
-        <v>574209</v>
+        <v>576989</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="D49" t="n">
-        <v>3760</v>
+        <v>3625</v>
       </c>
       <c r="E49" t="n">
-        <v>55599</v>
+        <v>55921</v>
       </c>
       <c r="F49" t="n">
-        <v>570584</v>
+        <v>574209</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D50" t="n">
-        <v>3961</v>
+        <v>3760</v>
       </c>
       <c r="E50" t="n">
-        <v>55384</v>
+        <v>55599</v>
       </c>
       <c r="F50" t="n">
-        <v>566824</v>
+        <v>570584</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D51" t="n">
-        <v>4024</v>
+        <v>3961</v>
       </c>
       <c r="E51" t="n">
-        <v>55131</v>
+        <v>55384</v>
       </c>
       <c r="F51" t="n">
-        <v>562863</v>
+        <v>566824</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D52" t="n">
-        <v>4390</v>
+        <v>4024</v>
       </c>
       <c r="E52" t="n">
-        <v>54886</v>
+        <v>55131</v>
       </c>
       <c r="F52" t="n">
-        <v>558839</v>
+        <v>562863</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" t="n">
-        <v>4722</v>
+        <v>4390</v>
       </c>
       <c r="E53" t="n">
-        <v>54625</v>
+        <v>54886</v>
       </c>
       <c r="F53" t="n">
-        <v>554449</v>
+        <v>558839</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D54" t="n">
-        <v>5395</v>
+        <v>4722</v>
       </c>
       <c r="E54" t="n">
-        <v>54365</v>
+        <v>54625</v>
       </c>
       <c r="F54" t="n">
-        <v>549727</v>
+        <v>554449</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>727</v>
+        <v>274</v>
       </c>
       <c r="D55" t="n">
-        <v>6606</v>
+        <v>5395</v>
       </c>
       <c r="E55" t="n">
-        <v>54091</v>
+        <v>54365</v>
       </c>
       <c r="F55" t="n">
-        <v>544332</v>
+        <v>549727</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="D56" t="n">
-        <v>7084</v>
+        <v>6606</v>
       </c>
       <c r="E56" t="n">
-        <v>53364</v>
+        <v>54091</v>
       </c>
       <c r="F56" t="n">
-        <v>537726</v>
+        <v>544332</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1249</v>
+        <v>788</v>
       </c>
       <c r="D57" t="n">
-        <v>8932</v>
+        <v>7084</v>
       </c>
       <c r="E57" t="n">
-        <v>52576</v>
+        <v>53364</v>
       </c>
       <c r="F57" t="n">
-        <v>530642</v>
+        <v>537726</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5487</v>
+        <v>1249</v>
       </c>
       <c r="D58" t="n">
-        <v>9545</v>
+        <v>8932</v>
       </c>
       <c r="E58" t="n">
-        <v>51327</v>
+        <v>52576</v>
       </c>
       <c r="F58" t="n">
-        <v>521710</v>
+        <v>530642</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1292</v>
+        <v>5487</v>
       </c>
       <c r="D59" t="n">
-        <v>9330</v>
+        <v>9545</v>
       </c>
       <c r="E59" t="n">
-        <v>45840</v>
+        <v>51327</v>
       </c>
       <c r="F59" t="n">
-        <v>512165</v>
+        <v>521710</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1606</v>
+        <v>1292</v>
       </c>
       <c r="D60" t="n">
-        <v>11956</v>
+        <v>9330</v>
       </c>
       <c r="E60" t="n">
-        <v>44548</v>
+        <v>45840</v>
       </c>
       <c r="F60" t="n">
-        <v>502835</v>
+        <v>512165</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="D61" t="n">
-        <v>15319</v>
+        <v>11956</v>
       </c>
       <c r="E61" t="n">
-        <v>42942</v>
+        <v>44548</v>
       </c>
       <c r="F61" t="n">
-        <v>490879</v>
+        <v>502835</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2472</v>
+        <v>1661</v>
       </c>
       <c r="D62" t="n">
-        <v>16983</v>
+        <v>15319</v>
       </c>
       <c r="E62" t="n">
-        <v>41281</v>
+        <v>42942</v>
       </c>
       <c r="F62" t="n">
-        <v>475560</v>
+        <v>490879</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1401</v>
+        <v>2472</v>
       </c>
       <c r="D63" t="n">
-        <v>19657</v>
+        <v>16983</v>
       </c>
       <c r="E63" t="n">
-        <v>38809</v>
+        <v>41281</v>
       </c>
       <c r="F63" t="n">
-        <v>458577</v>
+        <v>475560</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2736</v>
+        <v>1401</v>
       </c>
       <c r="D64" t="n">
-        <v>20634</v>
+        <v>19657</v>
       </c>
       <c r="E64" t="n">
-        <v>37408</v>
+        <v>38809</v>
       </c>
       <c r="F64" t="n">
-        <v>438920</v>
+        <v>458577</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1931</v>
+        <v>2736</v>
       </c>
       <c r="D65" t="n">
-        <v>15698</v>
+        <v>20634</v>
       </c>
       <c r="E65" t="n">
-        <v>34672</v>
+        <v>37408</v>
       </c>
       <c r="F65" t="n">
-        <v>418286</v>
+        <v>438920</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2634</v>
+        <v>1931</v>
       </c>
       <c r="D66" t="n">
-        <v>15861</v>
+        <v>15698</v>
       </c>
       <c r="E66" t="n">
-        <v>32741</v>
+        <v>34672</v>
       </c>
       <c r="F66" t="n">
-        <v>402588</v>
+        <v>418286</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2494</v>
+        <v>2634</v>
       </c>
       <c r="D67" t="n">
-        <v>16407</v>
+        <v>15861</v>
       </c>
       <c r="E67" t="n">
-        <v>30107</v>
+        <v>32741</v>
       </c>
       <c r="F67" t="n">
-        <v>386727</v>
+        <v>402588</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3084</v>
+        <v>2494</v>
       </c>
       <c r="D68" t="n">
-        <v>17332</v>
+        <v>16407</v>
       </c>
       <c r="E68" t="n">
-        <v>27613</v>
+        <v>30107</v>
       </c>
       <c r="F68" t="n">
-        <v>370320</v>
+        <v>386727</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2417</v>
+        <v>3084</v>
       </c>
       <c r="D69" t="n">
-        <v>19831</v>
+        <v>17332</v>
       </c>
       <c r="E69" t="n">
-        <v>24529</v>
+        <v>27613</v>
       </c>
       <c r="F69" t="n">
-        <v>352988</v>
+        <v>370320</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3238</v>
+        <v>2417</v>
       </c>
       <c r="D70" t="n">
-        <v>21582</v>
+        <v>19831</v>
       </c>
       <c r="E70" t="n">
-        <v>22112</v>
+        <v>24529</v>
       </c>
       <c r="F70" t="n">
-        <v>333157</v>
+        <v>352988</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3590</v>
+        <v>3238</v>
       </c>
       <c r="D71" t="n">
-        <v>19923</v>
+        <v>21582</v>
       </c>
       <c r="E71" t="n">
-        <v>18874</v>
+        <v>22112</v>
       </c>
       <c r="F71" t="n">
-        <v>311575</v>
+        <v>333157</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3200</v>
+        <v>3590</v>
       </c>
       <c r="D72" t="n">
-        <v>19872</v>
+        <v>19923</v>
       </c>
       <c r="E72" t="n">
-        <v>15284</v>
+        <v>18874</v>
       </c>
       <c r="F72" t="n">
-        <v>291652</v>
+        <v>311575</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2573</v>
+        <v>3200</v>
       </c>
       <c r="D73" t="n">
-        <v>25146</v>
+        <v>19872</v>
       </c>
       <c r="E73" t="n">
-        <v>12084</v>
+        <v>15284</v>
       </c>
       <c r="F73" t="n">
-        <v>271780</v>
+        <v>291652</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1189</v>
+        <v>2573</v>
       </c>
       <c r="D74" t="n">
-        <v>25141</v>
+        <v>25146</v>
       </c>
       <c r="E74" t="n">
-        <v>9511</v>
+        <v>12084</v>
       </c>
       <c r="F74" t="n">
-        <v>246634</v>
+        <v>271780</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>994</v>
+        <v>1189</v>
       </c>
       <c r="D75" t="n">
-        <v>22348</v>
+        <v>25141</v>
       </c>
       <c r="E75" t="n">
-        <v>8322</v>
+        <v>9511</v>
       </c>
       <c r="F75" t="n">
-        <v>221493</v>
+        <v>246634</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>914</v>
+        <v>994</v>
       </c>
       <c r="D76" t="n">
-        <v>25173</v>
+        <v>22348</v>
       </c>
       <c r="E76" t="n">
-        <v>7328</v>
+        <v>8322</v>
       </c>
       <c r="F76" t="n">
-        <v>199145</v>
+        <v>221493</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1006</v>
+        <v>914</v>
       </c>
       <c r="D77" t="n">
-        <v>23937</v>
+        <v>25173</v>
       </c>
       <c r="E77" t="n">
-        <v>6414</v>
+        <v>7328</v>
       </c>
       <c r="F77" t="n">
-        <v>173972</v>
+        <v>199145</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D78" t="n">
-        <v>22609</v>
+        <v>23937</v>
       </c>
       <c r="E78" t="n">
-        <v>5408</v>
+        <v>6414</v>
       </c>
       <c r="F78" t="n">
-        <v>150035</v>
+        <v>173972</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>824</v>
+        <v>1015</v>
       </c>
       <c r="D79" t="n">
-        <v>20398</v>
+        <v>22609</v>
       </c>
       <c r="E79" t="n">
-        <v>4393</v>
+        <v>5408</v>
       </c>
       <c r="F79" t="n">
-        <v>127426</v>
+        <v>150035</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="D80" t="n">
-        <v>19660</v>
+        <v>20398</v>
       </c>
       <c r="E80" t="n">
-        <v>3569</v>
+        <v>4393</v>
       </c>
       <c r="F80" t="n">
-        <v>107028</v>
+        <v>127426</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D81" t="n">
-        <v>16766</v>
+        <v>19660</v>
       </c>
       <c r="E81" t="n">
-        <v>3247</v>
+        <v>3569</v>
       </c>
       <c r="F81" t="n">
-        <v>87368</v>
+        <v>107028</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D82" t="n">
-        <v>13086</v>
+        <v>16766</v>
       </c>
       <c r="E82" t="n">
-        <v>2936</v>
+        <v>3247</v>
       </c>
       <c r="F82" t="n">
-        <v>70602</v>
+        <v>87368</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="D83" t="n">
-        <v>8581</v>
+        <v>13086</v>
       </c>
       <c r="E83" t="n">
-        <v>2668</v>
+        <v>2936</v>
       </c>
       <c r="F83" t="n">
-        <v>57516</v>
+        <v>70602</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D84" t="n">
-        <v>7788</v>
+        <v>8581</v>
       </c>
       <c r="E84" t="n">
-        <v>2243</v>
+        <v>2668</v>
       </c>
       <c r="F84" t="n">
-        <v>48935</v>
+        <v>57516</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="D85" t="n">
-        <v>6051</v>
+        <v>7788</v>
       </c>
       <c r="E85" t="n">
-        <v>1805</v>
+        <v>2243</v>
       </c>
       <c r="F85" t="n">
-        <v>41147</v>
+        <v>48935</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D86" t="n">
-        <v>4144</v>
+        <v>6051</v>
       </c>
       <c r="E86" t="n">
-        <v>1545</v>
+        <v>1805</v>
       </c>
       <c r="F86" t="n">
-        <v>35096</v>
+        <v>41147</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D87" t="n">
-        <v>5298</v>
+        <v>4144</v>
       </c>
       <c r="E87" t="n">
-        <v>1187</v>
+        <v>1545</v>
       </c>
       <c r="F87" t="n">
-        <v>30952</v>
+        <v>35096</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D88" t="n">
-        <v>5656</v>
+        <v>5298</v>
       </c>
       <c r="E88" t="n">
-        <v>832</v>
+        <v>1187</v>
       </c>
       <c r="F88" t="n">
-        <v>25654</v>
+        <v>30952</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="D89" t="n">
-        <v>4381</v>
+        <v>5656</v>
       </c>
       <c r="E89" t="n">
-        <v>506</v>
+        <v>832</v>
       </c>
       <c r="F89" t="n">
-        <v>19998</v>
+        <v>25654</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D90" t="n">
-        <v>3450</v>
+        <v>4381</v>
       </c>
       <c r="E90" t="n">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F90" t="n">
-        <v>15617</v>
+        <v>19998</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
-        <v>2631</v>
+        <v>3450</v>
       </c>
       <c r="E91" t="n">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F91" t="n">
-        <v>12167</v>
+        <v>15617</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>2231</v>
+        <v>2631</v>
       </c>
       <c r="E92" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="F92" t="n">
-        <v>9536</v>
+        <v>12167</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
-        <v>1580</v>
+        <v>2231</v>
       </c>
       <c r="E93" t="n">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="F93" t="n">
-        <v>7305</v>
+        <v>9536</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n">
-        <v>979</v>
+        <v>1580</v>
       </c>
       <c r="E94" t="n">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F94" t="n">
-        <v>5725</v>
+        <v>7305</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E95" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F95" t="n">
-        <v>4746</v>
+        <v>5725</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F96" t="n">
-        <v>3769</v>
+        <v>4746</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
-        <v>734</v>
+        <v>865</v>
       </c>
       <c r="E97" t="n">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F97" t="n">
-        <v>2904</v>
+        <v>3769</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>492</v>
+        <v>734</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F98" t="n">
-        <v>2170</v>
+        <v>2904</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E99" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F99" t="n">
-        <v>1678</v>
+        <v>2170</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E100" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F100" t="n">
-        <v>1312</v>
+        <v>1678</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D101" t="n">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="E101" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F101" t="n">
-        <v>1109</v>
+        <v>1312</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E102" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F102" t="n">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="E103" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F103" t="n">
-        <v>762</v>
+        <v>959</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F104" t="n">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E105" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F105" t="n">
-        <v>504</v>
+        <v>632</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E106" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E107" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F107" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E108" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F108" t="n">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F109" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F110" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F111" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E112" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F112" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3246,20 +3246,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3271,20 +3271,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3296,20 +3296,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F115" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3321,22 +3321,47 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C117" t="n">
         <v>1</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D117" t="n">
         <v>1</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F117" t="n">
         <v>1</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F2" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -496,14 +496,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>58135</v>
@@ -521,20 +521,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58133</v>
+        <v>58135</v>
       </c>
       <c r="F4" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>58124</v>
+        <v>58135</v>
       </c>
       <c r="F5" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>58120</v>
+        <v>58133</v>
       </c>
       <c r="F6" t="n">
-        <v>591511</v>
+        <v>591515</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>58114</v>
+        <v>58124</v>
       </c>
       <c r="F7" t="n">
-        <v>591508</v>
+        <v>591515</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
       <c r="E8" t="n">
-        <v>58104</v>
+        <v>58120</v>
       </c>
       <c r="F8" t="n">
-        <v>591505</v>
+        <v>591511</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>58101</v>
+        <v>58114</v>
       </c>
       <c r="F9" t="n">
-        <v>591499</v>
+        <v>591508</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>58100</v>
+        <v>58104</v>
       </c>
       <c r="F10" t="n">
-        <v>591493</v>
+        <v>591505</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>58098</v>
+        <v>58101</v>
       </c>
       <c r="F11" t="n">
-        <v>591491</v>
+        <v>591499</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>58089</v>
+        <v>58100</v>
       </c>
       <c r="F12" t="n">
-        <v>591484</v>
+        <v>591493</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>58076</v>
+        <v>58098</v>
       </c>
       <c r="F13" t="n">
-        <v>591482</v>
+        <v>591491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>58073</v>
+        <v>58089</v>
       </c>
       <c r="F14" t="n">
-        <v>591468</v>
+        <v>591484</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>58062</v>
+        <v>58076</v>
       </c>
       <c r="F15" t="n">
-        <v>591442</v>
+        <v>591482</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>58052</v>
+        <v>58073</v>
       </c>
       <c r="F16" t="n">
-        <v>591423</v>
+        <v>591468</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>58045</v>
+        <v>58062</v>
       </c>
       <c r="F17" t="n">
-        <v>591414</v>
+        <v>591442</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>58039</v>
+        <v>58052</v>
       </c>
       <c r="F18" t="n">
-        <v>591409</v>
+        <v>591423</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>58035</v>
+        <v>58045</v>
       </c>
       <c r="F19" t="n">
-        <v>591404</v>
+        <v>591414</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>58031</v>
+        <v>58039</v>
       </c>
       <c r="F20" t="n">
-        <v>591393</v>
+        <v>591409</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>58028</v>
+        <v>58035</v>
       </c>
       <c r="F21" t="n">
-        <v>591386</v>
+        <v>591404</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>58024</v>
+        <v>58031</v>
       </c>
       <c r="F22" t="n">
-        <v>591382</v>
+        <v>591393</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>58018</v>
+        <v>58028</v>
       </c>
       <c r="F23" t="n">
-        <v>591366</v>
+        <v>591386</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>58013</v>
+        <v>58024</v>
       </c>
       <c r="F24" t="n">
-        <v>591357</v>
+        <v>591382</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>58005</v>
+        <v>58018</v>
       </c>
       <c r="F25" t="n">
-        <v>591349</v>
+        <v>591366</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>58000</v>
+        <v>58013</v>
       </c>
       <c r="F26" t="n">
-        <v>591341</v>
+        <v>591357</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>57995</v>
+        <v>58005</v>
       </c>
       <c r="F27" t="n">
-        <v>591331</v>
+        <v>591349</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>57986</v>
+        <v>58000</v>
       </c>
       <c r="F28" t="n">
-        <v>591309</v>
+        <v>591341</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>57980</v>
+        <v>57995</v>
       </c>
       <c r="F29" t="n">
-        <v>591248</v>
+        <v>591331</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>57951</v>
+        <v>57986</v>
       </c>
       <c r="F30" t="n">
-        <v>591155</v>
+        <v>591309</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="E31" t="n">
-        <v>57912</v>
+        <v>57980</v>
       </c>
       <c r="F31" t="n">
-        <v>591024</v>
+        <v>591248</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="E32" t="n">
-        <v>57867</v>
+        <v>57951</v>
       </c>
       <c r="F32" t="n">
-        <v>590805</v>
+        <v>591155</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E33" t="n">
-        <v>57819</v>
+        <v>57912</v>
       </c>
       <c r="F33" t="n">
-        <v>590515</v>
+        <v>591024</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D34" t="n">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="E34" t="n">
-        <v>57775</v>
+        <v>57867</v>
       </c>
       <c r="F34" t="n">
-        <v>590172</v>
+        <v>590805</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D35" t="n">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="E35" t="n">
-        <v>57717</v>
+        <v>57819</v>
       </c>
       <c r="F35" t="n">
-        <v>589750</v>
+        <v>590515</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D36" t="n">
-        <v>570</v>
+        <v>422</v>
       </c>
       <c r="E36" t="n">
-        <v>57662</v>
+        <v>57775</v>
       </c>
       <c r="F36" t="n">
-        <v>589247</v>
+        <v>590172</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D37" t="n">
-        <v>784</v>
+        <v>503</v>
       </c>
       <c r="E37" t="n">
-        <v>57610</v>
+        <v>57717</v>
       </c>
       <c r="F37" t="n">
-        <v>588677</v>
+        <v>589750</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D38" t="n">
-        <v>770</v>
+        <v>570</v>
       </c>
       <c r="E38" t="n">
-        <v>57526</v>
+        <v>57662</v>
       </c>
       <c r="F38" t="n">
-        <v>587893</v>
+        <v>589247</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="n">
-        <v>637</v>
+        <v>784</v>
       </c>
       <c r="E39" t="n">
-        <v>57438</v>
+        <v>57610</v>
       </c>
       <c r="F39" t="n">
-        <v>587123</v>
+        <v>588677</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D40" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="E40" t="n">
-        <v>57356</v>
+        <v>57526</v>
       </c>
       <c r="F40" t="n">
-        <v>586486</v>
+        <v>587893</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D41" t="n">
-        <v>746</v>
+        <v>637</v>
       </c>
       <c r="E41" t="n">
-        <v>57260</v>
+        <v>57438</v>
       </c>
       <c r="F41" t="n">
-        <v>585727</v>
+        <v>587123</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D42" t="n">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="E42" t="n">
-        <v>57183</v>
+        <v>57356</v>
       </c>
       <c r="F42" t="n">
-        <v>584981</v>
+        <v>586486</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D43" t="n">
-        <v>1203</v>
+        <v>746</v>
       </c>
       <c r="E43" t="n">
-        <v>57114</v>
+        <v>57260</v>
       </c>
       <c r="F43" t="n">
-        <v>584112</v>
+        <v>585727</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="D44" t="n">
-        <v>1487</v>
+        <v>869</v>
       </c>
       <c r="E44" t="n">
-        <v>56948</v>
+        <v>57183</v>
       </c>
       <c r="F44" t="n">
-        <v>582909</v>
+        <v>584981</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D45" t="n">
-        <v>1869</v>
+        <v>1203</v>
       </c>
       <c r="E45" t="n">
-        <v>56754</v>
+        <v>57114</v>
       </c>
       <c r="F45" t="n">
-        <v>581422</v>
+        <v>584112</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="D46" t="n">
-        <v>1305</v>
+        <v>1487</v>
       </c>
       <c r="E46" t="n">
-        <v>56527</v>
+        <v>56948</v>
       </c>
       <c r="F46" t="n">
-        <v>579553</v>
+        <v>582909</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" t="n">
-        <v>1259</v>
+        <v>1869</v>
       </c>
       <c r="E47" t="n">
-        <v>56383</v>
+        <v>56754</v>
       </c>
       <c r="F47" t="n">
-        <v>578248</v>
+        <v>581422</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="D48" t="n">
-        <v>2780</v>
+        <v>1305</v>
       </c>
       <c r="E48" t="n">
-        <v>56155</v>
+        <v>56527</v>
       </c>
       <c r="F48" t="n">
-        <v>576989</v>
+        <v>579553</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="D49" t="n">
-        <v>3625</v>
+        <v>1259</v>
       </c>
       <c r="E49" t="n">
-        <v>55921</v>
+        <v>56383</v>
       </c>
       <c r="F49" t="n">
-        <v>574209</v>
+        <v>578248</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D50" t="n">
-        <v>3760</v>
+        <v>2780</v>
       </c>
       <c r="E50" t="n">
-        <v>55599</v>
+        <v>56155</v>
       </c>
       <c r="F50" t="n">
-        <v>570584</v>
+        <v>576989</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="D51" t="n">
-        <v>3961</v>
+        <v>3625</v>
       </c>
       <c r="E51" t="n">
-        <v>55384</v>
+        <v>55921</v>
       </c>
       <c r="F51" t="n">
-        <v>566824</v>
+        <v>574209</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D52" t="n">
-        <v>4024</v>
+        <v>3760</v>
       </c>
       <c r="E52" t="n">
-        <v>55131</v>
+        <v>55599</v>
       </c>
       <c r="F52" t="n">
-        <v>562863</v>
+        <v>570584</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D53" t="n">
-        <v>4390</v>
+        <v>3961</v>
       </c>
       <c r="E53" t="n">
-        <v>54886</v>
+        <v>55384</v>
       </c>
       <c r="F53" t="n">
-        <v>558839</v>
+        <v>566824</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D54" t="n">
-        <v>4722</v>
+        <v>4024</v>
       </c>
       <c r="E54" t="n">
-        <v>54625</v>
+        <v>55131</v>
       </c>
       <c r="F54" t="n">
-        <v>554449</v>
+        <v>562863</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D55" t="n">
-        <v>5395</v>
+        <v>4390</v>
       </c>
       <c r="E55" t="n">
-        <v>54365</v>
+        <v>54886</v>
       </c>
       <c r="F55" t="n">
-        <v>549727</v>
+        <v>558839</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>727</v>
+        <v>260</v>
       </c>
       <c r="D56" t="n">
-        <v>6606</v>
+        <v>4722</v>
       </c>
       <c r="E56" t="n">
-        <v>54091</v>
+        <v>54625</v>
       </c>
       <c r="F56" t="n">
-        <v>544332</v>
+        <v>554449</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>788</v>
+        <v>274</v>
       </c>
       <c r="D57" t="n">
-        <v>7084</v>
+        <v>5395</v>
       </c>
       <c r="E57" t="n">
-        <v>53364</v>
+        <v>54365</v>
       </c>
       <c r="F57" t="n">
-        <v>537726</v>
+        <v>549727</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1249</v>
+        <v>727</v>
       </c>
       <c r="D58" t="n">
-        <v>8932</v>
+        <v>6606</v>
       </c>
       <c r="E58" t="n">
-        <v>52576</v>
+        <v>54091</v>
       </c>
       <c r="F58" t="n">
-        <v>530642</v>
+        <v>544332</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5487</v>
+        <v>788</v>
       </c>
       <c r="D59" t="n">
-        <v>9545</v>
+        <v>7084</v>
       </c>
       <c r="E59" t="n">
-        <v>51327</v>
+        <v>53364</v>
       </c>
       <c r="F59" t="n">
-        <v>521710</v>
+        <v>537726</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1292</v>
+        <v>1249</v>
       </c>
       <c r="D60" t="n">
-        <v>9330</v>
+        <v>8932</v>
       </c>
       <c r="E60" t="n">
-        <v>45840</v>
+        <v>52576</v>
       </c>
       <c r="F60" t="n">
-        <v>512165</v>
+        <v>530642</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1606</v>
+        <v>5487</v>
       </c>
       <c r="D61" t="n">
-        <v>11956</v>
+        <v>9545</v>
       </c>
       <c r="E61" t="n">
-        <v>44548</v>
+        <v>51327</v>
       </c>
       <c r="F61" t="n">
-        <v>502835</v>
+        <v>521710</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1661</v>
+        <v>1292</v>
       </c>
       <c r="D62" t="n">
-        <v>15319</v>
+        <v>9330</v>
       </c>
       <c r="E62" t="n">
-        <v>42942</v>
+        <v>45840</v>
       </c>
       <c r="F62" t="n">
-        <v>490879</v>
+        <v>512165</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2472</v>
+        <v>1606</v>
       </c>
       <c r="D63" t="n">
-        <v>16983</v>
+        <v>11956</v>
       </c>
       <c r="E63" t="n">
-        <v>41281</v>
+        <v>44548</v>
       </c>
       <c r="F63" t="n">
-        <v>475560</v>
+        <v>502835</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1401</v>
+        <v>1661</v>
       </c>
       <c r="D64" t="n">
-        <v>19657</v>
+        <v>15319</v>
       </c>
       <c r="E64" t="n">
-        <v>38809</v>
+        <v>42942</v>
       </c>
       <c r="F64" t="n">
-        <v>458577</v>
+        <v>490879</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2736</v>
+        <v>2472</v>
       </c>
       <c r="D65" t="n">
-        <v>20634</v>
+        <v>16983</v>
       </c>
       <c r="E65" t="n">
-        <v>37408</v>
+        <v>41281</v>
       </c>
       <c r="F65" t="n">
-        <v>438920</v>
+        <v>475560</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1931</v>
+        <v>1401</v>
       </c>
       <c r="D66" t="n">
-        <v>15698</v>
+        <v>19657</v>
       </c>
       <c r="E66" t="n">
-        <v>34672</v>
+        <v>38809</v>
       </c>
       <c r="F66" t="n">
-        <v>418286</v>
+        <v>458577</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2634</v>
+        <v>2736</v>
       </c>
       <c r="D67" t="n">
-        <v>15861</v>
+        <v>20634</v>
       </c>
       <c r="E67" t="n">
-        <v>32741</v>
+        <v>37408</v>
       </c>
       <c r="F67" t="n">
-        <v>402588</v>
+        <v>438920</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2494</v>
+        <v>1931</v>
       </c>
       <c r="D68" t="n">
-        <v>16407</v>
+        <v>15698</v>
       </c>
       <c r="E68" t="n">
-        <v>30107</v>
+        <v>34672</v>
       </c>
       <c r="F68" t="n">
-        <v>386727</v>
+        <v>418286</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3084</v>
+        <v>2634</v>
       </c>
       <c r="D69" t="n">
-        <v>17332</v>
+        <v>15861</v>
       </c>
       <c r="E69" t="n">
-        <v>27613</v>
+        <v>32741</v>
       </c>
       <c r="F69" t="n">
-        <v>370320</v>
+        <v>402588</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2417</v>
+        <v>2494</v>
       </c>
       <c r="D70" t="n">
-        <v>19831</v>
+        <v>16407</v>
       </c>
       <c r="E70" t="n">
-        <v>24529</v>
+        <v>30107</v>
       </c>
       <c r="F70" t="n">
-        <v>352988</v>
+        <v>386727</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3238</v>
+        <v>3084</v>
       </c>
       <c r="D71" t="n">
-        <v>21582</v>
+        <v>17332</v>
       </c>
       <c r="E71" t="n">
-        <v>22112</v>
+        <v>27613</v>
       </c>
       <c r="F71" t="n">
-        <v>333157</v>
+        <v>370320</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3590</v>
+        <v>2417</v>
       </c>
       <c r="D72" t="n">
-        <v>19923</v>
+        <v>19831</v>
       </c>
       <c r="E72" t="n">
-        <v>18874</v>
+        <v>24529</v>
       </c>
       <c r="F72" t="n">
-        <v>311575</v>
+        <v>352988</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3200</v>
+        <v>3238</v>
       </c>
       <c r="D73" t="n">
-        <v>19872</v>
+        <v>21582</v>
       </c>
       <c r="E73" t="n">
-        <v>15284</v>
+        <v>22112</v>
       </c>
       <c r="F73" t="n">
-        <v>291652</v>
+        <v>333157</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2573</v>
+        <v>3590</v>
       </c>
       <c r="D74" t="n">
-        <v>25146</v>
+        <v>19923</v>
       </c>
       <c r="E74" t="n">
-        <v>12084</v>
+        <v>18874</v>
       </c>
       <c r="F74" t="n">
-        <v>271780</v>
+        <v>311575</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1189</v>
+        <v>3200</v>
       </c>
       <c r="D75" t="n">
-        <v>25141</v>
+        <v>19872</v>
       </c>
       <c r="E75" t="n">
-        <v>9511</v>
+        <v>15284</v>
       </c>
       <c r="F75" t="n">
-        <v>246634</v>
+        <v>291652</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>994</v>
+        <v>2573</v>
       </c>
       <c r="D76" t="n">
-        <v>22348</v>
+        <v>25146</v>
       </c>
       <c r="E76" t="n">
-        <v>8322</v>
+        <v>12084</v>
       </c>
       <c r="F76" t="n">
-        <v>221493</v>
+        <v>271780</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>914</v>
+        <v>1189</v>
       </c>
       <c r="D77" t="n">
-        <v>25173</v>
+        <v>25141</v>
       </c>
       <c r="E77" t="n">
-        <v>7328</v>
+        <v>9511</v>
       </c>
       <c r="F77" t="n">
-        <v>199145</v>
+        <v>246634</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="D78" t="n">
-        <v>23937</v>
+        <v>22348</v>
       </c>
       <c r="E78" t="n">
-        <v>6414</v>
+        <v>8322</v>
       </c>
       <c r="F78" t="n">
-        <v>173972</v>
+        <v>221493</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1015</v>
+        <v>914</v>
       </c>
       <c r="D79" t="n">
-        <v>22609</v>
+        <v>25173</v>
       </c>
       <c r="E79" t="n">
-        <v>5408</v>
+        <v>7328</v>
       </c>
       <c r="F79" t="n">
-        <v>150035</v>
+        <v>199145</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>824</v>
+        <v>1006</v>
       </c>
       <c r="D80" t="n">
-        <v>20398</v>
+        <v>23937</v>
       </c>
       <c r="E80" t="n">
-        <v>4393</v>
+        <v>6414</v>
       </c>
       <c r="F80" t="n">
-        <v>127426</v>
+        <v>173972</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>322</v>
+        <v>1015</v>
       </c>
       <c r="D81" t="n">
-        <v>19660</v>
+        <v>22609</v>
       </c>
       <c r="E81" t="n">
-        <v>3569</v>
+        <v>5408</v>
       </c>
       <c r="F81" t="n">
-        <v>107028</v>
+        <v>150035</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>311</v>
+        <v>824</v>
       </c>
       <c r="D82" t="n">
-        <v>16766</v>
+        <v>20398</v>
       </c>
       <c r="E82" t="n">
-        <v>3247</v>
+        <v>4393</v>
       </c>
       <c r="F82" t="n">
-        <v>87368</v>
+        <v>127426</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="D83" t="n">
-        <v>13086</v>
+        <v>19660</v>
       </c>
       <c r="E83" t="n">
-        <v>2936</v>
+        <v>3569</v>
       </c>
       <c r="F83" t="n">
-        <v>70602</v>
+        <v>107028</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="D84" t="n">
-        <v>8581</v>
+        <v>16766</v>
       </c>
       <c r="E84" t="n">
-        <v>2668</v>
+        <v>3247</v>
       </c>
       <c r="F84" t="n">
-        <v>57516</v>
+        <v>87368</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="D85" t="n">
-        <v>7788</v>
+        <v>13086</v>
       </c>
       <c r="E85" t="n">
-        <v>2243</v>
+        <v>2936</v>
       </c>
       <c r="F85" t="n">
-        <v>48935</v>
+        <v>70602</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="D86" t="n">
-        <v>6051</v>
+        <v>8581</v>
       </c>
       <c r="E86" t="n">
-        <v>1805</v>
+        <v>2668</v>
       </c>
       <c r="F86" t="n">
-        <v>41147</v>
+        <v>57516</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="D87" t="n">
-        <v>4144</v>
+        <v>7788</v>
       </c>
       <c r="E87" t="n">
-        <v>1545</v>
+        <v>2243</v>
       </c>
       <c r="F87" t="n">
-        <v>35096</v>
+        <v>48935</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="D88" t="n">
-        <v>5298</v>
+        <v>6051</v>
       </c>
       <c r="E88" t="n">
-        <v>1187</v>
+        <v>1805</v>
       </c>
       <c r="F88" t="n">
-        <v>30952</v>
+        <v>41147</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="D89" t="n">
-        <v>5656</v>
+        <v>4144</v>
       </c>
       <c r="E89" t="n">
-        <v>832</v>
+        <v>1545</v>
       </c>
       <c r="F89" t="n">
-        <v>25654</v>
+        <v>35096</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="D90" t="n">
-        <v>4381</v>
+        <v>5298</v>
       </c>
       <c r="E90" t="n">
-        <v>506</v>
+        <v>1187</v>
       </c>
       <c r="F90" t="n">
-        <v>19998</v>
+        <v>30952</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="D91" t="n">
-        <v>3450</v>
+        <v>5656</v>
       </c>
       <c r="E91" t="n">
-        <v>410</v>
+        <v>832</v>
       </c>
       <c r="F91" t="n">
-        <v>15617</v>
+        <v>25654</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D92" t="n">
-        <v>2631</v>
+        <v>4381</v>
       </c>
       <c r="E92" t="n">
-        <v>360</v>
+        <v>506</v>
       </c>
       <c r="F92" t="n">
-        <v>12167</v>
+        <v>19998</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
-        <v>2231</v>
+        <v>3450</v>
       </c>
       <c r="E93" t="n">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="F93" t="n">
-        <v>9536</v>
+        <v>15617</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
-        <v>1580</v>
+        <v>2631</v>
       </c>
       <c r="E94" t="n">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="F94" t="n">
-        <v>7305</v>
+        <v>12167</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
-        <v>979</v>
+        <v>2231</v>
       </c>
       <c r="E95" t="n">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="F95" t="n">
-        <v>5725</v>
+        <v>9536</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n">
-        <v>977</v>
+        <v>1580</v>
       </c>
       <c r="E96" t="n">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F96" t="n">
-        <v>4746</v>
+        <v>7305</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="E97" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F97" t="n">
-        <v>3769</v>
+        <v>5725</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>734</v>
+        <v>977</v>
       </c>
       <c r="E98" t="n">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F98" t="n">
-        <v>2904</v>
+        <v>4746</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
-        <v>492</v>
+        <v>865</v>
       </c>
       <c r="E99" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="F99" t="n">
-        <v>2170</v>
+        <v>3769</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D100" t="n">
-        <v>366</v>
+        <v>734</v>
       </c>
       <c r="E100" t="n">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="F100" t="n">
-        <v>1678</v>
+        <v>2904</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>203</v>
+        <v>492</v>
       </c>
       <c r="E101" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="F101" t="n">
-        <v>1312</v>
+        <v>2170</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="E102" t="n">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F102" t="n">
-        <v>1109</v>
+        <v>1678</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D103" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E103" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F103" t="n">
-        <v>959</v>
+        <v>1312</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E104" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F104" t="n">
-        <v>762</v>
+        <v>1109</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="E105" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F105" t="n">
-        <v>632</v>
+        <v>959</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="E106" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F106" t="n">
-        <v>504</v>
+        <v>762</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D107" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E107" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F107" t="n">
-        <v>440</v>
+        <v>632</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>64</v>
       </c>
       <c r="E108" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F108" t="n">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E109" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F109" t="n">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E110" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F110" t="n">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3246,20 +3246,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F113" t="n">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3271,20 +3271,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3296,20 +3296,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3321,20 +3321,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3346,22 +3346,72 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>14</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D119" t="n">
         <v>1</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F119" t="n">
         <v>1</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G119" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>58137</v>
@@ -496,7 +496,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F3" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F4" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -546,20 +546,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F5" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,20 +571,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>58133</v>
+        <v>58135</v>
       </c>
       <c r="F6" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>58124</v>
+        <v>58135</v>
       </c>
       <c r="F7" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>58120</v>
+        <v>58135</v>
       </c>
       <c r="F8" t="n">
-        <v>591511</v>
+        <v>591516</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>58114</v>
+        <v>58133</v>
       </c>
       <c r="F9" t="n">
-        <v>591508</v>
+        <v>591515</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>58104</v>
+        <v>58124</v>
       </c>
       <c r="F10" t="n">
-        <v>591505</v>
+        <v>591515</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>58101</v>
+        <v>58120</v>
       </c>
       <c r="F11" t="n">
-        <v>591499</v>
+        <v>591511</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>58100</v>
+        <v>58114</v>
       </c>
       <c r="F12" t="n">
-        <v>591493</v>
+        <v>591508</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>58098</v>
+        <v>58104</v>
       </c>
       <c r="F13" t="n">
-        <v>591491</v>
+        <v>591505</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>58089</v>
+        <v>58101</v>
       </c>
       <c r="F14" t="n">
-        <v>591484</v>
+        <v>591499</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>58076</v>
+        <v>58100</v>
       </c>
       <c r="F15" t="n">
-        <v>591482</v>
+        <v>591493</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>58073</v>
+        <v>58098</v>
       </c>
       <c r="F16" t="n">
-        <v>591468</v>
+        <v>591491</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>58062</v>
+        <v>58089</v>
       </c>
       <c r="F17" t="n">
-        <v>591442</v>
+        <v>591484</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>58052</v>
+        <v>58076</v>
       </c>
       <c r="F18" t="n">
-        <v>591423</v>
+        <v>591482</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>58045</v>
+        <v>58073</v>
       </c>
       <c r="F19" t="n">
-        <v>591414</v>
+        <v>591468</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>58039</v>
+        <v>58062</v>
       </c>
       <c r="F20" t="n">
-        <v>591409</v>
+        <v>591442</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>58035</v>
+        <v>58052</v>
       </c>
       <c r="F21" t="n">
-        <v>591404</v>
+        <v>591423</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>58031</v>
+        <v>58045</v>
       </c>
       <c r="F22" t="n">
-        <v>591393</v>
+        <v>591414</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>58028</v>
+        <v>58039</v>
       </c>
       <c r="F23" t="n">
-        <v>591386</v>
+        <v>591409</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>58024</v>
+        <v>58035</v>
       </c>
       <c r="F24" t="n">
-        <v>591382</v>
+        <v>591404</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>58018</v>
+        <v>58031</v>
       </c>
       <c r="F25" t="n">
-        <v>591366</v>
+        <v>591393</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>58013</v>
+        <v>58028</v>
       </c>
       <c r="F26" t="n">
-        <v>591357</v>
+        <v>591386</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>58005</v>
+        <v>58024</v>
       </c>
       <c r="F27" t="n">
-        <v>591349</v>
+        <v>591382</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>58000</v>
+        <v>58018</v>
       </c>
       <c r="F28" t="n">
-        <v>591341</v>
+        <v>591366</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>57995</v>
+        <v>58013</v>
       </c>
       <c r="F29" t="n">
-        <v>591331</v>
+        <v>591357</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>57986</v>
+        <v>58005</v>
       </c>
       <c r="F30" t="n">
-        <v>591309</v>
+        <v>591349</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>57980</v>
+        <v>58000</v>
       </c>
       <c r="F31" t="n">
-        <v>591248</v>
+        <v>591341</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E32" t="n">
-        <v>57951</v>
+        <v>57995</v>
       </c>
       <c r="F32" t="n">
-        <v>591155</v>
+        <v>591331</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="E33" t="n">
-        <v>57912</v>
+        <v>57986</v>
       </c>
       <c r="F33" t="n">
-        <v>591024</v>
+        <v>591309</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="E34" t="n">
-        <v>57867</v>
+        <v>57980</v>
       </c>
       <c r="F34" t="n">
-        <v>590805</v>
+        <v>591248</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="E35" t="n">
-        <v>57819</v>
+        <v>57951</v>
       </c>
       <c r="F35" t="n">
-        <v>590515</v>
+        <v>591155</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="E36" t="n">
-        <v>57775</v>
+        <v>57912</v>
       </c>
       <c r="F36" t="n">
-        <v>590172</v>
+        <v>591024</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D37" t="n">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="E37" t="n">
-        <v>57717</v>
+        <v>57867</v>
       </c>
       <c r="F37" t="n">
-        <v>589750</v>
+        <v>590805</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>570</v>
+        <v>343</v>
       </c>
       <c r="E38" t="n">
-        <v>57662</v>
+        <v>57819</v>
       </c>
       <c r="F38" t="n">
-        <v>589247</v>
+        <v>590515</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D39" t="n">
-        <v>784</v>
+        <v>422</v>
       </c>
       <c r="E39" t="n">
-        <v>57610</v>
+        <v>57775</v>
       </c>
       <c r="F39" t="n">
-        <v>588677</v>
+        <v>590172</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>770</v>
+        <v>503</v>
       </c>
       <c r="E40" t="n">
-        <v>57526</v>
+        <v>57717</v>
       </c>
       <c r="F40" t="n">
-        <v>587893</v>
+        <v>589750</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D41" t="n">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="E41" t="n">
-        <v>57438</v>
+        <v>57662</v>
       </c>
       <c r="F41" t="n">
-        <v>587123</v>
+        <v>589247</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D42" t="n">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="E42" t="n">
-        <v>57356</v>
+        <v>57610</v>
       </c>
       <c r="F42" t="n">
-        <v>586486</v>
+        <v>588677</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D43" t="n">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E43" t="n">
-        <v>57260</v>
+        <v>57526</v>
       </c>
       <c r="F43" t="n">
-        <v>585727</v>
+        <v>587893</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D44" t="n">
-        <v>869</v>
+        <v>637</v>
       </c>
       <c r="E44" t="n">
-        <v>57183</v>
+        <v>57438</v>
       </c>
       <c r="F44" t="n">
-        <v>584981</v>
+        <v>587123</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D45" t="n">
-        <v>1203</v>
+        <v>759</v>
       </c>
       <c r="E45" t="n">
-        <v>57114</v>
+        <v>57356</v>
       </c>
       <c r="F45" t="n">
-        <v>584112</v>
+        <v>586486</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D46" t="n">
-        <v>1487</v>
+        <v>746</v>
       </c>
       <c r="E46" t="n">
-        <v>56948</v>
+        <v>57260</v>
       </c>
       <c r="F46" t="n">
-        <v>582909</v>
+        <v>585727</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>1869</v>
+        <v>869</v>
       </c>
       <c r="E47" t="n">
-        <v>56754</v>
+        <v>57183</v>
       </c>
       <c r="F47" t="n">
-        <v>581422</v>
+        <v>584981</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D48" t="n">
-        <v>1305</v>
+        <v>1203</v>
       </c>
       <c r="E48" t="n">
-        <v>56527</v>
+        <v>57114</v>
       </c>
       <c r="F48" t="n">
-        <v>579553</v>
+        <v>584112</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D49" t="n">
-        <v>1259</v>
+        <v>1487</v>
       </c>
       <c r="E49" t="n">
-        <v>56383</v>
+        <v>56948</v>
       </c>
       <c r="F49" t="n">
-        <v>578248</v>
+        <v>582909</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D50" t="n">
-        <v>2780</v>
+        <v>1869</v>
       </c>
       <c r="E50" t="n">
-        <v>56155</v>
+        <v>56754</v>
       </c>
       <c r="F50" t="n">
-        <v>576989</v>
+        <v>581422</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="D51" t="n">
-        <v>3625</v>
+        <v>1305</v>
       </c>
       <c r="E51" t="n">
-        <v>55921</v>
+        <v>56527</v>
       </c>
       <c r="F51" t="n">
-        <v>574209</v>
+        <v>579553</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D52" t="n">
-        <v>3760</v>
+        <v>1259</v>
       </c>
       <c r="E52" t="n">
-        <v>55599</v>
+        <v>56383</v>
       </c>
       <c r="F52" t="n">
-        <v>570584</v>
+        <v>578248</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D53" t="n">
-        <v>3961</v>
+        <v>2780</v>
       </c>
       <c r="E53" t="n">
-        <v>55384</v>
+        <v>56155</v>
       </c>
       <c r="F53" t="n">
-        <v>566824</v>
+        <v>576989</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="D54" t="n">
-        <v>4024</v>
+        <v>3625</v>
       </c>
       <c r="E54" t="n">
-        <v>55131</v>
+        <v>55921</v>
       </c>
       <c r="F54" t="n">
-        <v>562863</v>
+        <v>574209</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D55" t="n">
-        <v>4390</v>
+        <v>3760</v>
       </c>
       <c r="E55" t="n">
-        <v>54886</v>
+        <v>55599</v>
       </c>
       <c r="F55" t="n">
-        <v>558839</v>
+        <v>570584</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D56" t="n">
-        <v>4722</v>
+        <v>3961</v>
       </c>
       <c r="E56" t="n">
-        <v>54625</v>
+        <v>55384</v>
       </c>
       <c r="F56" t="n">
-        <v>554449</v>
+        <v>566824</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D57" t="n">
-        <v>5395</v>
+        <v>4024</v>
       </c>
       <c r="E57" t="n">
-        <v>54365</v>
+        <v>55131</v>
       </c>
       <c r="F57" t="n">
-        <v>549727</v>
+        <v>562863</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>727</v>
+        <v>261</v>
       </c>
       <c r="D58" t="n">
-        <v>6606</v>
+        <v>4390</v>
       </c>
       <c r="E58" t="n">
-        <v>54091</v>
+        <v>54886</v>
       </c>
       <c r="F58" t="n">
-        <v>544332</v>
+        <v>558839</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>788</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>7084</v>
+        <v>4722</v>
       </c>
       <c r="E59" t="n">
-        <v>53364</v>
+        <v>54625</v>
       </c>
       <c r="F59" t="n">
-        <v>537726</v>
+        <v>554449</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1249</v>
+        <v>274</v>
       </c>
       <c r="D60" t="n">
-        <v>8932</v>
+        <v>5395</v>
       </c>
       <c r="E60" t="n">
-        <v>52576</v>
+        <v>54365</v>
       </c>
       <c r="F60" t="n">
-        <v>530642</v>
+        <v>549727</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5487</v>
+        <v>727</v>
       </c>
       <c r="D61" t="n">
-        <v>9545</v>
+        <v>6606</v>
       </c>
       <c r="E61" t="n">
-        <v>51327</v>
+        <v>54091</v>
       </c>
       <c r="F61" t="n">
-        <v>521710</v>
+        <v>544332</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1292</v>
+        <v>788</v>
       </c>
       <c r="D62" t="n">
-        <v>9330</v>
+        <v>7084</v>
       </c>
       <c r="E62" t="n">
-        <v>45840</v>
+        <v>53364</v>
       </c>
       <c r="F62" t="n">
-        <v>512165</v>
+        <v>537726</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1606</v>
+        <v>1249</v>
       </c>
       <c r="D63" t="n">
-        <v>11956</v>
+        <v>8932</v>
       </c>
       <c r="E63" t="n">
-        <v>44548</v>
+        <v>52576</v>
       </c>
       <c r="F63" t="n">
-        <v>502835</v>
+        <v>530642</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1661</v>
+        <v>5487</v>
       </c>
       <c r="D64" t="n">
-        <v>15319</v>
+        <v>9545</v>
       </c>
       <c r="E64" t="n">
-        <v>42942</v>
+        <v>51327</v>
       </c>
       <c r="F64" t="n">
-        <v>490879</v>
+        <v>521710</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2472</v>
+        <v>1292</v>
       </c>
       <c r="D65" t="n">
-        <v>16983</v>
+        <v>9330</v>
       </c>
       <c r="E65" t="n">
-        <v>41281</v>
+        <v>45840</v>
       </c>
       <c r="F65" t="n">
-        <v>475560</v>
+        <v>512165</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="D66" t="n">
-        <v>19657</v>
+        <v>11956</v>
       </c>
       <c r="E66" t="n">
-        <v>38809</v>
+        <v>44548</v>
       </c>
       <c r="F66" t="n">
-        <v>458577</v>
+        <v>502835</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2736</v>
+        <v>1661</v>
       </c>
       <c r="D67" t="n">
-        <v>20634</v>
+        <v>15319</v>
       </c>
       <c r="E67" t="n">
-        <v>37408</v>
+        <v>42942</v>
       </c>
       <c r="F67" t="n">
-        <v>438920</v>
+        <v>490879</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1931</v>
+        <v>2472</v>
       </c>
       <c r="D68" t="n">
-        <v>15698</v>
+        <v>16983</v>
       </c>
       <c r="E68" t="n">
-        <v>34672</v>
+        <v>41281</v>
       </c>
       <c r="F68" t="n">
-        <v>418286</v>
+        <v>475560</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2634</v>
+        <v>1401</v>
       </c>
       <c r="D69" t="n">
-        <v>15861</v>
+        <v>19657</v>
       </c>
       <c r="E69" t="n">
-        <v>32741</v>
+        <v>38809</v>
       </c>
       <c r="F69" t="n">
-        <v>402588</v>
+        <v>458577</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2494</v>
+        <v>2736</v>
       </c>
       <c r="D70" t="n">
-        <v>16407</v>
+        <v>20634</v>
       </c>
       <c r="E70" t="n">
-        <v>30107</v>
+        <v>37408</v>
       </c>
       <c r="F70" t="n">
-        <v>386727</v>
+        <v>438920</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
       <c r="D71" t="n">
-        <v>17332</v>
+        <v>15698</v>
       </c>
       <c r="E71" t="n">
-        <v>27613</v>
+        <v>34672</v>
       </c>
       <c r="F71" t="n">
-        <v>370320</v>
+        <v>418286</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2417</v>
+        <v>2634</v>
       </c>
       <c r="D72" t="n">
-        <v>19831</v>
+        <v>15861</v>
       </c>
       <c r="E72" t="n">
-        <v>24529</v>
+        <v>32741</v>
       </c>
       <c r="F72" t="n">
-        <v>352988</v>
+        <v>402588</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3238</v>
+        <v>2494</v>
       </c>
       <c r="D73" t="n">
-        <v>21582</v>
+        <v>16407</v>
       </c>
       <c r="E73" t="n">
-        <v>22112</v>
+        <v>30107</v>
       </c>
       <c r="F73" t="n">
-        <v>333157</v>
+        <v>386727</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3590</v>
+        <v>3084</v>
       </c>
       <c r="D74" t="n">
-        <v>19923</v>
+        <v>17332</v>
       </c>
       <c r="E74" t="n">
-        <v>18874</v>
+        <v>27613</v>
       </c>
       <c r="F74" t="n">
-        <v>311575</v>
+        <v>370320</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3200</v>
+        <v>2417</v>
       </c>
       <c r="D75" t="n">
-        <v>19872</v>
+        <v>19831</v>
       </c>
       <c r="E75" t="n">
-        <v>15284</v>
+        <v>24529</v>
       </c>
       <c r="F75" t="n">
-        <v>291652</v>
+        <v>352988</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2573</v>
+        <v>3238</v>
       </c>
       <c r="D76" t="n">
-        <v>25146</v>
+        <v>21582</v>
       </c>
       <c r="E76" t="n">
-        <v>12084</v>
+        <v>22112</v>
       </c>
       <c r="F76" t="n">
-        <v>271780</v>
+        <v>333157</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1189</v>
+        <v>3590</v>
       </c>
       <c r="D77" t="n">
-        <v>25141</v>
+        <v>19923</v>
       </c>
       <c r="E77" t="n">
-        <v>9511</v>
+        <v>18874</v>
       </c>
       <c r="F77" t="n">
-        <v>246634</v>
+        <v>311575</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>994</v>
+        <v>3200</v>
       </c>
       <c r="D78" t="n">
-        <v>22348</v>
+        <v>19872</v>
       </c>
       <c r="E78" t="n">
-        <v>8322</v>
+        <v>15284</v>
       </c>
       <c r="F78" t="n">
-        <v>221493</v>
+        <v>291652</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>914</v>
+        <v>2573</v>
       </c>
       <c r="D79" t="n">
-        <v>25173</v>
+        <v>25146</v>
       </c>
       <c r="E79" t="n">
-        <v>7328</v>
+        <v>12084</v>
       </c>
       <c r="F79" t="n">
-        <v>199145</v>
+        <v>271780</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1006</v>
+        <v>1189</v>
       </c>
       <c r="D80" t="n">
-        <v>23937</v>
+        <v>25141</v>
       </c>
       <c r="E80" t="n">
-        <v>6414</v>
+        <v>9511</v>
       </c>
       <c r="F80" t="n">
-        <v>173972</v>
+        <v>246634</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="D81" t="n">
-        <v>22609</v>
+        <v>22348</v>
       </c>
       <c r="E81" t="n">
-        <v>5408</v>
+        <v>8322</v>
       </c>
       <c r="F81" t="n">
-        <v>150035</v>
+        <v>221493</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>824</v>
+        <v>914</v>
       </c>
       <c r="D82" t="n">
-        <v>20398</v>
+        <v>25173</v>
       </c>
       <c r="E82" t="n">
-        <v>4393</v>
+        <v>7328</v>
       </c>
       <c r="F82" t="n">
-        <v>127426</v>
+        <v>199145</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>322</v>
+        <v>1006</v>
       </c>
       <c r="D83" t="n">
-        <v>19660</v>
+        <v>23937</v>
       </c>
       <c r="E83" t="n">
-        <v>3569</v>
+        <v>6414</v>
       </c>
       <c r="F83" t="n">
-        <v>107028</v>
+        <v>173972</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>311</v>
+        <v>1015</v>
       </c>
       <c r="D84" t="n">
-        <v>16766</v>
+        <v>22609</v>
       </c>
       <c r="E84" t="n">
-        <v>3247</v>
+        <v>5408</v>
       </c>
       <c r="F84" t="n">
-        <v>87368</v>
+        <v>150035</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>268</v>
+        <v>824</v>
       </c>
       <c r="D85" t="n">
-        <v>13086</v>
+        <v>20398</v>
       </c>
       <c r="E85" t="n">
-        <v>2936</v>
+        <v>4393</v>
       </c>
       <c r="F85" t="n">
-        <v>70602</v>
+        <v>127426</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="D86" t="n">
-        <v>8581</v>
+        <v>19660</v>
       </c>
       <c r="E86" t="n">
-        <v>2668</v>
+        <v>3569</v>
       </c>
       <c r="F86" t="n">
-        <v>57516</v>
+        <v>107028</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="D87" t="n">
-        <v>7788</v>
+        <v>16766</v>
       </c>
       <c r="E87" t="n">
-        <v>2243</v>
+        <v>3247</v>
       </c>
       <c r="F87" t="n">
-        <v>48935</v>
+        <v>87368</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D88" t="n">
-        <v>6051</v>
+        <v>13086</v>
       </c>
       <c r="E88" t="n">
-        <v>1805</v>
+        <v>2936</v>
       </c>
       <c r="F88" t="n">
-        <v>41147</v>
+        <v>70602</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="D89" t="n">
-        <v>4144</v>
+        <v>8581</v>
       </c>
       <c r="E89" t="n">
-        <v>1545</v>
+        <v>2668</v>
       </c>
       <c r="F89" t="n">
-        <v>35096</v>
+        <v>57516</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="D90" t="n">
-        <v>5298</v>
+        <v>7788</v>
       </c>
       <c r="E90" t="n">
-        <v>1187</v>
+        <v>2243</v>
       </c>
       <c r="F90" t="n">
-        <v>30952</v>
+        <v>48935</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="D91" t="n">
-        <v>5656</v>
+        <v>6051</v>
       </c>
       <c r="E91" t="n">
-        <v>832</v>
+        <v>1805</v>
       </c>
       <c r="F91" t="n">
-        <v>25654</v>
+        <v>41147</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="D92" t="n">
-        <v>4381</v>
+        <v>4144</v>
       </c>
       <c r="E92" t="n">
-        <v>506</v>
+        <v>1545</v>
       </c>
       <c r="F92" t="n">
-        <v>19998</v>
+        <v>35096</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="D93" t="n">
-        <v>3450</v>
+        <v>5298</v>
       </c>
       <c r="E93" t="n">
-        <v>410</v>
+        <v>1187</v>
       </c>
       <c r="F93" t="n">
-        <v>15617</v>
+        <v>30952</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D94" t="n">
-        <v>2631</v>
+        <v>5656</v>
       </c>
       <c r="E94" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="F94" t="n">
-        <v>12167</v>
+        <v>25654</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D95" t="n">
-        <v>2231</v>
+        <v>4381</v>
       </c>
       <c r="E95" t="n">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="F95" t="n">
-        <v>9536</v>
+        <v>19998</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
-        <v>1580</v>
+        <v>3450</v>
       </c>
       <c r="E96" t="n">
-        <v>277</v>
+        <v>410</v>
       </c>
       <c r="F96" t="n">
-        <v>7305</v>
+        <v>15617</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>979</v>
+        <v>2631</v>
       </c>
       <c r="E97" t="n">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>5725</v>
+        <v>12167</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
-        <v>977</v>
+        <v>2231</v>
       </c>
       <c r="E98" t="n">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F98" t="n">
-        <v>4746</v>
+        <v>9536</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n">
-        <v>865</v>
+        <v>1580</v>
       </c>
       <c r="E99" t="n">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F99" t="n">
-        <v>3769</v>
+        <v>7305</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>734</v>
+        <v>979</v>
       </c>
       <c r="E100" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F100" t="n">
-        <v>2904</v>
+        <v>5725</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>492</v>
+        <v>977</v>
       </c>
       <c r="E101" t="n">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F101" t="n">
-        <v>2170</v>
+        <v>4746</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D102" t="n">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="E102" t="n">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="F102" t="n">
-        <v>1678</v>
+        <v>3769</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D103" t="n">
-        <v>203</v>
+        <v>734</v>
       </c>
       <c r="E103" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F103" t="n">
-        <v>1312</v>
+        <v>2904</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="E104" t="n">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F104" t="n">
-        <v>1109</v>
+        <v>2170</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E105" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="F105" t="n">
-        <v>959</v>
+        <v>1678</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D106" t="n">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E106" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F106" t="n">
-        <v>762</v>
+        <v>1312</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E107" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F107" t="n">
-        <v>632</v>
+        <v>1109</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E108" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F108" t="n">
-        <v>504</v>
+        <v>959</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E109" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F109" t="n">
-        <v>440</v>
+        <v>762</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D110" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E110" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F110" t="n">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E111" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F111" t="n">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E112" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F112" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3246,20 +3246,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F113" t="n">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3271,20 +3271,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F114" t="n">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3296,20 +3296,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F115" t="n">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3321,20 +3321,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="n">
+        <v>51</v>
+      </c>
+      <c r="E116" t="n">
         <v>16</v>
       </c>
-      <c r="E116" t="n">
-        <v>9</v>
-      </c>
       <c r="F116" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3346,20 +3346,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3371,20 +3371,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3396,22 +3396,97 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>36</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C122" t="n">
         <v>1</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D122" t="n">
         <v>1</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F122" t="n">
         <v>1</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G122" t="n">
         <v>0</v>
       </c>
     </row>

--- a/save/SH_COVID19_DATA.xlsx
+++ b/save/SH_COVID19_DATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58137</v>
+        <v>58139</v>
       </c>
       <c r="F2" t="n">
         <v>591518</v>
@@ -496,7 +496,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -546,14 +546,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>58137</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F6" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F7" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -621,20 +621,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>58135</v>
+        <v>58137</v>
       </c>
       <c r="F8" t="n">
-        <v>591516</v>
+        <v>591518</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -646,20 +646,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>58133</v>
+        <v>58135</v>
       </c>
       <c r="F9" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -671,20 +671,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>58124</v>
+        <v>58135</v>
       </c>
       <c r="F10" t="n">
-        <v>591515</v>
+        <v>591516</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -696,20 +696,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>58120</v>
+        <v>58135</v>
       </c>
       <c r="F11" t="n">
-        <v>591511</v>
+        <v>591516</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -721,20 +721,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>58114</v>
+        <v>58133</v>
       </c>
       <c r="F12" t="n">
-        <v>591508</v>
+        <v>591515</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -746,20 +746,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>58104</v>
+        <v>58124</v>
       </c>
       <c r="F13" t="n">
-        <v>591505</v>
+        <v>591515</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -771,20 +771,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>58101</v>
+        <v>58120</v>
       </c>
       <c r="F14" t="n">
-        <v>591499</v>
+        <v>591511</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -796,20 +796,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>58100</v>
+        <v>58114</v>
       </c>
       <c r="F15" t="n">
-        <v>591493</v>
+        <v>591508</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -821,20 +821,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>58098</v>
+        <v>58104</v>
       </c>
       <c r="F16" t="n">
-        <v>591491</v>
+        <v>591505</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -846,20 +846,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>58089</v>
+        <v>58101</v>
       </c>
       <c r="F17" t="n">
-        <v>591484</v>
+        <v>591499</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>58076</v>
+        <v>58100</v>
       </c>
       <c r="F18" t="n">
-        <v>591482</v>
+        <v>591493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -896,20 +896,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>58073</v>
+        <v>58098</v>
       </c>
       <c r="F19" t="n">
-        <v>591468</v>
+        <v>591491</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>58062</v>
+        <v>58089</v>
       </c>
       <c r="F20" t="n">
-        <v>591442</v>
+        <v>591484</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -946,20 +946,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>58052</v>
+        <v>58076</v>
       </c>
       <c r="F21" t="n">
-        <v>591423</v>
+        <v>591482</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -971,20 +971,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>58045</v>
+        <v>58073</v>
       </c>
       <c r="F22" t="n">
-        <v>591414</v>
+        <v>591468</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -996,20 +996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>58039</v>
+        <v>58062</v>
       </c>
       <c r="F23" t="n">
-        <v>591409</v>
+        <v>591442</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1021,20 +1021,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>58035</v>
+        <v>58052</v>
       </c>
       <c r="F24" t="n">
-        <v>591404</v>
+        <v>591423</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1046,20 +1046,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>58031</v>
+        <v>58045</v>
       </c>
       <c r="F25" t="n">
-        <v>591393</v>
+        <v>591414</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>58028</v>
+        <v>58039</v>
       </c>
       <c r="F26" t="n">
-        <v>591386</v>
+        <v>591409</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1096,20 +1096,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>58024</v>
+        <v>58035</v>
       </c>
       <c r="F27" t="n">
-        <v>591382</v>
+        <v>591404</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1121,20 +1121,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>58018</v>
+        <v>58031</v>
       </c>
       <c r="F28" t="n">
-        <v>591366</v>
+        <v>591393</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>58013</v>
+        <v>58028</v>
       </c>
       <c r="F29" t="n">
-        <v>591357</v>
+        <v>591386</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1171,20 +1171,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>58005</v>
+        <v>58024</v>
       </c>
       <c r="F30" t="n">
-        <v>591349</v>
+        <v>591382</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>58000</v>
+        <v>58018</v>
       </c>
       <c r="F31" t="n">
-        <v>591341</v>
+        <v>591366</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1221,20 +1221,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>57995</v>
+        <v>58013</v>
       </c>
       <c r="F32" t="n">
-        <v>591331</v>
+        <v>591357</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>57986</v>
+        <v>58005</v>
       </c>
       <c r="F33" t="n">
-        <v>591309</v>
+        <v>591349</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1271,20 +1271,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>57980</v>
+        <v>58000</v>
       </c>
       <c r="F34" t="n">
-        <v>591248</v>
+        <v>591341</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1296,20 +1296,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>57951</v>
+        <v>57995</v>
       </c>
       <c r="F35" t="n">
-        <v>591155</v>
+        <v>591331</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="E36" t="n">
-        <v>57912</v>
+        <v>57986</v>
       </c>
       <c r="F36" t="n">
-        <v>591024</v>
+        <v>591309</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="E37" t="n">
-        <v>57867</v>
+        <v>57980</v>
       </c>
       <c r="F37" t="n">
-        <v>590805</v>
+        <v>591248</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1371,20 +1371,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="E38" t="n">
-        <v>57819</v>
+        <v>57951</v>
       </c>
       <c r="F38" t="n">
-        <v>590515</v>
+        <v>591155</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1396,20 +1396,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>57775</v>
+        <v>57912</v>
       </c>
       <c r="F39" t="n">
-        <v>590172</v>
+        <v>591024</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1421,20 +1421,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="E40" t="n">
-        <v>57717</v>
+        <v>57867</v>
       </c>
       <c r="F40" t="n">
-        <v>589750</v>
+        <v>590805</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D41" t="n">
-        <v>570</v>
+        <v>343</v>
       </c>
       <c r="E41" t="n">
-        <v>57662</v>
+        <v>57819</v>
       </c>
       <c r="F41" t="n">
-        <v>589247</v>
+        <v>590515</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1471,20 +1471,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D42" t="n">
-        <v>784</v>
+        <v>422</v>
       </c>
       <c r="E42" t="n">
-        <v>57610</v>
+        <v>57775</v>
       </c>
       <c r="F42" t="n">
-        <v>588677</v>
+        <v>590172</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1496,20 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D43" t="n">
-        <v>770</v>
+        <v>503</v>
       </c>
       <c r="E43" t="n">
-        <v>57526</v>
+        <v>57717</v>
       </c>
       <c r="F43" t="n">
-        <v>587893</v>
+        <v>589750</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D44" t="n">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="E44" t="n">
-        <v>57438</v>
+        <v>57662</v>
       </c>
       <c r="F44" t="n">
-        <v>587123</v>
+        <v>589247</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1546,20 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D45" t="n">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="E45" t="n">
-        <v>57356</v>
+        <v>57610</v>
       </c>
       <c r="F45" t="n">
-        <v>586486</v>
+        <v>588677</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D46" t="n">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E46" t="n">
-        <v>57260</v>
+        <v>57526</v>
       </c>
       <c r="F46" t="n">
-        <v>585727</v>
+        <v>587893</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1596,20 +1596,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D47" t="n">
-        <v>869</v>
+        <v>637</v>
       </c>
       <c r="E47" t="n">
-        <v>57183</v>
+        <v>57438</v>
       </c>
       <c r="F47" t="n">
-        <v>584981</v>
+        <v>587123</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D48" t="n">
-        <v>1203</v>
+        <v>759</v>
       </c>
       <c r="E48" t="n">
-        <v>57114</v>
+        <v>57356</v>
       </c>
       <c r="F48" t="n">
-        <v>584112</v>
+        <v>586486</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1646,20 +1646,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D49" t="n">
-        <v>1487</v>
+        <v>746</v>
       </c>
       <c r="E49" t="n">
-        <v>56948</v>
+        <v>57260</v>
       </c>
       <c r="F49" t="n">
-        <v>582909</v>
+        <v>585727</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1671,20 +1671,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>1869</v>
+        <v>869</v>
       </c>
       <c r="E50" t="n">
-        <v>56754</v>
+        <v>57183</v>
       </c>
       <c r="F50" t="n">
-        <v>581422</v>
+        <v>584981</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1696,20 +1696,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D51" t="n">
-        <v>1305</v>
+        <v>1203</v>
       </c>
       <c r="E51" t="n">
-        <v>56527</v>
+        <v>57114</v>
       </c>
       <c r="F51" t="n">
-        <v>579553</v>
+        <v>584112</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D52" t="n">
-        <v>1259</v>
+        <v>1487</v>
       </c>
       <c r="E52" t="n">
-        <v>56383</v>
+        <v>56948</v>
       </c>
       <c r="F52" t="n">
-        <v>578248</v>
+        <v>582909</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1746,20 +1746,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D53" t="n">
-        <v>2780</v>
+        <v>1869</v>
       </c>
       <c r="E53" t="n">
-        <v>56155</v>
+        <v>56754</v>
       </c>
       <c r="F53" t="n">
-        <v>576989</v>
+        <v>581422</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1771,20 +1771,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="D54" t="n">
-        <v>3625</v>
+        <v>1305</v>
       </c>
       <c r="E54" t="n">
-        <v>55921</v>
+        <v>56527</v>
       </c>
       <c r="F54" t="n">
-        <v>574209</v>
+        <v>579553</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1796,20 +1796,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D55" t="n">
-        <v>3760</v>
+        <v>1259</v>
       </c>
       <c r="E55" t="n">
-        <v>55599</v>
+        <v>56383</v>
       </c>
       <c r="F55" t="n">
-        <v>570584</v>
+        <v>578248</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1821,20 +1821,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D56" t="n">
-        <v>3961</v>
+        <v>2780</v>
       </c>
       <c r="E56" t="n">
-        <v>55384</v>
+        <v>56155</v>
       </c>
       <c r="F56" t="n">
-        <v>566824</v>
+        <v>576989</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="D57" t="n">
-        <v>4024</v>
+        <v>3625</v>
       </c>
       <c r="E57" t="n">
-        <v>55131</v>
+        <v>55921</v>
       </c>
       <c r="F57" t="n">
-        <v>562863</v>
+        <v>574209</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1871,20 +1871,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D58" t="n">
-        <v>4390</v>
+        <v>3760</v>
       </c>
       <c r="E58" t="n">
-        <v>54886</v>
+        <v>55599</v>
       </c>
       <c r="F58" t="n">
-        <v>558839</v>
+        <v>570584</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1896,20 +1896,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D59" t="n">
-        <v>4722</v>
+        <v>3961</v>
       </c>
       <c r="E59" t="n">
-        <v>54625</v>
+        <v>55384</v>
       </c>
       <c r="F59" t="n">
-        <v>554449</v>
+        <v>566824</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1921,20 +1921,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D60" t="n">
-        <v>5395</v>
+        <v>4024</v>
       </c>
       <c r="E60" t="n">
-        <v>54365</v>
+        <v>55131</v>
       </c>
       <c r="F60" t="n">
-        <v>549727</v>
+        <v>562863</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1946,20 +1946,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>727</v>
+        <v>261</v>
       </c>
       <c r="D61" t="n">
-        <v>6606</v>
+        <v>4390</v>
       </c>
       <c r="E61" t="n">
-        <v>54091</v>
+        <v>54886</v>
       </c>
       <c r="F61" t="n">
-        <v>544332</v>
+        <v>558839</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1971,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>788</v>
+        <v>260</v>
       </c>
       <c r="D62" t="n">
-        <v>7084</v>
+        <v>4722</v>
       </c>
       <c r="E62" t="n">
-        <v>53364</v>
+        <v>54625</v>
       </c>
       <c r="F62" t="n">
-        <v>537726</v>
+        <v>554449</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1996,20 +1996,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1249</v>
+        <v>274</v>
       </c>
       <c r="D63" t="n">
-        <v>8932</v>
+        <v>5395</v>
       </c>
       <c r="E63" t="n">
-        <v>52576</v>
+        <v>54365</v>
       </c>
       <c r="F63" t="n">
-        <v>530642</v>
+        <v>549727</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5487</v>
+        <v>727</v>
       </c>
       <c r="D64" t="n">
-        <v>9545</v>
+        <v>6606</v>
       </c>
       <c r="E64" t="n">
-        <v>51327</v>
+        <v>54091</v>
       </c>
       <c r="F64" t="n">
-        <v>521710</v>
+        <v>544332</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2046,20 +2046,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1292</v>
+        <v>788</v>
       </c>
       <c r="D65" t="n">
-        <v>9330</v>
+        <v>7084</v>
       </c>
       <c r="E65" t="n">
-        <v>45840</v>
+        <v>53364</v>
       </c>
       <c r="F65" t="n">
-        <v>512165</v>
+        <v>537726</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2071,20 +2071,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1606</v>
+        <v>1249</v>
       </c>
       <c r="D66" t="n">
-        <v>11956</v>
+        <v>8932</v>
       </c>
       <c r="E66" t="n">
-        <v>44548</v>
+        <v>52576</v>
       </c>
       <c r="F66" t="n">
-        <v>502835</v>
+        <v>530642</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1661</v>
+        <v>5487</v>
       </c>
       <c r="D67" t="n">
-        <v>15319</v>
+        <v>9545</v>
       </c>
       <c r="E67" t="n">
-        <v>42942</v>
+        <v>51327</v>
       </c>
       <c r="F67" t="n">
-        <v>490879</v>
+        <v>521710</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2472</v>
+        <v>1292</v>
       </c>
       <c r="D68" t="n">
-        <v>16983</v>
+        <v>9330</v>
       </c>
       <c r="E68" t="n">
-        <v>41281</v>
+        <v>45840</v>
       </c>
       <c r="F68" t="n">
-        <v>475560</v>
+        <v>512165</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2146,20 +2146,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="D69" t="n">
-        <v>19657</v>
+        <v>11956</v>
       </c>
       <c r="E69" t="n">
-        <v>38809</v>
+        <v>44548</v>
       </c>
       <c r="F69" t="n">
-        <v>458577</v>
+        <v>502835</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2171,20 +2171,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2736</v>
+        <v>1661</v>
       </c>
       <c r="D70" t="n">
-        <v>20634</v>
+        <v>15319</v>
       </c>
       <c r="E70" t="n">
-        <v>37408</v>
+        <v>42942</v>
       </c>
       <c r="F70" t="n">
-        <v>438920</v>
+        <v>490879</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2196,20 +2196,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1931</v>
+        <v>2472</v>
       </c>
       <c r="D71" t="n">
-        <v>15698</v>
+        <v>16983</v>
       </c>
       <c r="E71" t="n">
-        <v>34672</v>
+        <v>41281</v>
       </c>
       <c r="F71" t="n">
-        <v>418286</v>
+        <v>475560</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2221,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2634</v>
+        <v>1401</v>
       </c>
       <c r="D72" t="n">
-        <v>15861</v>
+        <v>19657</v>
       </c>
       <c r="E72" t="n">
-        <v>32741</v>
+        <v>38809</v>
       </c>
       <c r="F72" t="n">
-        <v>402588</v>
+        <v>458577</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2246,20 +2246,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2494</v>
+        <v>2736</v>
       </c>
       <c r="D73" t="n">
-        <v>16407</v>
+        <v>20634</v>
       </c>
       <c r="E73" t="n">
-        <v>30107</v>
+        <v>37408</v>
       </c>
       <c r="F73" t="n">
-        <v>386727</v>
+        <v>438920</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2271,20 +2271,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3084</v>
+        <v>1931</v>
       </c>
       <c r="D74" t="n">
-        <v>17332</v>
+        <v>15698</v>
       </c>
       <c r="E74" t="n">
-        <v>27613</v>
+        <v>34672</v>
       </c>
       <c r="F74" t="n">
-        <v>370320</v>
+        <v>418286</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2296,20 +2296,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2417</v>
+        <v>2634</v>
       </c>
       <c r="D75" t="n">
-        <v>19831</v>
+        <v>15861</v>
       </c>
       <c r="E75" t="n">
-        <v>24529</v>
+        <v>32741</v>
       </c>
       <c r="F75" t="n">
-        <v>352988</v>
+        <v>402588</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2321,20 +2321,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3238</v>
+        <v>2494</v>
       </c>
       <c r="D76" t="n">
-        <v>21582</v>
+        <v>16407</v>
       </c>
       <c r="E76" t="n">
-        <v>22112</v>
+        <v>30107</v>
       </c>
       <c r="F76" t="n">
-        <v>333157</v>
+        <v>386727</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2346,20 +2346,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3590</v>
+        <v>3084</v>
       </c>
       <c r="D77" t="n">
-        <v>19923</v>
+        <v>17332</v>
       </c>
       <c r="E77" t="n">
-        <v>18874</v>
+        <v>27613</v>
       </c>
       <c r="F77" t="n">
-        <v>311575</v>
+        <v>370320</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2371,20 +2371,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3200</v>
+        <v>2417</v>
       </c>
       <c r="D78" t="n">
-        <v>19872</v>
+        <v>19831</v>
       </c>
       <c r="E78" t="n">
-        <v>15284</v>
+        <v>24529</v>
       </c>
       <c r="F78" t="n">
-        <v>291652</v>
+        <v>352988</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2396,20 +2396,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2573</v>
+        <v>3238</v>
       </c>
       <c r="D79" t="n">
-        <v>25146</v>
+        <v>21582</v>
       </c>
       <c r="E79" t="n">
-        <v>12084</v>
+        <v>22112</v>
       </c>
       <c r="F79" t="n">
-        <v>271780</v>
+        <v>333157</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2421,20 +2421,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1189</v>
+        <v>3590</v>
       </c>
       <c r="D80" t="n">
-        <v>25141</v>
+        <v>19923</v>
       </c>
       <c r="E80" t="n">
-        <v>9511</v>
+        <v>18874</v>
       </c>
       <c r="F80" t="n">
-        <v>246634</v>
+        <v>311575</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2446,20 +2446,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>994</v>
+        <v>3200</v>
       </c>
       <c r="D81" t="n">
-        <v>22348</v>
+        <v>19872</v>
       </c>
       <c r="E81" t="n">
-        <v>8322</v>
+        <v>15284</v>
       </c>
       <c r="F81" t="n">
-        <v>221493</v>
+        <v>291652</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2471,20 +2471,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>914</v>
+        <v>2573</v>
       </c>
       <c r="D82" t="n">
-        <v>25173</v>
+        <v>25146</v>
       </c>
       <c r="E82" t="n">
-        <v>7328</v>
+        <v>12084</v>
       </c>
       <c r="F82" t="n">
-        <v>199145</v>
+        <v>271780</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2496,20 +2496,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1006</v>
+        <v>1189</v>
       </c>
       <c r="D83" t="n">
-        <v>23937</v>
+        <v>25141</v>
       </c>
       <c r="E83" t="n">
-        <v>6414</v>
+        <v>9511</v>
       </c>
       <c r="F83" t="n">
-        <v>173972</v>
+        <v>246634</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2521,20 +2521,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="D84" t="n">
-        <v>22609</v>
+        <v>22348</v>
       </c>
       <c r="E84" t="n">
-        <v>5408</v>
+        <v>8322</v>
       </c>
       <c r="F84" t="n">
-        <v>150035</v>
+        <v>221493</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>824</v>
+        <v>914</v>
       </c>
       <c r="D85" t="n">
-        <v>20398</v>
+        <v>25173</v>
       </c>
       <c r="E85" t="n">
-        <v>4393</v>
+        <v>7328</v>
       </c>
       <c r="F85" t="n">
-        <v>127426</v>
+        <v>199145</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2571,20 +2571,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>322</v>
+        <v>1006</v>
       </c>
       <c r="D86" t="n">
-        <v>19660</v>
+        <v>23937</v>
       </c>
       <c r="E86" t="n">
-        <v>3569</v>
+        <v>6414</v>
       </c>
       <c r="F86" t="n">
-        <v>107028</v>
+        <v>173972</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2596,20 +2596,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>311</v>
+        <v>1015</v>
       </c>
       <c r="D87" t="n">
-        <v>16766</v>
+        <v>22609</v>
       </c>
       <c r="E87" t="n">
-        <v>3247</v>
+        <v>5408</v>
       </c>
       <c r="F87" t="n">
-        <v>87368</v>
+        <v>150035</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2621,20 +2621,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>268</v>
+        <v>824</v>
       </c>
       <c r="D88" t="n">
-        <v>13086</v>
+        <v>20398</v>
       </c>
       <c r="E88" t="n">
-        <v>2936</v>
+        <v>4393</v>
       </c>
       <c r="F88" t="n">
-        <v>70602</v>
+        <v>127426</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2646,20 +2646,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="D89" t="n">
-        <v>8581</v>
+        <v>19660</v>
       </c>
       <c r="E89" t="n">
-        <v>2668</v>
+        <v>3569</v>
       </c>
       <c r="F89" t="n">
-        <v>57516</v>
+        <v>107028</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2671,20 +2671,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="D90" t="n">
-        <v>7788</v>
+        <v>16766</v>
       </c>
       <c r="E90" t="n">
-        <v>2243</v>
+        <v>3247</v>
       </c>
       <c r="F90" t="n">
-        <v>48935</v>
+        <v>87368</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2696,20 +2696,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D91" t="n">
-        <v>6051</v>
+        <v>13086</v>
       </c>
       <c r="E91" t="n">
-        <v>1805</v>
+        <v>2936</v>
       </c>
       <c r="F91" t="n">
-        <v>41147</v>
+        <v>70602</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2721,20 +2721,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="D92" t="n">
-        <v>4144</v>
+        <v>8581</v>
       </c>
       <c r="E92" t="n">
-        <v>1545</v>
+        <v>2668</v>
       </c>
       <c r="F92" t="n">
-        <v>35096</v>
+        <v>57516</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="D93" t="n">
-        <v>5298</v>
+        <v>7788</v>
       </c>
       <c r="E93" t="n">
-        <v>1187</v>
+        <v>2243</v>
       </c>
       <c r="F93" t="n">
-        <v>30952</v>
+        <v>48935</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2771,20 +2771,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="D94" t="n">
-        <v>5656</v>
+        <v>6051</v>
       </c>
       <c r="E94" t="n">
-        <v>832</v>
+        <v>1805</v>
       </c>
       <c r="F94" t="n">
-        <v>25654</v>
+        <v>41147</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="D95" t="n">
-        <v>4381</v>
+        <v>4144</v>
       </c>
       <c r="E95" t="n">
-        <v>506</v>
+        <v>1545</v>
       </c>
       <c r="F95" t="n">
-        <v>19998</v>
+        <v>35096</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2821,20 +2821,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="D96" t="n">
-        <v>3450</v>
+        <v>5298</v>
       </c>
       <c r="E96" t="n">
-        <v>410</v>
+        <v>1187</v>
       </c>
       <c r="F96" t="n">
-        <v>15617</v>
+        <v>30952</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D97" t="n">
-        <v>2631</v>
+        <v>5656</v>
       </c>
       <c r="E97" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="F97" t="n">
-        <v>12167</v>
+        <v>25654</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2871,20 +2871,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D98" t="n">
-        <v>2231</v>
+        <v>4381</v>
       </c>
       <c r="E98" t="n">
-        <v>315</v>
+        <v>506</v>
       </c>
       <c r="F98" t="n">
-        <v>9536</v>
+        <v>19998</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2896,20 +2896,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>1580</v>
+        <v>3450</v>
       </c>
       <c r="E99" t="n">
-        <v>277</v>
+        <v>410</v>
       </c>
       <c r="F99" t="n">
-        <v>7305</v>
+        <v>15617</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2921,20 +2921,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D100" t="n">
-        <v>979</v>
+        <v>2631</v>
       </c>
       <c r="E100" t="n">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="F100" t="n">
-        <v>5725</v>
+        <v>12167</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>977</v>
+        <v>2231</v>
       </c>
       <c r="E101" t="n">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F101" t="n">
-        <v>4746</v>
+        <v>9536</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2971,20 +2971,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
-        <v>865</v>
+        <v>1580</v>
       </c>
       <c r="E102" t="n">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F102" t="n">
-        <v>3769</v>
+        <v>7305</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>734</v>
+        <v>979</v>
       </c>
       <c r="E103" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F103" t="n">
-        <v>2904</v>
+        <v>5725</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3021,20 +3021,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>492</v>
+        <v>977</v>
       </c>
       <c r="E104" t="n">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F104" t="n">
-        <v>2170</v>
+        <v>4746</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3046,20 +3046,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="E105" t="n">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="F105" t="n">
-        <v>1678</v>
+        <v>3769</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3071,20 +3071,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D106" t="n">
-        <v>203</v>
+        <v>734</v>
       </c>
       <c r="E106" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F106" t="n">
-        <v>1312</v>
+        <v>2904</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3096,20 +3096,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107" t="n">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="E107" t="n">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F107" t="n">
-        <v>1109</v>
+        <v>2170</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3121,20 +3121,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E108" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="F108" t="n">
-        <v>959</v>
+        <v>1678</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3146,20 +3146,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D109" t="n">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E109" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F109" t="n">
-        <v>762</v>
+        <v>1312</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3171,20 +3171,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E110" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F110" t="n">
-        <v>632</v>
+        <v>1109</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3196,20 +3196,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E111" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F111" t="n">
-        <v>504</v>
+        <v>959</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E112" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F112" t="n">
-        <v>440</v>
+        <v>762</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3246,20 +3246,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D113" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E113" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F113" t="n">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3271,20 +3271,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E114" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F114" t="n">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3296,20 +3296,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E115" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F115" t="n">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3321,20 +3321,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F116" t="n">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3346,20 +3346,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F117" t="n">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3371,20 +3371,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F118" t="n">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3396,20 +3396,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
+        <v>51</v>
+      </c>
+      <c r="E119" t="n">
         <v>16</v>
       </c>
-      <c r="E119" t="n">
-        <v>9</v>
-      </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3421,20 +3421,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3446,20 +3446,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3471,22 +3471,97 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C125" t="n">
         <v>1</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D125" t="n">
         <v>1</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F125" t="n">
         <v>1</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G125" t="n">
         <v>0</v>
       </c>
     </row>
